--- a/database/data/data.xlsx
+++ b/database/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFG\TFG-PAP\database\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG\TFG-PAP\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3BAAA9-0012-4881-BA99-32C3F6CF4454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD694F9D-B8CC-4715-AD87-F179A1AD3714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="16410" windowHeight="14145" xr2:uid="{6EBC8454-5BC2-6146-A02D-5FBCBC7290DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EBC8454-5BC2-6146-A02D-5FBCBC7290DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -647,9 +647,6 @@
     <t>Turno 1</t>
   </si>
   <si>
-    <t>L, M, X, J</t>
-  </si>
-  <si>
     <t>Turno 2</t>
   </si>
   <si>
@@ -662,13 +659,7 @@
     <t>FID-MIS</t>
   </si>
   <si>
-    <t>L, M</t>
-  </si>
-  <si>
     <t>FISSC-MIS</t>
-  </si>
-  <si>
-    <t>X, J</t>
   </si>
   <si>
     <t>DP-MIS</t>
@@ -687,9 +678,6 @@
   </si>
   <si>
     <t>IPSA-MIS</t>
-  </si>
-  <si>
-    <t>L, M, J</t>
   </si>
   <si>
     <t>ASS-MIS</t>
@@ -723,9 +711,6 @@
   </si>
   <si>
     <t>PLM-MIS</t>
-  </si>
-  <si>
-    <t>L, M, X</t>
   </si>
   <si>
     <t>PSA-MIS</t>
@@ -1079,7 +1064,22 @@
     <t>provisional8</t>
   </si>
   <si>
-    <t>L, M, X, J - 16:00</t>
+    <t>L., Ma., J</t>
+  </si>
+  <si>
+    <t>L., Ma., X</t>
+  </si>
+  <si>
+    <t>L., Ma., Mi, J. - 16:00</t>
+  </si>
+  <si>
+    <t>L., Ma., Mi, J.</t>
+  </si>
+  <si>
+    <t>Mi, J.</t>
+  </si>
+  <si>
+    <t>L., Ma.</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1202,11 +1202,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,291 +1542,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C940169-15B4-CC42-BE73-FC880EC256C3}">
   <dimension ref="A1:CV594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="G474" sqref="G474"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:100">
       <c r="I1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" t="s">
         <v>255</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>256</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>257</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>258</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>259</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>260</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>261</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>262</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>263</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>264</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>265</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>266</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>267</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>268</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>269</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>270</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>271</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>273</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>274</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>275</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>276</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>277</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>278</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>282</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
         <v>283</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>284</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
         <v>285</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AS1" t="s">
         <v>286</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" t="s">
         <v>287</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>288</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>289</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>290</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>291</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>292</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AZ1" t="s">
         <v>293</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BA1" t="s">
         <v>294</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BB1" t="s">
         <v>295</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
         <v>296</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BD1" t="s">
         <v>297</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BE1" t="s">
         <v>298</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BF1" t="s">
         <v>299</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BG1" t="s">
         <v>300</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BH1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL1" t="s">
         <v>301</v>
       </c>
-      <c r="BD1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="BM1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>307</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>310</v>
       </c>
-      <c r="BI1" t="s">
-        <v>307</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>308</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>309</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BR1" t="s">
         <v>311</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BS1" t="s">
         <v>312</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BT1" t="s">
         <v>313</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BU1" t="s">
         <v>314</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BV1" t="s">
         <v>315</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BW1" t="s">
         <v>316</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BX1" t="s">
         <v>317</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BY1" t="s">
         <v>318</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BZ1" t="s">
         <v>319</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CA1" t="s">
         <v>320</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CB1" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CC1" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="CD1" t="s">
         <v>322</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CE1" t="s">
         <v>323</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CF1" t="s">
         <v>324</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CG1" t="s">
         <v>325</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CH1" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="CI1" t="s">
         <v>326</v>
       </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CJ1" t="s">
+        <v>327</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL1" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="CM1" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="CN1" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="CO1" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="CD1" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>328</v>
-      </c>
-      <c r="CF1" t="s">
+      <c r="CP1" t="s">
         <v>329</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CQ1" t="s">
         <v>330</v>
       </c>
-      <c r="CH1" s="11" t="s">
+      <c r="CR1" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CS1" t="s">
         <v>331</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CT1" t="s">
         <v>332</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CU1" t="s">
         <v>333</v>
       </c>
-      <c r="CL1" s="11" t="s">
+      <c r="CV1" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="CM1" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="CN1" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="CO1" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>334</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CR1" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>336</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CV1" s="11" t="s">
-        <v>346</v>
-      </c>
     </row>
-    <row r="2" spans="1:100" ht="116">
+    <row r="2" spans="1:100" ht="111.6">
       <c r="A2" s="1"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3290,98 +3289,98 @@
       <c r="H7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="12"/>
-      <c r="AZ7" s="12"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
-      <c r="BH7" s="12"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
-      <c r="BK7" s="12"/>
-      <c r="BL7" s="12"/>
-      <c r="BM7" s="12"/>
-      <c r="BN7" s="12"/>
-      <c r="BO7" s="12"/>
-      <c r="BP7" s="12"/>
-      <c r="BQ7" s="12"/>
-      <c r="BR7" s="12"/>
-      <c r="BS7" s="12"/>
-      <c r="BT7" s="12"/>
-      <c r="BU7" s="12"/>
-      <c r="BV7" s="12"/>
-      <c r="BW7" s="12"/>
-      <c r="BX7" s="12"/>
-      <c r="BY7" s="12"/>
-      <c r="BZ7" s="12"/>
-      <c r="CA7" s="12"/>
-      <c r="CB7" s="12"/>
-      <c r="CC7" s="12"/>
-      <c r="CD7" s="12"/>
-      <c r="CE7" s="12"/>
-      <c r="CF7" s="12"/>
-      <c r="CG7" s="12"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="12"/>
-      <c r="CJ7" s="12"/>
-      <c r="CK7" s="12"/>
-      <c r="CL7" s="12"/>
-      <c r="CM7" s="12"/>
-      <c r="CN7" s="12"/>
-      <c r="CO7" s="12"/>
-      <c r="CP7" s="12"/>
-      <c r="CQ7" s="12"/>
-      <c r="CR7" s="12"/>
-      <c r="CS7" s="12"/>
-      <c r="CT7" s="12"/>
-      <c r="CU7" s="12"/>
-      <c r="CV7" s="12"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="15"/>
+      <c r="BS7" s="15"/>
+      <c r="BT7" s="15"/>
+      <c r="BU7" s="15"/>
+      <c r="BV7" s="15"/>
+      <c r="BW7" s="15"/>
+      <c r="BX7" s="15"/>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="15"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15"/>
+      <c r="CN7" s="15"/>
+      <c r="CO7" s="15"/>
+      <c r="CP7" s="15"/>
+      <c r="CQ7" s="15"/>
+      <c r="CR7" s="15"/>
+      <c r="CS7" s="15"/>
+      <c r="CT7" s="15"/>
+      <c r="CU7" s="15"/>
+      <c r="CV7" s="15"/>
     </row>
     <row r="8" spans="1:100">
       <c r="A8" s="8" t="s">
@@ -57425,7 +57424,7 @@
         <v>1</v>
       </c>
       <c r="G463" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
@@ -58007,7 +58006,7 @@
         <v>1</v>
       </c>
       <c r="G468" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
@@ -58110,7 +58109,7 @@
         <v>201</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C469" s="8">
         <v>1</v>
@@ -58125,7 +58124,7 @@
         <v>1</v>
       </c>
       <c r="G469" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
@@ -58225,7 +58224,7 @@
     </row>
     <row r="470" spans="1:100">
       <c r="A470" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B470" s="8" t="s">
         <v>202</v>
@@ -58341,10 +58340,10 @@
     </row>
     <row r="471" spans="1:100">
       <c r="A471" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C471" s="8">
         <v>1</v>
@@ -58457,7 +58456,7 @@
     </row>
     <row r="472" spans="1:100">
       <c r="A472" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B472" s="8" t="s">
         <v>202</v>
@@ -58475,7 +58474,7 @@
         <v>1</v>
       </c>
       <c r="G472" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
@@ -58575,10 +58574,10 @@
     </row>
     <row r="473" spans="1:100">
       <c r="A473" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C473" s="8">
         <v>1</v>
@@ -58593,7 +58592,7 @@
         <v>1</v>
       </c>
       <c r="G473" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
@@ -58693,7 +58692,7 @@
     </row>
     <row r="474" spans="1:100">
       <c r="A474" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B474" s="8" t="s">
         <v>202</v>
@@ -58711,7 +58710,7 @@
         <v>1</v>
       </c>
       <c r="G474" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
@@ -58811,10 +58810,10 @@
     </row>
     <row r="475" spans="1:100">
       <c r="A475" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C475" s="8">
         <v>1</v>
@@ -58829,7 +58828,7 @@
         <v>1</v>
       </c>
       <c r="G475" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
@@ -58929,7 +58928,7 @@
     </row>
     <row r="476" spans="1:100">
       <c r="A476" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B476" s="8" t="s">
         <v>202</v>
@@ -58947,7 +58946,7 @@
         <v>1</v>
       </c>
       <c r="G476" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
@@ -59047,10 +59046,10 @@
     </row>
     <row r="477" spans="1:100">
       <c r="A477" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C477" s="8">
         <v>1</v>
@@ -59065,7 +59064,7 @@
         <v>1</v>
       </c>
       <c r="G477" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
@@ -59165,7 +59164,7 @@
     </row>
     <row r="478" spans="1:100">
       <c r="A478" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B478" s="8" t="s">
         <v>202</v>
@@ -59183,7 +59182,7 @@
         <v>1</v>
       </c>
       <c r="G478" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
@@ -59283,10 +59282,10 @@
     </row>
     <row r="479" spans="1:100">
       <c r="A479" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C479" s="8">
         <v>1</v>
@@ -59301,7 +59300,7 @@
         <v>1</v>
       </c>
       <c r="G479" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
@@ -59401,7 +59400,7 @@
     </row>
     <row r="480" spans="1:100">
       <c r="A480" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B480" s="8" t="s">
         <v>202</v>
@@ -59419,7 +59418,7 @@
         <v>1</v>
       </c>
       <c r="G480" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
@@ -59519,10 +59518,10 @@
     </row>
     <row r="481" spans="1:100">
       <c r="A481" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C481" s="8">
         <v>1</v>
@@ -59537,7 +59536,7 @@
         <v>1</v>
       </c>
       <c r="G481" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
@@ -59637,7 +59636,7 @@
     </row>
     <row r="482" spans="1:100">
       <c r="A482" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B482" s="8" t="s">
         <v>202</v>
@@ -59655,7 +59654,7 @@
         <v>1</v>
       </c>
       <c r="G482" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
@@ -59755,10 +59754,10 @@
     </row>
     <row r="483" spans="1:100">
       <c r="A483" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C483" s="8">
         <v>1</v>
@@ -59773,7 +59772,7 @@
         <v>1</v>
       </c>
       <c r="G483" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
@@ -59873,7 +59872,7 @@
     </row>
     <row r="484" spans="1:100">
       <c r="A484" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B484" s="8" t="s">
         <v>202</v>
@@ -59891,7 +59890,7 @@
         <v>1</v>
       </c>
       <c r="G484" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
@@ -59991,10 +59990,10 @@
     </row>
     <row r="485" spans="1:100">
       <c r="A485" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C485" s="8">
         <v>1</v>
@@ -60009,7 +60008,7 @@
         <v>1</v>
       </c>
       <c r="G485" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
@@ -60109,7 +60108,7 @@
     </row>
     <row r="486" spans="1:100">
       <c r="A486" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B486" s="8" t="s">
         <v>202</v>
@@ -60127,7 +60126,7 @@
         <v>1</v>
       </c>
       <c r="G486" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
@@ -60227,10 +60226,10 @@
     </row>
     <row r="487" spans="1:100">
       <c r="A487" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C487" s="8">
         <v>1</v>
@@ -60245,7 +60244,7 @@
         <v>1</v>
       </c>
       <c r="G487" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
@@ -60345,7 +60344,7 @@
     </row>
     <row r="488" spans="1:100">
       <c r="A488" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B488" s="8" t="s">
         <v>202</v>
@@ -60363,7 +60362,7 @@
         <v>1</v>
       </c>
       <c r="G488" s="8" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
@@ -60463,10 +60462,10 @@
     </row>
     <row r="489" spans="1:100">
       <c r="A489" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C489" s="8">
         <v>1</v>
@@ -60481,7 +60480,7 @@
         <v>1</v>
       </c>
       <c r="G489" s="8" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
@@ -60581,7 +60580,7 @@
     </row>
     <row r="490" spans="1:100">
       <c r="A490" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B490" s="8" t="s">
         <v>202</v>
@@ -60599,7 +60598,7 @@
         <v>1</v>
       </c>
       <c r="G490" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
@@ -60699,10 +60698,10 @@
     </row>
     <row r="491" spans="1:100">
       <c r="A491" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C491" s="8">
         <v>1</v>
@@ -60717,7 +60716,7 @@
         <v>1</v>
       </c>
       <c r="G491" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
@@ -60817,7 +60816,7 @@
     </row>
     <row r="492" spans="1:100">
       <c r="A492" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B492" s="8" t="s">
         <v>202</v>
@@ -60835,7 +60834,7 @@
         <v>1</v>
       </c>
       <c r="G492" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
@@ -60935,10 +60934,10 @@
     </row>
     <row r="493" spans="1:100">
       <c r="A493" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C493" s="8">
         <v>1</v>
@@ -60953,7 +60952,7 @@
         <v>1</v>
       </c>
       <c r="G493" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
@@ -61053,7 +61052,7 @@
     </row>
     <row r="494" spans="1:100">
       <c r="A494" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B494" s="8" t="s">
         <v>202</v>
@@ -61071,7 +61070,7 @@
         <v>1</v>
       </c>
       <c r="G494" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
@@ -61171,10 +61170,10 @@
     </row>
     <row r="495" spans="1:100">
       <c r="A495" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C495" s="8">
         <v>1</v>
@@ -61189,7 +61188,7 @@
         <v>1</v>
       </c>
       <c r="G495" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
@@ -61289,7 +61288,7 @@
     </row>
     <row r="496" spans="1:100">
       <c r="A496" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B496" s="8" t="s">
         <v>202</v>
@@ -61307,7 +61306,7 @@
         <v>1</v>
       </c>
       <c r="G496" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
@@ -61407,10 +61406,10 @@
     </row>
     <row r="497" spans="1:100">
       <c r="A497" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C497" s="8">
         <v>1</v>
@@ -61425,7 +61424,7 @@
         <v>1</v>
       </c>
       <c r="G497" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
@@ -61525,7 +61524,7 @@
     </row>
     <row r="498" spans="1:100">
       <c r="A498" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B498" s="8" t="s">
         <v>202</v>
@@ -61543,7 +61542,7 @@
         <v>1</v>
       </c>
       <c r="G498" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
@@ -61643,10 +61642,10 @@
     </row>
     <row r="499" spans="1:100">
       <c r="A499" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C499" s="8">
         <v>1</v>
@@ -61661,7 +61660,7 @@
         <v>1</v>
       </c>
       <c r="G499" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
@@ -61761,7 +61760,7 @@
     </row>
     <row r="500" spans="1:100">
       <c r="A500" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B500" s="8" t="s">
         <v>202</v>
@@ -61779,7 +61778,7 @@
         <v>1</v>
       </c>
       <c r="G500" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
@@ -61879,10 +61878,10 @@
     </row>
     <row r="501" spans="1:100">
       <c r="A501" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C501" s="8">
         <v>1</v>
@@ -61897,7 +61896,7 @@
         <v>1</v>
       </c>
       <c r="G501" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
@@ -61997,7 +61996,7 @@
     </row>
     <row r="502" spans="1:100">
       <c r="A502" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B502" s="8" t="s">
         <v>202</v>
@@ -62015,7 +62014,7 @@
         <v>1</v>
       </c>
       <c r="G502" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
@@ -62115,10 +62114,10 @@
     </row>
     <row r="503" spans="1:100">
       <c r="A503" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C503" s="8">
         <v>1</v>
@@ -62133,7 +62132,7 @@
         <v>1</v>
       </c>
       <c r="G503" s="8" t="s">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
@@ -62233,7 +62232,7 @@
     </row>
     <row r="504" spans="1:100">
       <c r="A504" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B504" s="8" t="s">
         <v>202</v>
@@ -62251,7 +62250,7 @@
         <v>1</v>
       </c>
       <c r="G504" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
@@ -62351,10 +62350,10 @@
     </row>
     <row r="505" spans="1:100">
       <c r="A505" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C505" s="8">
         <v>1</v>
@@ -62369,7 +62368,7 @@
         <v>1</v>
       </c>
       <c r="G505" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
@@ -62469,7 +62468,7 @@
     </row>
     <row r="506" spans="1:100">
       <c r="A506" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B506" s="8" t="s">
         <v>202</v>
@@ -62487,7 +62486,7 @@
         <v>1</v>
       </c>
       <c r="G506" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H506" s="1"/>
       <c r="I506" s="1"/>
@@ -62587,10 +62586,10 @@
     </row>
     <row r="507" spans="1:100">
       <c r="A507" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C507" s="8">
         <v>1</v>
@@ -62605,7 +62604,7 @@
         <v>1</v>
       </c>
       <c r="G507" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
@@ -62705,7 +62704,7 @@
     </row>
     <row r="508" spans="1:100">
       <c r="A508" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B508" s="8" t="s">
         <v>202</v>
@@ -62723,7 +62722,7 @@
         <v>1</v>
       </c>
       <c r="G508" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
@@ -62823,10 +62822,10 @@
     </row>
     <row r="509" spans="1:100">
       <c r="A509" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C509" s="8">
         <v>1</v>
@@ -62841,7 +62840,7 @@
         <v>1</v>
       </c>
       <c r="G509" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
@@ -62941,7 +62940,7 @@
     </row>
     <row r="510" spans="1:100">
       <c r="A510" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B510" s="8" t="s">
         <v>202</v>
@@ -62959,7 +62958,7 @@
         <v>1</v>
       </c>
       <c r="G510" s="8" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
@@ -63059,10 +63058,10 @@
     </row>
     <row r="511" spans="1:100">
       <c r="A511" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C511" s="8">
         <v>1</v>
@@ -63077,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="G511" s="8" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="H511" s="1"/>
       <c r="I511" s="1"/>
@@ -63177,7 +63176,7 @@
     </row>
     <row r="512" spans="1:100">
       <c r="A512" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B512" s="8" t="s">
         <v>202</v>
@@ -63195,7 +63194,7 @@
         <v>1</v>
       </c>
       <c r="G512" s="8" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="H512" s="1"/>
       <c r="I512" s="1"/>
@@ -63295,10 +63294,10 @@
     </row>
     <row r="513" spans="1:100">
       <c r="A513" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C513" s="8">
         <v>1</v>
@@ -63313,7 +63312,7 @@
         <v>1</v>
       </c>
       <c r="G513" s="8" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
@@ -63413,7 +63412,7 @@
     </row>
     <row r="514" spans="1:100">
       <c r="A514" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B514" s="8" t="s">
         <v>202</v>
@@ -63431,7 +63430,7 @@
         <v>1</v>
       </c>
       <c r="G514" s="8" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
@@ -63531,10 +63530,10 @@
     </row>
     <row r="515" spans="1:100">
       <c r="A515" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C515" s="8">
         <v>1</v>
@@ -63549,7 +63548,7 @@
         <v>1</v>
       </c>
       <c r="G515" s="8" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
@@ -63649,7 +63648,7 @@
     </row>
     <row r="516" spans="1:100">
       <c r="A516" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B516" s="8" t="s">
         <v>202</v>
@@ -63667,7 +63666,7 @@
         <v>1</v>
       </c>
       <c r="G516" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
@@ -63767,10 +63766,10 @@
     </row>
     <row r="517" spans="1:100">
       <c r="A517" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C517" s="8">
         <v>1</v>
@@ -63785,7 +63784,7 @@
         <v>1</v>
       </c>
       <c r="G517" s="8" t="s">
-        <v>203</v>
+        <v>345</v>
       </c>
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
@@ -63885,7 +63884,7 @@
     </row>
     <row r="518" spans="1:100">
       <c r="A518" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>125</v>
@@ -63902,7 +63901,7 @@
       <c r="F518" s="1">
         <v>1</v>
       </c>
-      <c r="G518" s="15"/>
+      <c r="G518" s="8"/>
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -64001,7 +64000,7 @@
     </row>
     <row r="519" spans="1:100">
       <c r="A519" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>200</v>
@@ -64018,7 +64017,7 @@
       <c r="F519" s="1">
         <v>1</v>
       </c>
-      <c r="G519" s="15"/>
+      <c r="G519" s="8"/>
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -64117,7 +64116,7 @@
     </row>
     <row r="520" spans="1:100">
       <c r="A520" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>112</v>
@@ -64134,7 +64133,7 @@
       <c r="F520" s="1">
         <v>1</v>
       </c>
-      <c r="G520" s="15"/>
+      <c r="G520" s="8"/>
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -64233,10 +64232,10 @@
     </row>
     <row r="521" spans="1:100">
       <c r="A521" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C521" s="1">
         <v>1</v>
@@ -64250,7 +64249,7 @@
       <c r="F521" s="1">
         <v>1</v>
       </c>
-      <c r="G521" s="15"/>
+      <c r="G521" s="8"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -64349,7 +64348,7 @@
     </row>
     <row r="522" spans="1:100">
       <c r="A522" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>125</v>
@@ -64366,7 +64365,7 @@
       <c r="F522" s="1">
         <v>1</v>
       </c>
-      <c r="G522" s="15"/>
+      <c r="G522" s="8"/>
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -64465,7 +64464,7 @@
     </row>
     <row r="523" spans="1:100">
       <c r="A523" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>200</v>
@@ -64482,7 +64481,7 @@
       <c r="F523" s="1">
         <v>1</v>
       </c>
-      <c r="G523" s="15"/>
+      <c r="G523" s="8"/>
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
@@ -64581,7 +64580,7 @@
     </row>
     <row r="524" spans="1:100">
       <c r="A524" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>112</v>
@@ -64598,7 +64597,7 @@
       <c r="F524" s="1">
         <v>1</v>
       </c>
-      <c r="G524" s="15"/>
+      <c r="G524" s="8"/>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
       <c r="J524" s="1"/>
@@ -64697,10 +64696,10 @@
     </row>
     <row r="525" spans="1:100">
       <c r="A525" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C525" s="1">
         <v>1</v>
@@ -64714,7 +64713,7 @@
       <c r="F525" s="1">
         <v>1</v>
       </c>
-      <c r="G525" s="15"/>
+      <c r="G525" s="8"/>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
@@ -64813,7 +64812,7 @@
     </row>
     <row r="526" spans="1:100">
       <c r="A526" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>125</v>
@@ -64830,7 +64829,7 @@
       <c r="F526" s="1">
         <v>1</v>
       </c>
-      <c r="G526" s="15"/>
+      <c r="G526" s="8"/>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
@@ -64929,7 +64928,7 @@
     </row>
     <row r="527" spans="1:100">
       <c r="A527" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>200</v>
@@ -64946,7 +64945,7 @@
       <c r="F527" s="1">
         <v>1</v>
       </c>
-      <c r="G527" s="15"/>
+      <c r="G527" s="8"/>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
@@ -65045,7 +65044,7 @@
     </row>
     <row r="528" spans="1:100">
       <c r="A528" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>112</v>
@@ -65062,7 +65061,7 @@
       <c r="F528" s="1">
         <v>1</v>
       </c>
-      <c r="G528" s="15"/>
+      <c r="G528" s="8"/>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
@@ -65161,10 +65160,10 @@
     </row>
     <row r="529" spans="1:100">
       <c r="A529" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C529" s="1">
         <v>1</v>
@@ -65178,7 +65177,7 @@
       <c r="F529" s="1">
         <v>1</v>
       </c>
-      <c r="G529" s="15"/>
+      <c r="G529" s="8"/>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
@@ -65277,7 +65276,7 @@
     </row>
     <row r="530" spans="1:100">
       <c r="A530" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>125</v>
@@ -65294,7 +65293,7 @@
       <c r="F530" s="1">
         <v>1</v>
       </c>
-      <c r="G530" s="15"/>
+      <c r="G530" s="8"/>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
@@ -65393,7 +65392,7 @@
     </row>
     <row r="531" spans="1:100">
       <c r="A531" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>200</v>
@@ -65410,7 +65409,7 @@
       <c r="F531" s="1">
         <v>1</v>
       </c>
-      <c r="G531" s="15"/>
+      <c r="G531" s="8"/>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
@@ -65509,7 +65508,7 @@
     </row>
     <row r="532" spans="1:100">
       <c r="A532" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>112</v>
@@ -65526,7 +65525,7 @@
       <c r="F532" s="1">
         <v>1</v>
       </c>
-      <c r="G532" s="15"/>
+      <c r="G532" s="8"/>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
@@ -65625,10 +65624,10 @@
     </row>
     <row r="533" spans="1:100">
       <c r="A533" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C533" s="1">
         <v>1</v>
@@ -65642,7 +65641,7 @@
       <c r="F533" s="1">
         <v>1</v>
       </c>
-      <c r="G533" s="15"/>
+      <c r="G533" s="8"/>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
@@ -65741,7 +65740,7 @@
     </row>
     <row r="534" spans="1:100">
       <c r="A534" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>125</v>
@@ -65758,7 +65757,7 @@
       <c r="F534" s="1">
         <v>1</v>
       </c>
-      <c r="G534" s="15"/>
+      <c r="G534" s="8"/>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
@@ -65857,7 +65856,7 @@
     </row>
     <row r="535" spans="1:100">
       <c r="A535" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>200</v>
@@ -65874,7 +65873,7 @@
       <c r="F535" s="1">
         <v>1</v>
       </c>
-      <c r="G535" s="15"/>
+      <c r="G535" s="8"/>
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
@@ -65973,7 +65972,7 @@
     </row>
     <row r="536" spans="1:100">
       <c r="A536" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>112</v>
@@ -65990,7 +65989,7 @@
       <c r="F536" s="1">
         <v>1</v>
       </c>
-      <c r="G536" s="15"/>
+      <c r="G536" s="8"/>
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -66089,10 +66088,10 @@
     </row>
     <row r="537" spans="1:100">
       <c r="A537" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C537" s="1">
         <v>1</v>
@@ -66106,7 +66105,7 @@
       <c r="F537" s="1">
         <v>1</v>
       </c>
-      <c r="G537" s="15"/>
+      <c r="G537" s="8"/>
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -66205,7 +66204,7 @@
     </row>
     <row r="538" spans="1:100">
       <c r="A538" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>125</v>
@@ -66222,7 +66221,7 @@
       <c r="F538" s="1">
         <v>1</v>
       </c>
-      <c r="G538" s="15"/>
+      <c r="G538" s="8"/>
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -66321,7 +66320,7 @@
     </row>
     <row r="539" spans="1:100">
       <c r="A539" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>200</v>
@@ -66338,7 +66337,7 @@
       <c r="F539" s="1">
         <v>1</v>
       </c>
-      <c r="G539" s="15"/>
+      <c r="G539" s="8"/>
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -66437,7 +66436,7 @@
     </row>
     <row r="540" spans="1:100">
       <c r="A540" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>112</v>
@@ -66454,7 +66453,7 @@
       <c r="F540" s="1">
         <v>1</v>
       </c>
-      <c r="G540" s="15"/>
+      <c r="G540" s="8"/>
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -66553,10 +66552,10 @@
     </row>
     <row r="541" spans="1:100">
       <c r="A541" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C541" s="1">
         <v>1</v>
@@ -66570,7 +66569,7 @@
       <c r="F541" s="1">
         <v>1</v>
       </c>
-      <c r="G541" s="15"/>
+      <c r="G541" s="8"/>
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -66669,7 +66668,7 @@
     </row>
     <row r="542" spans="1:100">
       <c r="A542" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>125</v>
@@ -66686,7 +66685,7 @@
       <c r="F542" s="1">
         <v>1</v>
       </c>
-      <c r="G542" s="15"/>
+      <c r="G542" s="8"/>
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -66785,7 +66784,7 @@
     </row>
     <row r="543" spans="1:100">
       <c r="A543" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>200</v>
@@ -66802,7 +66801,7 @@
       <c r="F543" s="1">
         <v>1</v>
       </c>
-      <c r="G543" s="15"/>
+      <c r="G543" s="8"/>
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -66901,7 +66900,7 @@
     </row>
     <row r="544" spans="1:100">
       <c r="A544" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>112</v>
@@ -66918,7 +66917,7 @@
       <c r="F544" s="1">
         <v>1</v>
       </c>
-      <c r="G544" s="15"/>
+      <c r="G544" s="8"/>
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -67017,10 +67016,10 @@
     </row>
     <row r="545" spans="1:100">
       <c r="A545" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C545" s="1">
         <v>1</v>
@@ -67034,7 +67033,7 @@
       <c r="F545" s="1">
         <v>1</v>
       </c>
-      <c r="G545" s="15"/>
+      <c r="G545" s="8"/>
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -67133,7 +67132,7 @@
     </row>
     <row r="546" spans="1:100">
       <c r="A546" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>125</v>
@@ -67150,7 +67149,7 @@
       <c r="F546" s="1">
         <v>1</v>
       </c>
-      <c r="G546" s="15"/>
+      <c r="G546" s="8"/>
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -67249,7 +67248,7 @@
     </row>
     <row r="547" spans="1:100">
       <c r="A547" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>200</v>
@@ -67266,7 +67265,7 @@
       <c r="F547" s="1">
         <v>1</v>
       </c>
-      <c r="G547" s="15"/>
+      <c r="G547" s="8"/>
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -67365,7 +67364,7 @@
     </row>
     <row r="548" spans="1:100">
       <c r="A548" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>112</v>
@@ -67382,7 +67381,7 @@
       <c r="F548" s="1">
         <v>1</v>
       </c>
-      <c r="G548" s="15"/>
+      <c r="G548" s="8"/>
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -67481,10 +67480,10 @@
     </row>
     <row r="549" spans="1:100">
       <c r="A549" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C549" s="1">
         <v>1</v>
@@ -67498,7 +67497,7 @@
       <c r="F549" s="1">
         <v>1</v>
       </c>
-      <c r="G549" s="15"/>
+      <c r="G549" s="8"/>
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -67597,7 +67596,7 @@
     </row>
     <row r="550" spans="1:100">
       <c r="A550" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>125</v>
@@ -67614,7 +67613,7 @@
       <c r="F550" s="1">
         <v>1</v>
       </c>
-      <c r="G550" s="15"/>
+      <c r="G550" s="8"/>
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -67713,7 +67712,7 @@
     </row>
     <row r="551" spans="1:100">
       <c r="A551" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>200</v>
@@ -67730,7 +67729,7 @@
       <c r="F551" s="1">
         <v>1</v>
       </c>
-      <c r="G551" s="15"/>
+      <c r="G551" s="8"/>
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -67829,7 +67828,7 @@
     </row>
     <row r="552" spans="1:100">
       <c r="A552" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>112</v>
@@ -67846,7 +67845,7 @@
       <c r="F552" s="1">
         <v>1</v>
       </c>
-      <c r="G552" s="15"/>
+      <c r="G552" s="8"/>
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
@@ -67945,10 +67944,10 @@
     </row>
     <row r="553" spans="1:100">
       <c r="A553" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C553" s="1">
         <v>1</v>
@@ -67962,7 +67961,7 @@
       <c r="F553" s="1">
         <v>1</v>
       </c>
-      <c r="G553" s="15"/>
+      <c r="G553" s="8"/>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
@@ -68061,7 +68060,7 @@
     </row>
     <row r="554" spans="1:100">
       <c r="A554" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>125</v>
@@ -68078,7 +68077,7 @@
       <c r="F554" s="1">
         <v>1</v>
       </c>
-      <c r="G554" s="15"/>
+      <c r="G554" s="8"/>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
@@ -68177,7 +68176,7 @@
     </row>
     <row r="555" spans="1:100">
       <c r="A555" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>200</v>
@@ -68194,7 +68193,7 @@
       <c r="F555" s="1">
         <v>1</v>
       </c>
-      <c r="G555" s="15"/>
+      <c r="G555" s="8"/>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
@@ -68293,7 +68292,7 @@
     </row>
     <row r="556" spans="1:100">
       <c r="A556" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>112</v>
@@ -68310,7 +68309,7 @@
       <c r="F556" s="1">
         <v>1</v>
       </c>
-      <c r="G556" s="15"/>
+      <c r="G556" s="8"/>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
@@ -68409,10 +68408,10 @@
     </row>
     <row r="557" spans="1:100">
       <c r="A557" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C557" s="1">
         <v>1</v>
@@ -68426,7 +68425,7 @@
       <c r="F557" s="1">
         <v>1</v>
       </c>
-      <c r="G557" s="15"/>
+      <c r="G557" s="8"/>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
@@ -68525,7 +68524,7 @@
     </row>
     <row r="558" spans="1:100">
       <c r="A558" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>125</v>
@@ -68542,7 +68541,7 @@
       <c r="F558" s="1">
         <v>1</v>
       </c>
-      <c r="G558" s="15"/>
+      <c r="G558" s="8"/>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
@@ -68641,7 +68640,7 @@
     </row>
     <row r="559" spans="1:100">
       <c r="A559" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>200</v>
@@ -68658,7 +68657,7 @@
       <c r="F559" s="1">
         <v>1</v>
       </c>
-      <c r="G559" s="15"/>
+      <c r="G559" s="8"/>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
@@ -68757,7 +68756,7 @@
     </row>
     <row r="560" spans="1:100">
       <c r="A560" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>112</v>
@@ -68774,7 +68773,7 @@
       <c r="F560" s="1">
         <v>1</v>
       </c>
-      <c r="G560" s="15"/>
+      <c r="G560" s="8"/>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
@@ -68873,10 +68872,10 @@
     </row>
     <row r="561" spans="1:100">
       <c r="A561" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C561" s="1">
         <v>1</v>
@@ -68890,7 +68889,7 @@
       <c r="F561" s="1">
         <v>1</v>
       </c>
-      <c r="G561" s="15"/>
+      <c r="G561" s="8"/>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
@@ -68989,7 +68988,7 @@
     </row>
     <row r="562" spans="1:100">
       <c r="A562" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>125</v>
@@ -69006,7 +69005,7 @@
       <c r="F562" s="1">
         <v>1</v>
       </c>
-      <c r="G562" s="15"/>
+      <c r="G562" s="8"/>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
@@ -69105,7 +69104,7 @@
     </row>
     <row r="563" spans="1:100">
       <c r="A563" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>200</v>
@@ -69122,7 +69121,7 @@
       <c r="F563" s="1">
         <v>1</v>
       </c>
-      <c r="G563" s="15"/>
+      <c r="G563" s="8"/>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
@@ -69221,7 +69220,7 @@
     </row>
     <row r="564" spans="1:100">
       <c r="A564" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>112</v>
@@ -69238,7 +69237,7 @@
       <c r="F564" s="1">
         <v>1</v>
       </c>
-      <c r="G564" s="15"/>
+      <c r="G564" s="8"/>
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
@@ -69337,10 +69336,10 @@
     </row>
     <row r="565" spans="1:100">
       <c r="A565" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C565" s="1">
         <v>1</v>
@@ -69354,7 +69353,7 @@
       <c r="F565" s="1">
         <v>1</v>
       </c>
-      <c r="G565" s="15"/>
+      <c r="G565" s="8"/>
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -69453,7 +69452,7 @@
     </row>
     <row r="566" spans="1:100">
       <c r="A566" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>125</v>
@@ -69470,7 +69469,7 @@
       <c r="F566" s="1">
         <v>1</v>
       </c>
-      <c r="G566" s="15"/>
+      <c r="G566" s="8"/>
       <c r="H566" s="1"/>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -69569,7 +69568,7 @@
     </row>
     <row r="567" spans="1:100">
       <c r="A567" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>200</v>
@@ -69586,7 +69585,7 @@
       <c r="F567" s="1">
         <v>1</v>
       </c>
-      <c r="G567" s="15"/>
+      <c r="G567" s="8"/>
       <c r="H567" s="1"/>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -69685,7 +69684,7 @@
     </row>
     <row r="568" spans="1:100">
       <c r="A568" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>112</v>
@@ -69702,7 +69701,7 @@
       <c r="F568" s="1">
         <v>1</v>
       </c>
-      <c r="G568" s="15"/>
+      <c r="G568" s="8"/>
       <c r="H568" s="1"/>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -69801,10 +69800,10 @@
     </row>
     <row r="569" spans="1:100">
       <c r="A569" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C569" s="1">
         <v>1</v>
@@ -69818,7 +69817,7 @@
       <c r="F569" s="1">
         <v>1</v>
       </c>
-      <c r="G569" s="15"/>
+      <c r="G569" s="8"/>
       <c r="H569" s="1"/>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -69917,7 +69916,7 @@
     </row>
     <row r="570" spans="1:100">
       <c r="A570" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>125</v>
@@ -69934,7 +69933,7 @@
       <c r="F570" s="1">
         <v>1</v>
       </c>
-      <c r="G570" s="15"/>
+      <c r="G570" s="8"/>
       <c r="H570" s="1"/>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -70033,7 +70032,7 @@
     </row>
     <row r="571" spans="1:100">
       <c r="A571" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>200</v>
@@ -70050,7 +70049,7 @@
       <c r="F571" s="1">
         <v>1</v>
       </c>
-      <c r="G571" s="15"/>
+      <c r="G571" s="8"/>
       <c r="H571" s="1"/>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -70149,7 +70148,7 @@
     </row>
     <row r="572" spans="1:100">
       <c r="A572" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>112</v>
@@ -70166,7 +70165,7 @@
       <c r="F572" s="1">
         <v>1</v>
       </c>
-      <c r="G572" s="15"/>
+      <c r="G572" s="8"/>
       <c r="H572" s="1"/>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -70265,10 +70264,10 @@
     </row>
     <row r="573" spans="1:100">
       <c r="A573" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C573" s="1">
         <v>1</v>
@@ -70282,7 +70281,7 @@
       <c r="F573" s="1">
         <v>1</v>
       </c>
-      <c r="G573" s="15"/>
+      <c r="G573" s="8"/>
       <c r="H573" s="1"/>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -70381,7 +70380,7 @@
     </row>
     <row r="574" spans="1:100">
       <c r="A574" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>125</v>
@@ -70398,7 +70397,7 @@
       <c r="F574" s="1">
         <v>1</v>
       </c>
-      <c r="G574" s="15"/>
+      <c r="G574" s="8"/>
       <c r="H574" s="1"/>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -70497,7 +70496,7 @@
     </row>
     <row r="575" spans="1:100">
       <c r="A575" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>200</v>
@@ -70514,7 +70513,7 @@
       <c r="F575" s="1">
         <v>1</v>
       </c>
-      <c r="G575" s="15"/>
+      <c r="G575" s="8"/>
       <c r="H575" s="1"/>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -70613,7 +70612,7 @@
     </row>
     <row r="576" spans="1:100">
       <c r="A576" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>112</v>
@@ -70630,7 +70629,7 @@
       <c r="F576" s="1">
         <v>1</v>
       </c>
-      <c r="G576" s="15"/>
+      <c r="G576" s="8"/>
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -70729,10 +70728,10 @@
     </row>
     <row r="577" spans="1:100">
       <c r="A577" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C577" s="1">
         <v>1</v>
@@ -70746,7 +70745,7 @@
       <c r="F577" s="1">
         <v>1</v>
       </c>
-      <c r="G577" s="15"/>
+      <c r="G577" s="8"/>
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -70845,7 +70844,7 @@
     </row>
     <row r="578" spans="1:100">
       <c r="A578" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>125</v>
@@ -70862,7 +70861,7 @@
       <c r="F578" s="1">
         <v>1</v>
       </c>
-      <c r="G578" s="15"/>
+      <c r="G578" s="8"/>
       <c r="H578" s="1"/>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -70961,7 +70960,7 @@
     </row>
     <row r="579" spans="1:100">
       <c r="A579" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>200</v>
@@ -70978,7 +70977,7 @@
       <c r="F579" s="1">
         <v>1</v>
       </c>
-      <c r="G579" s="15"/>
+      <c r="G579" s="8"/>
       <c r="H579" s="1"/>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -71077,7 +71076,7 @@
     </row>
     <row r="580" spans="1:100">
       <c r="A580" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>112</v>
@@ -71094,7 +71093,7 @@
       <c r="F580" s="1">
         <v>1</v>
       </c>
-      <c r="G580" s="15"/>
+      <c r="G580" s="8"/>
       <c r="H580" s="1"/>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -71193,10 +71192,10 @@
     </row>
     <row r="581" spans="1:100">
       <c r="A581" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C581" s="1">
         <v>1</v>
@@ -71210,7 +71209,7 @@
       <c r="F581" s="1">
         <v>1</v>
       </c>
-      <c r="G581" s="15"/>
+      <c r="G581" s="8"/>
       <c r="H581" s="1"/>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
@@ -71309,7 +71308,7 @@
     </row>
     <row r="582" spans="1:100">
       <c r="A582" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>125</v>
@@ -71324,7 +71323,7 @@
       <c r="F582" s="1">
         <v>1</v>
       </c>
-      <c r="G582" s="16"/>
+      <c r="G582" s="12"/>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
@@ -71423,7 +71422,7 @@
     </row>
     <row r="583" spans="1:100">
       <c r="A583" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>200</v>
@@ -71438,7 +71437,7 @@
       <c r="F583" s="1">
         <v>1</v>
       </c>
-      <c r="G583" s="16"/>
+      <c r="G583" s="12"/>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
@@ -71537,7 +71536,7 @@
     </row>
     <row r="584" spans="1:100">
       <c r="A584" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>105</v>
@@ -71552,7 +71551,7 @@
       <c r="F584" s="1">
         <v>1</v>
       </c>
-      <c r="G584" s="16"/>
+      <c r="G584" s="12"/>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
@@ -71651,7 +71650,7 @@
     </row>
     <row r="585" spans="1:100">
       <c r="A585" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>125</v>
@@ -71666,7 +71665,7 @@
       <c r="F585" s="1">
         <v>1</v>
       </c>
-      <c r="G585" s="16"/>
+      <c r="G585" s="12"/>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
@@ -71765,10 +71764,10 @@
     </row>
     <row r="586" spans="1:100">
       <c r="A586" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C586" s="13">
         <v>1</v>
@@ -71780,7 +71779,7 @@
       <c r="F586" s="1">
         <v>1</v>
       </c>
-      <c r="G586" s="16"/>
+      <c r="G586" s="12"/>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
@@ -71879,7 +71878,7 @@
     </row>
     <row r="587" spans="1:100">
       <c r="A587" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>200</v>
@@ -71894,7 +71893,7 @@
       <c r="F587" s="1">
         <v>1</v>
       </c>
-      <c r="G587" s="16"/>
+      <c r="G587" s="12"/>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
@@ -71993,7 +71992,7 @@
     </row>
     <row r="588" spans="1:100">
       <c r="A588" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>125</v>
@@ -72010,7 +72009,7 @@
       <c r="F588" s="1">
         <v>1</v>
       </c>
-      <c r="G588" s="16"/>
+      <c r="G588" s="12"/>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
@@ -72109,7 +72108,7 @@
     </row>
     <row r="589" spans="1:100">
       <c r="A589" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>125</v>
@@ -72126,7 +72125,7 @@
       <c r="F589" s="1">
         <v>1</v>
       </c>
-      <c r="G589" s="16"/>
+      <c r="G589" s="12"/>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
@@ -72225,7 +72224,7 @@
     </row>
     <row r="590" spans="1:100">
       <c r="A590" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>125</v>
@@ -72242,7 +72241,7 @@
       <c r="F590" s="1">
         <v>1</v>
       </c>
-      <c r="G590" s="16"/>
+      <c r="G590" s="12"/>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
@@ -72749,1918 +72748,44 @@
     </row>
   </sheetData>
   <mergeCells count="1982">
-    <mergeCell ref="B593:C593"/>
-    <mergeCell ref="D593:E593"/>
-    <mergeCell ref="B594:C594"/>
-    <mergeCell ref="D594:E594"/>
-    <mergeCell ref="U589:V589"/>
-    <mergeCell ref="BF589:BG589"/>
-    <mergeCell ref="CK589:CL589"/>
-    <mergeCell ref="B591:C591"/>
-    <mergeCell ref="B592:C592"/>
-    <mergeCell ref="D592:E592"/>
-    <mergeCell ref="C584:D584"/>
-    <mergeCell ref="C585:D585"/>
-    <mergeCell ref="BF585:BG585"/>
-    <mergeCell ref="C586:D586"/>
-    <mergeCell ref="BF586:BG586"/>
-    <mergeCell ref="C587:D587"/>
-    <mergeCell ref="BF587:BG587"/>
-    <mergeCell ref="BF578:BG578"/>
-    <mergeCell ref="BF579:BG579"/>
-    <mergeCell ref="BF580:BG580"/>
-    <mergeCell ref="BF581:BG581"/>
-    <mergeCell ref="C582:D582"/>
-    <mergeCell ref="C583:D583"/>
-    <mergeCell ref="BF583:BG583"/>
-    <mergeCell ref="AO575:AP575"/>
-    <mergeCell ref="BF575:BG575"/>
-    <mergeCell ref="AO576:AP576"/>
-    <mergeCell ref="BF576:BG576"/>
-    <mergeCell ref="AO577:AP577"/>
-    <mergeCell ref="BF577:BG577"/>
-    <mergeCell ref="BF570:BG570"/>
-    <mergeCell ref="BF571:BG571"/>
-    <mergeCell ref="BF572:BG572"/>
-    <mergeCell ref="R573:S573"/>
-    <mergeCell ref="BF573:BG573"/>
-    <mergeCell ref="AO574:AP574"/>
-    <mergeCell ref="BF574:BG574"/>
-    <mergeCell ref="AF565:AG565"/>
-    <mergeCell ref="BF565:BG565"/>
-    <mergeCell ref="AV566:AW566"/>
-    <mergeCell ref="BF566:BG566"/>
-    <mergeCell ref="AV567:AW567"/>
-    <mergeCell ref="BF567:BG567"/>
-    <mergeCell ref="CU561:CV561"/>
-    <mergeCell ref="AF562:AG562"/>
-    <mergeCell ref="AX562:AY562"/>
-    <mergeCell ref="BF562:BG562"/>
-    <mergeCell ref="AF564:AG564"/>
-    <mergeCell ref="BF564:BG564"/>
-    <mergeCell ref="S560:T560"/>
-    <mergeCell ref="BF560:BG560"/>
-    <mergeCell ref="BO560:BP560"/>
-    <mergeCell ref="S561:T561"/>
-    <mergeCell ref="AX561:AY561"/>
-    <mergeCell ref="BF561:BG561"/>
-    <mergeCell ref="S558:T558"/>
-    <mergeCell ref="BF558:BG558"/>
-    <mergeCell ref="BO558:BP558"/>
-    <mergeCell ref="CU558:CV558"/>
-    <mergeCell ref="S559:T559"/>
-    <mergeCell ref="BF559:BG559"/>
-    <mergeCell ref="BO559:BP559"/>
-    <mergeCell ref="CU559:CV559"/>
-    <mergeCell ref="BF555:BG555"/>
-    <mergeCell ref="BO555:BP555"/>
-    <mergeCell ref="BF556:BG556"/>
-    <mergeCell ref="BO556:BP556"/>
-    <mergeCell ref="BF557:BG557"/>
-    <mergeCell ref="BO557:BP557"/>
-    <mergeCell ref="BO552:BP552"/>
-    <mergeCell ref="R553:S553"/>
-    <mergeCell ref="BF553:BG553"/>
-    <mergeCell ref="BO553:BP553"/>
-    <mergeCell ref="CU553:CV553"/>
-    <mergeCell ref="BF554:BG554"/>
-    <mergeCell ref="BO554:BP554"/>
-    <mergeCell ref="BO549:BP549"/>
-    <mergeCell ref="BF550:BG550"/>
-    <mergeCell ref="BO550:BP550"/>
-    <mergeCell ref="CU550:CV550"/>
-    <mergeCell ref="BF551:BG551"/>
-    <mergeCell ref="BO551:BP551"/>
-    <mergeCell ref="CU551:CV551"/>
-    <mergeCell ref="BF545:BG545"/>
-    <mergeCell ref="BO545:BP545"/>
-    <mergeCell ref="BO546:BP546"/>
-    <mergeCell ref="BO547:BP547"/>
-    <mergeCell ref="BF548:BG548"/>
-    <mergeCell ref="BO548:BP548"/>
-    <mergeCell ref="AT542:AU542"/>
-    <mergeCell ref="BF542:BG542"/>
-    <mergeCell ref="BO542:BP542"/>
-    <mergeCell ref="BF543:BG543"/>
-    <mergeCell ref="BO543:BP543"/>
-    <mergeCell ref="AT544:AU544"/>
-    <mergeCell ref="BF544:BG544"/>
-    <mergeCell ref="BO544:BP544"/>
-    <mergeCell ref="CP538:CQ538"/>
-    <mergeCell ref="AE539:AF539"/>
-    <mergeCell ref="BF539:BG539"/>
-    <mergeCell ref="BO539:BP539"/>
-    <mergeCell ref="BO540:BP540"/>
-    <mergeCell ref="AE541:AF541"/>
-    <mergeCell ref="BF541:BG541"/>
-    <mergeCell ref="BO541:BP541"/>
-    <mergeCell ref="BO536:BP536"/>
-    <mergeCell ref="AE537:AF537"/>
-    <mergeCell ref="BF537:BG537"/>
-    <mergeCell ref="BO537:BP537"/>
-    <mergeCell ref="AE538:AF538"/>
-    <mergeCell ref="BF538:BG538"/>
-    <mergeCell ref="BO538:BP538"/>
-    <mergeCell ref="AE534:AF534"/>
-    <mergeCell ref="BF534:BG534"/>
-    <mergeCell ref="BO534:BP534"/>
-    <mergeCell ref="AE535:AF535"/>
-    <mergeCell ref="BF535:BG535"/>
-    <mergeCell ref="BO535:BP535"/>
-    <mergeCell ref="AN532:AO532"/>
-    <mergeCell ref="BF532:BG532"/>
-    <mergeCell ref="BO532:BP532"/>
-    <mergeCell ref="AN533:AO533"/>
-    <mergeCell ref="BF533:BG533"/>
-    <mergeCell ref="BO533:BP533"/>
-    <mergeCell ref="BF529:BG529"/>
-    <mergeCell ref="BO529:BP529"/>
-    <mergeCell ref="AN530:AO530"/>
-    <mergeCell ref="BF530:BG530"/>
-    <mergeCell ref="BO530:BP530"/>
-    <mergeCell ref="AN531:AO531"/>
-    <mergeCell ref="BF531:BG531"/>
-    <mergeCell ref="BO531:BP531"/>
-    <mergeCell ref="BF526:BG526"/>
-    <mergeCell ref="BO526:BP526"/>
-    <mergeCell ref="BF527:BG527"/>
-    <mergeCell ref="BO527:BP527"/>
-    <mergeCell ref="BF528:BG528"/>
-    <mergeCell ref="BO528:BP528"/>
-    <mergeCell ref="AO524:AP524"/>
-    <mergeCell ref="BF524:BG524"/>
-    <mergeCell ref="BO524:BP524"/>
-    <mergeCell ref="CG524:CH524"/>
-    <mergeCell ref="AO525:AP525"/>
-    <mergeCell ref="BF525:BG525"/>
-    <mergeCell ref="BO525:BP525"/>
-    <mergeCell ref="CG525:CH525"/>
-    <mergeCell ref="AO522:AP522"/>
-    <mergeCell ref="BO522:BP522"/>
-    <mergeCell ref="CG522:CH522"/>
-    <mergeCell ref="AO523:AP523"/>
-    <mergeCell ref="BF523:BG523"/>
-    <mergeCell ref="BO523:BP523"/>
-    <mergeCell ref="CG523:CH523"/>
-    <mergeCell ref="BF519:BG519"/>
-    <mergeCell ref="BO519:BP519"/>
-    <mergeCell ref="BF520:BG520"/>
-    <mergeCell ref="BO520:BP520"/>
-    <mergeCell ref="BF521:BG521"/>
-    <mergeCell ref="BO521:BP521"/>
-    <mergeCell ref="BF516:BG516"/>
-    <mergeCell ref="BO516:BP516"/>
-    <mergeCell ref="BF517:BG517"/>
-    <mergeCell ref="BO517:BP517"/>
-    <mergeCell ref="BF518:BG518"/>
-    <mergeCell ref="BO518:BP518"/>
-    <mergeCell ref="AZ514:BA514"/>
-    <mergeCell ref="BF514:BG514"/>
-    <mergeCell ref="BO514:BP514"/>
-    <mergeCell ref="CK514:CL514"/>
-    <mergeCell ref="BF515:BG515"/>
-    <mergeCell ref="BO515:BP515"/>
-    <mergeCell ref="CK515:CL515"/>
-    <mergeCell ref="AB510:AC510"/>
-    <mergeCell ref="BF510:BG510"/>
-    <mergeCell ref="BO510:BP510"/>
-    <mergeCell ref="BO511:BP511"/>
-    <mergeCell ref="BO512:BP512"/>
-    <mergeCell ref="BO513:BP513"/>
-    <mergeCell ref="BO505:BP505"/>
-    <mergeCell ref="BO506:BP506"/>
-    <mergeCell ref="BO507:BP507"/>
-    <mergeCell ref="BF508:BG508"/>
-    <mergeCell ref="BO508:BP508"/>
-    <mergeCell ref="BF509:BG509"/>
-    <mergeCell ref="BO509:BP509"/>
-    <mergeCell ref="AI503:AJ503"/>
-    <mergeCell ref="BF503:BG503"/>
-    <mergeCell ref="BO503:BP503"/>
-    <mergeCell ref="BW503:BX503"/>
-    <mergeCell ref="BY503:BZ503"/>
-    <mergeCell ref="BO504:BP504"/>
-    <mergeCell ref="BO500:BP500"/>
-    <mergeCell ref="BF501:BG501"/>
-    <mergeCell ref="BO501:BP501"/>
-    <mergeCell ref="BW501:BX501"/>
-    <mergeCell ref="BY501:BZ501"/>
-    <mergeCell ref="AI502:AJ502"/>
-    <mergeCell ref="BF502:BG502"/>
-    <mergeCell ref="BO502:BP502"/>
-    <mergeCell ref="BW502:BX502"/>
-    <mergeCell ref="BY502:BZ502"/>
-    <mergeCell ref="AJ498:AK498"/>
-    <mergeCell ref="BF498:BG498"/>
-    <mergeCell ref="BO498:BP498"/>
-    <mergeCell ref="BW498:BX498"/>
-    <mergeCell ref="Z499:AA499"/>
-    <mergeCell ref="AJ499:AK499"/>
-    <mergeCell ref="BF499:BG499"/>
-    <mergeCell ref="BO499:BP499"/>
-    <mergeCell ref="BW499:BX499"/>
-    <mergeCell ref="AR495:AS495"/>
-    <mergeCell ref="BO495:BP495"/>
-    <mergeCell ref="S496:T496"/>
-    <mergeCell ref="AV496:AW496"/>
-    <mergeCell ref="BO496:BP496"/>
-    <mergeCell ref="S497:T497"/>
-    <mergeCell ref="AV497:AW497"/>
-    <mergeCell ref="BC497:BD497"/>
-    <mergeCell ref="BF497:BG497"/>
-    <mergeCell ref="BO497:BP497"/>
-    <mergeCell ref="AE492:AF492"/>
-    <mergeCell ref="BO492:BP492"/>
-    <mergeCell ref="AE493:AF493"/>
-    <mergeCell ref="BO493:BP493"/>
-    <mergeCell ref="AR494:AS494"/>
-    <mergeCell ref="BO494:BP494"/>
-    <mergeCell ref="AE490:AF490"/>
-    <mergeCell ref="BF490:BG490"/>
-    <mergeCell ref="BO490:BP490"/>
-    <mergeCell ref="CU490:CV490"/>
-    <mergeCell ref="BF491:BG491"/>
-    <mergeCell ref="BO491:BP491"/>
-    <mergeCell ref="CU491:CV491"/>
-    <mergeCell ref="R487:S487"/>
-    <mergeCell ref="BF487:BG487"/>
-    <mergeCell ref="BO487:BP487"/>
-    <mergeCell ref="CH487:CI487"/>
-    <mergeCell ref="BO488:BP488"/>
-    <mergeCell ref="BO489:BP489"/>
-    <mergeCell ref="BF483:BG483"/>
-    <mergeCell ref="BO483:BP483"/>
-    <mergeCell ref="BO484:BP484"/>
-    <mergeCell ref="BO485:BP485"/>
-    <mergeCell ref="R486:S486"/>
-    <mergeCell ref="BF486:BG486"/>
-    <mergeCell ref="BO486:BP486"/>
-    <mergeCell ref="BF480:BG480"/>
-    <mergeCell ref="BO480:BP480"/>
-    <mergeCell ref="BF481:BG481"/>
-    <mergeCell ref="BO481:BP481"/>
-    <mergeCell ref="BF482:BG482"/>
-    <mergeCell ref="BO482:BP482"/>
-    <mergeCell ref="BF478:BG478"/>
-    <mergeCell ref="BO478:BP478"/>
-    <mergeCell ref="BF479:BG479"/>
-    <mergeCell ref="BO479:BP479"/>
-    <mergeCell ref="BT479:BU479"/>
-    <mergeCell ref="CD479:CE479"/>
-    <mergeCell ref="BO474:BP474"/>
-    <mergeCell ref="BF475:BG475"/>
-    <mergeCell ref="BO475:BP475"/>
-    <mergeCell ref="K476:L476"/>
-    <mergeCell ref="BO476:BP476"/>
-    <mergeCell ref="K477:L477"/>
-    <mergeCell ref="BO477:BP477"/>
-    <mergeCell ref="BO471:BP471"/>
-    <mergeCell ref="BC472:BD472"/>
-    <mergeCell ref="BF472:BG472"/>
-    <mergeCell ref="BI472:BJ472"/>
-    <mergeCell ref="BO472:BP472"/>
-    <mergeCell ref="BF473:BG473"/>
-    <mergeCell ref="BI473:BJ473"/>
-    <mergeCell ref="BO473:BP473"/>
-    <mergeCell ref="BF469:BG469"/>
-    <mergeCell ref="BO469:BP469"/>
-    <mergeCell ref="CG469:CH469"/>
-    <mergeCell ref="AT470:AU470"/>
-    <mergeCell ref="BF470:BG470"/>
-    <mergeCell ref="BO470:BP470"/>
-    <mergeCell ref="BO465:BP465"/>
-    <mergeCell ref="BG466:BH466"/>
-    <mergeCell ref="BO466:BP466"/>
-    <mergeCell ref="BG467:BH467"/>
-    <mergeCell ref="BO467:BP467"/>
-    <mergeCell ref="AT468:AU468"/>
-    <mergeCell ref="BO468:BP468"/>
-    <mergeCell ref="BE462:BF462"/>
-    <mergeCell ref="BO462:BP462"/>
-    <mergeCell ref="CL462:CM462"/>
-    <mergeCell ref="BO463:BP463"/>
-    <mergeCell ref="AJ464:AK464"/>
-    <mergeCell ref="BO464:BP464"/>
-    <mergeCell ref="BG459:BH459"/>
-    <mergeCell ref="BO459:BP459"/>
-    <mergeCell ref="BG460:BH460"/>
-    <mergeCell ref="BO460:BP460"/>
-    <mergeCell ref="BF461:BG461"/>
-    <mergeCell ref="BO461:BP461"/>
-    <mergeCell ref="BO454:BP454"/>
-    <mergeCell ref="BO455:BP455"/>
-    <mergeCell ref="BO456:BP456"/>
-    <mergeCell ref="BG457:BH457"/>
-    <mergeCell ref="BO457:BP457"/>
-    <mergeCell ref="BG458:BH458"/>
-    <mergeCell ref="BO458:BP458"/>
-    <mergeCell ref="BO450:BP450"/>
-    <mergeCell ref="BO451:BP451"/>
-    <mergeCell ref="Z452:AA452"/>
-    <mergeCell ref="BO452:BP452"/>
-    <mergeCell ref="Z453:AA453"/>
-    <mergeCell ref="BO453:BP453"/>
-    <mergeCell ref="CN447:CO447"/>
-    <mergeCell ref="Y448:Z448"/>
-    <mergeCell ref="BO448:BP448"/>
-    <mergeCell ref="CD448:CE448"/>
-    <mergeCell ref="CN448:CO448"/>
-    <mergeCell ref="Y449:Z449"/>
-    <mergeCell ref="BO449:BP449"/>
-    <mergeCell ref="CN449:CO449"/>
-    <mergeCell ref="Z445:AA445"/>
-    <mergeCell ref="BO445:BP445"/>
-    <mergeCell ref="BO446:BP446"/>
-    <mergeCell ref="Y447:Z447"/>
-    <mergeCell ref="BO447:BP447"/>
-    <mergeCell ref="CD447:CE447"/>
-    <mergeCell ref="Z442:AA442"/>
-    <mergeCell ref="BO442:BP442"/>
-    <mergeCell ref="Z443:AA443"/>
-    <mergeCell ref="BO443:BP443"/>
-    <mergeCell ref="Z444:AA444"/>
-    <mergeCell ref="BO444:BP444"/>
-    <mergeCell ref="BO439:BP439"/>
-    <mergeCell ref="AD440:AE440"/>
-    <mergeCell ref="AZ440:BA440"/>
-    <mergeCell ref="BO440:BP440"/>
-    <mergeCell ref="AD441:AE441"/>
-    <mergeCell ref="AZ441:BA441"/>
-    <mergeCell ref="BH441:BI441"/>
-    <mergeCell ref="BO441:BP441"/>
-    <mergeCell ref="BG438:BH438"/>
-    <mergeCell ref="BO438:BP438"/>
-    <mergeCell ref="BS438:BT438"/>
-    <mergeCell ref="CE438:CF438"/>
-    <mergeCell ref="CM438:CN438"/>
-    <mergeCell ref="CP438:CQ438"/>
-    <mergeCell ref="BG436:BH436"/>
-    <mergeCell ref="BO436:BP436"/>
-    <mergeCell ref="BS436:BT436"/>
-    <mergeCell ref="CE436:CF436"/>
-    <mergeCell ref="CM436:CN436"/>
-    <mergeCell ref="BG437:BH437"/>
-    <mergeCell ref="BO437:BP437"/>
-    <mergeCell ref="BS437:BT437"/>
-    <mergeCell ref="CE437:CF437"/>
-    <mergeCell ref="CM437:CN437"/>
-    <mergeCell ref="BG432:BH432"/>
-    <mergeCell ref="BM432:BN432"/>
-    <mergeCell ref="BO432:BP432"/>
-    <mergeCell ref="BO433:BP433"/>
-    <mergeCell ref="BO434:BP434"/>
-    <mergeCell ref="BO435:BP435"/>
-    <mergeCell ref="BO428:BP428"/>
-    <mergeCell ref="Z429:AA429"/>
-    <mergeCell ref="AF429:AG429"/>
-    <mergeCell ref="BO429:BP429"/>
-    <mergeCell ref="BO430:BP430"/>
-    <mergeCell ref="BO431:BP431"/>
-    <mergeCell ref="BO425:BP425"/>
-    <mergeCell ref="U426:V426"/>
-    <mergeCell ref="AD426:AE426"/>
-    <mergeCell ref="BO426:BP426"/>
-    <mergeCell ref="AF427:AG427"/>
-    <mergeCell ref="BO427:BP427"/>
-    <mergeCell ref="BO422:BP422"/>
-    <mergeCell ref="BO423:BP423"/>
-    <mergeCell ref="U424:V424"/>
-    <mergeCell ref="AD424:AE424"/>
-    <mergeCell ref="AF424:AG424"/>
-    <mergeCell ref="AS424:AT424"/>
-    <mergeCell ref="BO424:BP424"/>
-    <mergeCell ref="M419:N419"/>
-    <mergeCell ref="BO419:BP419"/>
-    <mergeCell ref="M420:N420"/>
-    <mergeCell ref="BA420:BB420"/>
-    <mergeCell ref="BO420:BP420"/>
-    <mergeCell ref="U421:V421"/>
-    <mergeCell ref="AD421:AE421"/>
-    <mergeCell ref="AF421:AG421"/>
-    <mergeCell ref="BO421:BP421"/>
-    <mergeCell ref="BU416:BV416"/>
-    <mergeCell ref="M417:N417"/>
-    <mergeCell ref="AG417:AH417"/>
-    <mergeCell ref="AR417:AS417"/>
-    <mergeCell ref="BO417:BP417"/>
-    <mergeCell ref="M418:N418"/>
-    <mergeCell ref="AG418:AH418"/>
-    <mergeCell ref="AR418:AS418"/>
-    <mergeCell ref="BH418:BI418"/>
-    <mergeCell ref="BO418:BP418"/>
-    <mergeCell ref="M416:N416"/>
-    <mergeCell ref="AG416:AH416"/>
-    <mergeCell ref="AR416:AS416"/>
-    <mergeCell ref="BH416:BI416"/>
-    <mergeCell ref="BJ416:BK416"/>
-    <mergeCell ref="BO416:BP416"/>
-    <mergeCell ref="M413:N413"/>
-    <mergeCell ref="AG413:AH413"/>
-    <mergeCell ref="BO413:BP413"/>
-    <mergeCell ref="BO414:BP414"/>
-    <mergeCell ref="M415:N415"/>
-    <mergeCell ref="AG415:AH415"/>
-    <mergeCell ref="AR415:AS415"/>
-    <mergeCell ref="BH415:BI415"/>
-    <mergeCell ref="BJ415:BK415"/>
-    <mergeCell ref="BO415:BP415"/>
-    <mergeCell ref="AW410:AX410"/>
-    <mergeCell ref="BO410:BP410"/>
-    <mergeCell ref="AW411:AX411"/>
-    <mergeCell ref="AZ411:BA411"/>
-    <mergeCell ref="BO411:BP411"/>
-    <mergeCell ref="BO412:BP412"/>
-    <mergeCell ref="BO407:BP407"/>
-    <mergeCell ref="AG408:AH408"/>
-    <mergeCell ref="AR408:AS408"/>
-    <mergeCell ref="AW408:AX408"/>
-    <mergeCell ref="BO408:BP408"/>
-    <mergeCell ref="AG409:AH409"/>
-    <mergeCell ref="AR409:AS409"/>
-    <mergeCell ref="AW409:AX409"/>
-    <mergeCell ref="AZ409:BA409"/>
-    <mergeCell ref="BO409:BP409"/>
-    <mergeCell ref="AG406:AH406"/>
-    <mergeCell ref="AR406:AS406"/>
-    <mergeCell ref="AW406:AX406"/>
-    <mergeCell ref="BO406:BP406"/>
-    <mergeCell ref="AG407:AH407"/>
-    <mergeCell ref="AR407:AS407"/>
-    <mergeCell ref="AW407:AX407"/>
-    <mergeCell ref="AZ407:BA407"/>
-    <mergeCell ref="BC407:BD407"/>
-    <mergeCell ref="BH407:BI407"/>
-    <mergeCell ref="BT402:BU402"/>
-    <mergeCell ref="AG403:AH403"/>
-    <mergeCell ref="BO403:BP403"/>
-    <mergeCell ref="AG404:AH404"/>
-    <mergeCell ref="BO404:BP404"/>
-    <mergeCell ref="AR405:AS405"/>
-    <mergeCell ref="AW405:AX405"/>
-    <mergeCell ref="BO405:BP405"/>
-    <mergeCell ref="BO399:BP399"/>
-    <mergeCell ref="BO400:BP400"/>
-    <mergeCell ref="AO401:AP401"/>
-    <mergeCell ref="BO401:BP401"/>
-    <mergeCell ref="AO402:AP402"/>
-    <mergeCell ref="BO402:BP402"/>
-    <mergeCell ref="BO393:BP393"/>
-    <mergeCell ref="BO394:BP394"/>
-    <mergeCell ref="BO395:BP395"/>
-    <mergeCell ref="BO396:BP396"/>
-    <mergeCell ref="BO397:BP397"/>
-    <mergeCell ref="BO398:BP398"/>
-    <mergeCell ref="AS389:AT389"/>
-    <mergeCell ref="AU389:AV389"/>
-    <mergeCell ref="BO389:BP389"/>
-    <mergeCell ref="BO390:BP390"/>
-    <mergeCell ref="BO391:BP391"/>
-    <mergeCell ref="BO392:BP392"/>
-    <mergeCell ref="AU386:AV386"/>
-    <mergeCell ref="BO386:BP386"/>
-    <mergeCell ref="AU387:AV387"/>
-    <mergeCell ref="BO387:BP387"/>
-    <mergeCell ref="AU388:AV388"/>
-    <mergeCell ref="BO388:BP388"/>
-    <mergeCell ref="AU383:AV383"/>
-    <mergeCell ref="BO383:BP383"/>
-    <mergeCell ref="AU384:AV384"/>
-    <mergeCell ref="BO384:BP384"/>
-    <mergeCell ref="AU385:AV385"/>
-    <mergeCell ref="BO385:BP385"/>
-    <mergeCell ref="AU380:AV380"/>
-    <mergeCell ref="BO380:BP380"/>
-    <mergeCell ref="AU381:AV381"/>
-    <mergeCell ref="BO381:BP381"/>
-    <mergeCell ref="AU382:AV382"/>
-    <mergeCell ref="BO382:BP382"/>
-    <mergeCell ref="CR377:CS377"/>
-    <mergeCell ref="AU378:AV378"/>
-    <mergeCell ref="BO378:BP378"/>
-    <mergeCell ref="AU379:AV379"/>
-    <mergeCell ref="BO379:BP379"/>
-    <mergeCell ref="BY379:BZ379"/>
-    <mergeCell ref="BY375:BZ375"/>
-    <mergeCell ref="Y376:Z376"/>
-    <mergeCell ref="AU376:AV376"/>
-    <mergeCell ref="BO376:BP376"/>
-    <mergeCell ref="Y377:Z377"/>
-    <mergeCell ref="AU377:AV377"/>
-    <mergeCell ref="BO377:BP377"/>
-    <mergeCell ref="BY377:BZ377"/>
-    <mergeCell ref="AU373:AV373"/>
-    <mergeCell ref="BO373:BP373"/>
-    <mergeCell ref="AU374:AV374"/>
-    <mergeCell ref="BO374:BP374"/>
-    <mergeCell ref="AU375:AV375"/>
-    <mergeCell ref="BO375:BP375"/>
-    <mergeCell ref="AU371:AV371"/>
-    <mergeCell ref="AY371:AZ371"/>
-    <mergeCell ref="BO371:BP371"/>
-    <mergeCell ref="AU372:AV372"/>
-    <mergeCell ref="AY372:AZ372"/>
-    <mergeCell ref="BI372:BJ372"/>
-    <mergeCell ref="BO372:BP372"/>
-    <mergeCell ref="AU369:AV369"/>
-    <mergeCell ref="AY369:AZ369"/>
-    <mergeCell ref="BO369:BP369"/>
-    <mergeCell ref="AU370:AV370"/>
-    <mergeCell ref="AY370:AZ370"/>
-    <mergeCell ref="BO370:BP370"/>
-    <mergeCell ref="AU368:AV368"/>
-    <mergeCell ref="BJ368:BK368"/>
-    <mergeCell ref="BL368:BM368"/>
-    <mergeCell ref="BO368:BP368"/>
-    <mergeCell ref="BW368:BX368"/>
-    <mergeCell ref="CJ368:CK368"/>
-    <mergeCell ref="AU366:AV366"/>
-    <mergeCell ref="BJ366:BK366"/>
-    <mergeCell ref="BL366:BM366"/>
-    <mergeCell ref="BO366:BP366"/>
-    <mergeCell ref="BW366:BX366"/>
-    <mergeCell ref="AU367:AV367"/>
-    <mergeCell ref="BJ367:BK367"/>
-    <mergeCell ref="BL367:BM367"/>
-    <mergeCell ref="BO367:BP367"/>
-    <mergeCell ref="BW367:BX367"/>
-    <mergeCell ref="AU363:AV363"/>
-    <mergeCell ref="BO363:BP363"/>
-    <mergeCell ref="AU364:AV364"/>
-    <mergeCell ref="BO364:BP364"/>
-    <mergeCell ref="AU365:AV365"/>
-    <mergeCell ref="BJ365:BK365"/>
-    <mergeCell ref="BO365:BP365"/>
-    <mergeCell ref="AU360:AV360"/>
-    <mergeCell ref="BO360:BP360"/>
-    <mergeCell ref="AU361:AV361"/>
-    <mergeCell ref="BO361:BP361"/>
-    <mergeCell ref="AU362:AV362"/>
-    <mergeCell ref="BO362:BP362"/>
-    <mergeCell ref="CA358:CB358"/>
-    <mergeCell ref="AU359:AV359"/>
-    <mergeCell ref="BO359:BP359"/>
-    <mergeCell ref="BQ359:BR359"/>
-    <mergeCell ref="BS359:BT359"/>
-    <mergeCell ref="CA359:CB359"/>
-    <mergeCell ref="AU357:AV357"/>
-    <mergeCell ref="BO357:BP357"/>
-    <mergeCell ref="BQ357:BR357"/>
-    <mergeCell ref="BS357:BT357"/>
-    <mergeCell ref="AU358:AV358"/>
-    <mergeCell ref="BO358:BP358"/>
-    <mergeCell ref="BQ358:BR358"/>
-    <mergeCell ref="BS358:BT358"/>
-    <mergeCell ref="CI353:CJ353"/>
-    <mergeCell ref="AU354:AV354"/>
-    <mergeCell ref="AM355:AN355"/>
-    <mergeCell ref="AU355:AV355"/>
-    <mergeCell ref="AM356:AN356"/>
-    <mergeCell ref="AU356:AV356"/>
-    <mergeCell ref="BO356:BP356"/>
-    <mergeCell ref="BQ356:BR356"/>
-    <mergeCell ref="BS356:BT356"/>
-    <mergeCell ref="AM353:AN353"/>
-    <mergeCell ref="AU353:AV353"/>
-    <mergeCell ref="BO353:BP353"/>
-    <mergeCell ref="BQ353:BR353"/>
-    <mergeCell ref="BS353:BT353"/>
-    <mergeCell ref="CE353:CF353"/>
-    <mergeCell ref="BO350:BP350"/>
-    <mergeCell ref="CE350:CF350"/>
-    <mergeCell ref="CI350:CJ350"/>
-    <mergeCell ref="CS350:CT350"/>
-    <mergeCell ref="AU351:AV351"/>
-    <mergeCell ref="AM352:AN352"/>
-    <mergeCell ref="AU352:AV352"/>
-    <mergeCell ref="BO352:BP352"/>
-    <mergeCell ref="BQ352:BR352"/>
-    <mergeCell ref="BS352:BT352"/>
-    <mergeCell ref="AB348:AC348"/>
-    <mergeCell ref="AU348:AV348"/>
-    <mergeCell ref="AB349:AC349"/>
-    <mergeCell ref="AU349:AV349"/>
-    <mergeCell ref="AH350:AI350"/>
-    <mergeCell ref="AU350:AV350"/>
-    <mergeCell ref="AH346:AI346"/>
-    <mergeCell ref="AU346:AV346"/>
-    <mergeCell ref="AH347:AI347"/>
-    <mergeCell ref="AM347:AN347"/>
-    <mergeCell ref="AU347:AV347"/>
-    <mergeCell ref="BO347:BP347"/>
-    <mergeCell ref="AH344:AI344"/>
-    <mergeCell ref="AM344:AN344"/>
-    <mergeCell ref="AU344:AV344"/>
-    <mergeCell ref="BO344:BP344"/>
-    <mergeCell ref="BS344:BT344"/>
-    <mergeCell ref="AU345:AV345"/>
-    <mergeCell ref="BS341:BT341"/>
-    <mergeCell ref="CA341:CB341"/>
-    <mergeCell ref="CE341:CF341"/>
-    <mergeCell ref="CI341:CJ341"/>
-    <mergeCell ref="AU342:AV342"/>
-    <mergeCell ref="AH343:AI343"/>
-    <mergeCell ref="AM343:AN343"/>
-    <mergeCell ref="AU343:AV343"/>
-    <mergeCell ref="BO343:BP343"/>
-    <mergeCell ref="AU339:AV339"/>
-    <mergeCell ref="AH340:AI340"/>
-    <mergeCell ref="AM340:AN340"/>
-    <mergeCell ref="AU340:AV340"/>
-    <mergeCell ref="BO340:BP340"/>
-    <mergeCell ref="AH341:AI341"/>
-    <mergeCell ref="AM341:AN341"/>
-    <mergeCell ref="AU341:AV341"/>
-    <mergeCell ref="BO341:BP341"/>
-    <mergeCell ref="CS337:CT337"/>
-    <mergeCell ref="AU338:AV338"/>
-    <mergeCell ref="BO338:BP338"/>
-    <mergeCell ref="CA338:CB338"/>
-    <mergeCell ref="CD338:CE338"/>
-    <mergeCell ref="CS338:CT338"/>
-    <mergeCell ref="CF335:CG335"/>
-    <mergeCell ref="CI335:CJ335"/>
-    <mergeCell ref="AB336:AC336"/>
-    <mergeCell ref="AU336:AV336"/>
-    <mergeCell ref="CA336:CB336"/>
-    <mergeCell ref="AB337:AC337"/>
-    <mergeCell ref="AU337:AV337"/>
-    <mergeCell ref="CA337:CB337"/>
-    <mergeCell ref="CE337:CF337"/>
-    <mergeCell ref="BW334:BX334"/>
-    <mergeCell ref="BY334:BZ334"/>
-    <mergeCell ref="AU335:AV335"/>
-    <mergeCell ref="BG335:BH335"/>
-    <mergeCell ref="BJ335:BK335"/>
-    <mergeCell ref="BM335:BN335"/>
-    <mergeCell ref="BP335:BQ335"/>
-    <mergeCell ref="BT335:BU335"/>
-    <mergeCell ref="BW335:BX335"/>
-    <mergeCell ref="BY335:BZ335"/>
-    <mergeCell ref="BT333:BU333"/>
-    <mergeCell ref="BW333:BX333"/>
-    <mergeCell ref="BY333:BZ333"/>
-    <mergeCell ref="CI333:CJ333"/>
-    <mergeCell ref="AU334:AV334"/>
-    <mergeCell ref="BG334:BH334"/>
-    <mergeCell ref="BJ334:BK334"/>
-    <mergeCell ref="BM334:BN334"/>
-    <mergeCell ref="BP334:BQ334"/>
-    <mergeCell ref="BT334:BU334"/>
-    <mergeCell ref="AU332:AV332"/>
-    <mergeCell ref="BG332:BH332"/>
-    <mergeCell ref="BJ332:BK332"/>
-    <mergeCell ref="BM332:BN332"/>
-    <mergeCell ref="BP332:BQ332"/>
-    <mergeCell ref="AU333:AV333"/>
-    <mergeCell ref="BG333:BH333"/>
-    <mergeCell ref="BJ333:BK333"/>
-    <mergeCell ref="BM333:BN333"/>
-    <mergeCell ref="BP333:BQ333"/>
-    <mergeCell ref="BG331:BH331"/>
-    <mergeCell ref="BK331:BL331"/>
-    <mergeCell ref="BM331:BN331"/>
-    <mergeCell ref="BP331:BQ331"/>
-    <mergeCell ref="BT331:BU331"/>
-    <mergeCell ref="BW331:BX331"/>
-    <mergeCell ref="AF328:AG328"/>
-    <mergeCell ref="AP328:AQ328"/>
-    <mergeCell ref="AU328:AV328"/>
-    <mergeCell ref="AU329:AV329"/>
-    <mergeCell ref="AU330:AV330"/>
-    <mergeCell ref="AP331:AQ331"/>
-    <mergeCell ref="AU331:AV331"/>
-    <mergeCell ref="AU325:AV325"/>
-    <mergeCell ref="BG325:BH325"/>
-    <mergeCell ref="BK325:BL325"/>
-    <mergeCell ref="BM325:BN325"/>
-    <mergeCell ref="AU326:AV326"/>
-    <mergeCell ref="AU327:AV327"/>
-    <mergeCell ref="BW321:BX321"/>
-    <mergeCell ref="BY321:BZ321"/>
-    <mergeCell ref="AU322:AV322"/>
-    <mergeCell ref="AU323:AV323"/>
-    <mergeCell ref="AU324:AV324"/>
-    <mergeCell ref="BG324:BH324"/>
-    <mergeCell ref="BK324:BL324"/>
-    <mergeCell ref="BM324:BN324"/>
-    <mergeCell ref="CI320:CJ320"/>
-    <mergeCell ref="CK320:CL320"/>
-    <mergeCell ref="U321:V321"/>
-    <mergeCell ref="AL321:AM321"/>
-    <mergeCell ref="AT321:AU321"/>
-    <mergeCell ref="BE321:BF321"/>
-    <mergeCell ref="BG321:BH321"/>
-    <mergeCell ref="BJ321:BK321"/>
-    <mergeCell ref="BM321:BN321"/>
-    <mergeCell ref="BP321:BQ321"/>
-    <mergeCell ref="BJ320:BK320"/>
-    <mergeCell ref="BM320:BN320"/>
-    <mergeCell ref="BP320:BQ320"/>
-    <mergeCell ref="BW320:BX320"/>
-    <mergeCell ref="BY320:BZ320"/>
-    <mergeCell ref="CF320:CG320"/>
-    <mergeCell ref="BM319:BN319"/>
-    <mergeCell ref="BP319:BQ319"/>
-    <mergeCell ref="BW319:BX319"/>
-    <mergeCell ref="BY319:BZ319"/>
-    <mergeCell ref="CI319:CJ319"/>
-    <mergeCell ref="U320:V320"/>
-    <mergeCell ref="AL320:AM320"/>
-    <mergeCell ref="AT320:AU320"/>
-    <mergeCell ref="BE320:BF320"/>
-    <mergeCell ref="BG320:BH320"/>
-    <mergeCell ref="U319:V319"/>
-    <mergeCell ref="AL319:AM319"/>
-    <mergeCell ref="AT319:AU319"/>
-    <mergeCell ref="BE319:BF319"/>
-    <mergeCell ref="BG319:BH319"/>
-    <mergeCell ref="BJ319:BK319"/>
-    <mergeCell ref="BK317:BL317"/>
-    <mergeCell ref="BM317:BN317"/>
-    <mergeCell ref="U318:V318"/>
-    <mergeCell ref="AL318:AM318"/>
-    <mergeCell ref="AT318:AU318"/>
-    <mergeCell ref="BE318:BF318"/>
-    <mergeCell ref="BG318:BH318"/>
-    <mergeCell ref="BJ318:BK318"/>
-    <mergeCell ref="U317:V317"/>
-    <mergeCell ref="AL317:AM317"/>
-    <mergeCell ref="AP317:AQ317"/>
-    <mergeCell ref="AT317:AU317"/>
-    <mergeCell ref="BE317:BF317"/>
-    <mergeCell ref="BG317:BH317"/>
-    <mergeCell ref="U315:V315"/>
-    <mergeCell ref="AL315:AM315"/>
-    <mergeCell ref="AU315:AV315"/>
-    <mergeCell ref="U316:V316"/>
-    <mergeCell ref="AL316:AM316"/>
-    <mergeCell ref="AP316:AQ316"/>
-    <mergeCell ref="AU316:AV316"/>
-    <mergeCell ref="U312:V312"/>
-    <mergeCell ref="AU312:AV312"/>
-    <mergeCell ref="U313:V313"/>
-    <mergeCell ref="AF313:AG313"/>
-    <mergeCell ref="AU313:AV313"/>
-    <mergeCell ref="U314:V314"/>
-    <mergeCell ref="AF314:AG314"/>
-    <mergeCell ref="AU314:AV314"/>
-    <mergeCell ref="BK310:BL310"/>
-    <mergeCell ref="BM310:BN310"/>
-    <mergeCell ref="AL311:AM311"/>
-    <mergeCell ref="AU311:AV311"/>
-    <mergeCell ref="BG311:BH311"/>
-    <mergeCell ref="BK311:BL311"/>
-    <mergeCell ref="BM311:BN311"/>
-    <mergeCell ref="AU308:AV308"/>
-    <mergeCell ref="AF309:AG309"/>
-    <mergeCell ref="AU309:AV309"/>
-    <mergeCell ref="AL310:AM310"/>
-    <mergeCell ref="AU310:AV310"/>
-    <mergeCell ref="BG310:BH310"/>
-    <mergeCell ref="AI306:AJ306"/>
-    <mergeCell ref="AQ306:AR306"/>
-    <mergeCell ref="AU306:AV306"/>
-    <mergeCell ref="AZ306:BA306"/>
-    <mergeCell ref="BF306:BG306"/>
-    <mergeCell ref="X307:Y307"/>
-    <mergeCell ref="AI307:AJ307"/>
-    <mergeCell ref="AU307:AV307"/>
-    <mergeCell ref="AI304:AJ304"/>
-    <mergeCell ref="AQ304:AR304"/>
-    <mergeCell ref="AU304:AV304"/>
-    <mergeCell ref="X305:Y305"/>
-    <mergeCell ref="AI305:AJ305"/>
-    <mergeCell ref="AQ305:AR305"/>
-    <mergeCell ref="AU305:AV305"/>
-    <mergeCell ref="AY302:AZ302"/>
-    <mergeCell ref="BF302:BG302"/>
-    <mergeCell ref="X303:Y303"/>
-    <mergeCell ref="AI303:AJ303"/>
-    <mergeCell ref="AQ303:AR303"/>
-    <mergeCell ref="AU303:AV303"/>
-    <mergeCell ref="AY303:AZ303"/>
-    <mergeCell ref="AI301:AJ301"/>
-    <mergeCell ref="AQ301:AR301"/>
-    <mergeCell ref="AU301:AV301"/>
-    <mergeCell ref="AI302:AJ302"/>
-    <mergeCell ref="AQ302:AR302"/>
-    <mergeCell ref="AU302:AV302"/>
-    <mergeCell ref="AU297:AV297"/>
-    <mergeCell ref="AU298:AV298"/>
-    <mergeCell ref="M299:N299"/>
-    <mergeCell ref="X299:Y299"/>
-    <mergeCell ref="AU299:AV299"/>
-    <mergeCell ref="X300:Y300"/>
-    <mergeCell ref="AI300:AJ300"/>
-    <mergeCell ref="AU300:AV300"/>
-    <mergeCell ref="AA295:AB295"/>
-    <mergeCell ref="AO295:AP295"/>
-    <mergeCell ref="AU295:AV295"/>
-    <mergeCell ref="BQ295:BR295"/>
-    <mergeCell ref="CA295:CB295"/>
-    <mergeCell ref="M296:N296"/>
-    <mergeCell ref="X296:Y296"/>
-    <mergeCell ref="AU296:AV296"/>
-    <mergeCell ref="T294:U294"/>
-    <mergeCell ref="AO294:AP294"/>
-    <mergeCell ref="AU294:AV294"/>
-    <mergeCell ref="BQ294:BR294"/>
-    <mergeCell ref="BT294:BU294"/>
-    <mergeCell ref="CA294:CB294"/>
-    <mergeCell ref="T293:U293"/>
-    <mergeCell ref="AO293:AP293"/>
-    <mergeCell ref="AU293:AV293"/>
-    <mergeCell ref="BQ293:BR293"/>
-    <mergeCell ref="BT293:BU293"/>
-    <mergeCell ref="CA293:CB293"/>
-    <mergeCell ref="CA291:CB291"/>
-    <mergeCell ref="CH291:CI291"/>
-    <mergeCell ref="T292:U292"/>
-    <mergeCell ref="AA292:AB292"/>
-    <mergeCell ref="AO292:AP292"/>
-    <mergeCell ref="AU292:AV292"/>
-    <mergeCell ref="BQ292:BR292"/>
-    <mergeCell ref="T290:U290"/>
-    <mergeCell ref="AO290:AP290"/>
-    <mergeCell ref="AU290:AV290"/>
-    <mergeCell ref="BQ290:BR290"/>
-    <mergeCell ref="BT290:BU290"/>
-    <mergeCell ref="T291:U291"/>
-    <mergeCell ref="AO291:AP291"/>
-    <mergeCell ref="AU291:AV291"/>
-    <mergeCell ref="BQ291:BR291"/>
-    <mergeCell ref="BT291:BU291"/>
-    <mergeCell ref="BQ287:BR287"/>
-    <mergeCell ref="AU288:AV288"/>
-    <mergeCell ref="T289:U289"/>
-    <mergeCell ref="AA289:AB289"/>
-    <mergeCell ref="AO289:AP289"/>
-    <mergeCell ref="AU289:AV289"/>
-    <mergeCell ref="BQ289:BR289"/>
-    <mergeCell ref="T286:U286"/>
-    <mergeCell ref="AA286:AB286"/>
-    <mergeCell ref="AU286:AV286"/>
-    <mergeCell ref="T287:U287"/>
-    <mergeCell ref="AO287:AP287"/>
-    <mergeCell ref="AU287:AV287"/>
-    <mergeCell ref="AU282:AV282"/>
-    <mergeCell ref="AU283:AV283"/>
-    <mergeCell ref="T284:U284"/>
-    <mergeCell ref="AA284:AB284"/>
-    <mergeCell ref="AU284:AV284"/>
-    <mergeCell ref="AA285:AB285"/>
-    <mergeCell ref="AO285:AP285"/>
-    <mergeCell ref="AU285:AV285"/>
-    <mergeCell ref="AU280:AV280"/>
-    <mergeCell ref="BE280:BF280"/>
-    <mergeCell ref="CJ280:CK280"/>
-    <mergeCell ref="X281:Y281"/>
-    <mergeCell ref="AU281:AV281"/>
-    <mergeCell ref="BE281:BF281"/>
-    <mergeCell ref="X278:Y278"/>
-    <mergeCell ref="AU278:AV278"/>
-    <mergeCell ref="BE278:BF278"/>
-    <mergeCell ref="AU279:AV279"/>
-    <mergeCell ref="BE279:BF279"/>
-    <mergeCell ref="CJ279:CK279"/>
-    <mergeCell ref="CJ274:CK274"/>
-    <mergeCell ref="X275:Y275"/>
-    <mergeCell ref="AU275:AV275"/>
-    <mergeCell ref="AU276:AV276"/>
-    <mergeCell ref="AU277:AV277"/>
-    <mergeCell ref="BE277:BF277"/>
-    <mergeCell ref="X272:Y272"/>
-    <mergeCell ref="AU272:AV272"/>
-    <mergeCell ref="BE272:BF272"/>
-    <mergeCell ref="AU273:AV273"/>
-    <mergeCell ref="BE273:BF273"/>
-    <mergeCell ref="AU274:AV274"/>
-    <mergeCell ref="BE274:BF274"/>
-    <mergeCell ref="AU268:AV268"/>
-    <mergeCell ref="AU269:AV269"/>
-    <mergeCell ref="AU270:AV270"/>
-    <mergeCell ref="X271:Y271"/>
-    <mergeCell ref="AU271:AV271"/>
-    <mergeCell ref="BE271:BF271"/>
-    <mergeCell ref="BV266:BW266"/>
-    <mergeCell ref="CC266:CD266"/>
-    <mergeCell ref="AA267:AB267"/>
-    <mergeCell ref="AI267:AJ267"/>
-    <mergeCell ref="AN267:AO267"/>
-    <mergeCell ref="AU267:AV267"/>
-    <mergeCell ref="AY265:AZ265"/>
-    <mergeCell ref="BF265:BG265"/>
-    <mergeCell ref="BV265:BW265"/>
-    <mergeCell ref="AA266:AB266"/>
-    <mergeCell ref="AI266:AJ266"/>
-    <mergeCell ref="AN266:AO266"/>
-    <mergeCell ref="AQ266:AR266"/>
-    <mergeCell ref="AU266:AV266"/>
-    <mergeCell ref="AY266:AZ266"/>
-    <mergeCell ref="BF266:BG266"/>
-    <mergeCell ref="BF263:BG263"/>
-    <mergeCell ref="X264:Y264"/>
-    <mergeCell ref="AA264:AB264"/>
-    <mergeCell ref="AI264:AJ264"/>
-    <mergeCell ref="AU264:AV264"/>
-    <mergeCell ref="AA265:AB265"/>
-    <mergeCell ref="AI265:AJ265"/>
-    <mergeCell ref="AN265:AO265"/>
-    <mergeCell ref="AQ265:AR265"/>
-    <mergeCell ref="AU265:AV265"/>
-    <mergeCell ref="AA263:AB263"/>
-    <mergeCell ref="AI263:AJ263"/>
-    <mergeCell ref="AQ263:AR263"/>
-    <mergeCell ref="AU263:AV263"/>
-    <mergeCell ref="AY263:AZ263"/>
-    <mergeCell ref="BC263:BD263"/>
-    <mergeCell ref="BF261:BG261"/>
-    <mergeCell ref="BV261:BW261"/>
-    <mergeCell ref="CC261:CD261"/>
-    <mergeCell ref="X262:Y262"/>
-    <mergeCell ref="AA262:AB262"/>
-    <mergeCell ref="AI262:AJ262"/>
-    <mergeCell ref="AU262:AV262"/>
-    <mergeCell ref="AY260:AZ260"/>
-    <mergeCell ref="BC260:BD260"/>
-    <mergeCell ref="BF260:BG260"/>
-    <mergeCell ref="BV260:BW260"/>
-    <mergeCell ref="AA261:AB261"/>
-    <mergeCell ref="AI261:AJ261"/>
-    <mergeCell ref="AQ261:AR261"/>
-    <mergeCell ref="AU261:AV261"/>
-    <mergeCell ref="AY261:AZ261"/>
-    <mergeCell ref="BC261:BD261"/>
-    <mergeCell ref="X259:Y259"/>
-    <mergeCell ref="AA259:AB259"/>
-    <mergeCell ref="AI259:AJ259"/>
-    <mergeCell ref="AU259:AV259"/>
-    <mergeCell ref="AA260:AB260"/>
-    <mergeCell ref="AI260:AJ260"/>
-    <mergeCell ref="AQ260:AR260"/>
-    <mergeCell ref="AU260:AV260"/>
-    <mergeCell ref="P257:Q257"/>
-    <mergeCell ref="X257:Y257"/>
-    <mergeCell ref="AA257:AB257"/>
-    <mergeCell ref="AU257:AV257"/>
-    <mergeCell ref="P258:Q258"/>
-    <mergeCell ref="X258:Y258"/>
-    <mergeCell ref="AA258:AB258"/>
-    <mergeCell ref="AU258:AV258"/>
-    <mergeCell ref="BF254:BG254"/>
-    <mergeCell ref="P255:Q255"/>
-    <mergeCell ref="AA255:AB255"/>
-    <mergeCell ref="AU255:AV255"/>
-    <mergeCell ref="P256:Q256"/>
-    <mergeCell ref="AA256:AB256"/>
-    <mergeCell ref="AU256:AV256"/>
-    <mergeCell ref="AA254:AB254"/>
-    <mergeCell ref="AG254:AH254"/>
-    <mergeCell ref="AO254:AP254"/>
-    <mergeCell ref="AR254:AS254"/>
-    <mergeCell ref="AU254:AV254"/>
-    <mergeCell ref="BD254:BE254"/>
-    <mergeCell ref="AA252:AB252"/>
-    <mergeCell ref="AU252:AV252"/>
-    <mergeCell ref="S253:T253"/>
-    <mergeCell ref="AA253:AB253"/>
-    <mergeCell ref="AG253:AH253"/>
-    <mergeCell ref="AO253:AP253"/>
-    <mergeCell ref="AU253:AV253"/>
-    <mergeCell ref="AA250:AB250"/>
-    <mergeCell ref="AU250:AV250"/>
-    <mergeCell ref="S251:T251"/>
-    <mergeCell ref="AA251:AB251"/>
-    <mergeCell ref="AG251:AH251"/>
-    <mergeCell ref="AO251:AP251"/>
-    <mergeCell ref="AU251:AV251"/>
-    <mergeCell ref="AA249:AB249"/>
-    <mergeCell ref="AG249:AH249"/>
-    <mergeCell ref="AJ249:AK249"/>
-    <mergeCell ref="AL249:AM249"/>
-    <mergeCell ref="AO249:AP249"/>
-    <mergeCell ref="AU249:AV249"/>
-    <mergeCell ref="AR247:AS247"/>
-    <mergeCell ref="AU247:AV247"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="X248:Y248"/>
-    <mergeCell ref="AA248:AB248"/>
-    <mergeCell ref="AG248:AH248"/>
-    <mergeCell ref="AJ248:AK248"/>
-    <mergeCell ref="AU248:AV248"/>
-    <mergeCell ref="S247:T247"/>
-    <mergeCell ref="AA247:AB247"/>
-    <mergeCell ref="AG247:AH247"/>
-    <mergeCell ref="AJ247:AK247"/>
-    <mergeCell ref="AL247:AM247"/>
-    <mergeCell ref="AO247:AP247"/>
-    <mergeCell ref="N245:O245"/>
-    <mergeCell ref="AA245:AB245"/>
-    <mergeCell ref="AU245:AV245"/>
-    <mergeCell ref="S246:T246"/>
-    <mergeCell ref="AA246:AB246"/>
-    <mergeCell ref="AG246:AH246"/>
-    <mergeCell ref="AJ246:AK246"/>
-    <mergeCell ref="AU246:AV246"/>
-    <mergeCell ref="X243:Y243"/>
-    <mergeCell ref="AA243:AB243"/>
-    <mergeCell ref="AG243:AH243"/>
-    <mergeCell ref="AU243:AV243"/>
-    <mergeCell ref="N244:O244"/>
-    <mergeCell ref="X244:Y244"/>
-    <mergeCell ref="AA244:AB244"/>
-    <mergeCell ref="AG244:AH244"/>
-    <mergeCell ref="AU244:AV244"/>
-    <mergeCell ref="N241:O241"/>
-    <mergeCell ref="X241:Y241"/>
-    <mergeCell ref="AA241:AB241"/>
-    <mergeCell ref="AU241:AV241"/>
-    <mergeCell ref="X242:Y242"/>
-    <mergeCell ref="AA242:AB242"/>
-    <mergeCell ref="AG242:AH242"/>
-    <mergeCell ref="AU242:AV242"/>
-    <mergeCell ref="BD238:BE238"/>
-    <mergeCell ref="X239:Y239"/>
-    <mergeCell ref="AA239:AB239"/>
-    <mergeCell ref="AG239:AH239"/>
-    <mergeCell ref="AU239:AV239"/>
-    <mergeCell ref="N240:O240"/>
-    <mergeCell ref="X240:Y240"/>
-    <mergeCell ref="AA240:AB240"/>
-    <mergeCell ref="AU240:AV240"/>
-    <mergeCell ref="AW237:AX237"/>
-    <mergeCell ref="AZ237:BA237"/>
-    <mergeCell ref="AA238:AB238"/>
-    <mergeCell ref="AG238:AH238"/>
-    <mergeCell ref="AJ238:AK238"/>
-    <mergeCell ref="AU238:AV238"/>
-    <mergeCell ref="AW238:AX238"/>
-    <mergeCell ref="AZ238:BA238"/>
-    <mergeCell ref="AA236:AB236"/>
-    <mergeCell ref="AG236:AH236"/>
-    <mergeCell ref="AU236:AV236"/>
-    <mergeCell ref="AW236:AX236"/>
-    <mergeCell ref="AZ236:BA236"/>
-    <mergeCell ref="X237:Y237"/>
-    <mergeCell ref="AA237:AB237"/>
-    <mergeCell ref="AG237:AH237"/>
-    <mergeCell ref="AJ237:AK237"/>
-    <mergeCell ref="AU237:AV237"/>
-    <mergeCell ref="AW234:AX234"/>
-    <mergeCell ref="AZ234:BA234"/>
-    <mergeCell ref="X235:Y235"/>
-    <mergeCell ref="AA235:AB235"/>
-    <mergeCell ref="AG235:AH235"/>
-    <mergeCell ref="AU235:AV235"/>
-    <mergeCell ref="AW232:AX232"/>
-    <mergeCell ref="AZ232:BA232"/>
-    <mergeCell ref="N233:O233"/>
-    <mergeCell ref="AA233:AB233"/>
-    <mergeCell ref="AU233:AV233"/>
-    <mergeCell ref="AA234:AB234"/>
-    <mergeCell ref="AG234:AH234"/>
-    <mergeCell ref="AJ234:AK234"/>
-    <mergeCell ref="AR234:AS234"/>
-    <mergeCell ref="AU234:AV234"/>
-    <mergeCell ref="N231:O231"/>
-    <mergeCell ref="AA231:AB231"/>
-    <mergeCell ref="AU231:AV231"/>
-    <mergeCell ref="AA232:AB232"/>
-    <mergeCell ref="AG232:AH232"/>
-    <mergeCell ref="AJ232:AK232"/>
-    <mergeCell ref="AR232:AS232"/>
-    <mergeCell ref="AU232:AV232"/>
-    <mergeCell ref="X229:Y229"/>
-    <mergeCell ref="AA229:AB229"/>
-    <mergeCell ref="AU229:AV229"/>
-    <mergeCell ref="X230:Y230"/>
-    <mergeCell ref="AA230:AB230"/>
-    <mergeCell ref="AU230:AV230"/>
-    <mergeCell ref="N227:O227"/>
-    <mergeCell ref="AA227:AB227"/>
-    <mergeCell ref="AU227:AV227"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="X228:Y228"/>
-    <mergeCell ref="AA228:AB228"/>
-    <mergeCell ref="AU228:AV228"/>
-    <mergeCell ref="AA224:AB224"/>
-    <mergeCell ref="AU224:AV224"/>
-    <mergeCell ref="AA225:AB225"/>
-    <mergeCell ref="AU225:AV225"/>
-    <mergeCell ref="AX225:AY225"/>
-    <mergeCell ref="N226:O226"/>
-    <mergeCell ref="AA226:AB226"/>
-    <mergeCell ref="AU226:AV226"/>
-    <mergeCell ref="AY221:AZ221"/>
-    <mergeCell ref="BF221:BG221"/>
-    <mergeCell ref="BT221:BU221"/>
-    <mergeCell ref="AA222:AB222"/>
-    <mergeCell ref="AU222:AV222"/>
-    <mergeCell ref="AA223:AB223"/>
-    <mergeCell ref="AU223:AV223"/>
-    <mergeCell ref="L220:M220"/>
-    <mergeCell ref="AA220:AB220"/>
-    <mergeCell ref="AN220:AO220"/>
-    <mergeCell ref="AU220:AV220"/>
-    <mergeCell ref="L221:M221"/>
-    <mergeCell ref="AA221:AB221"/>
-    <mergeCell ref="AN221:AO221"/>
-    <mergeCell ref="AU221:AV221"/>
-    <mergeCell ref="BC218:BD218"/>
-    <mergeCell ref="BF218:BG218"/>
-    <mergeCell ref="BT218:BU218"/>
-    <mergeCell ref="BV218:BW218"/>
-    <mergeCell ref="L219:M219"/>
-    <mergeCell ref="X219:Y219"/>
-    <mergeCell ref="AA219:AB219"/>
-    <mergeCell ref="AU219:AV219"/>
-    <mergeCell ref="AY217:AZ217"/>
-    <mergeCell ref="AA218:AB218"/>
-    <mergeCell ref="AN218:AO218"/>
-    <mergeCell ref="AR218:AS218"/>
-    <mergeCell ref="AU218:AV218"/>
-    <mergeCell ref="AY218:AZ218"/>
-    <mergeCell ref="AU216:AV216"/>
-    <mergeCell ref="X217:Y217"/>
-    <mergeCell ref="AA217:AB217"/>
-    <mergeCell ref="AN217:AO217"/>
-    <mergeCell ref="AR217:AS217"/>
-    <mergeCell ref="AU217:AV217"/>
-    <mergeCell ref="AA214:AB214"/>
-    <mergeCell ref="AD214:AE214"/>
-    <mergeCell ref="AU214:AV214"/>
-    <mergeCell ref="AA215:AB215"/>
-    <mergeCell ref="AU215:AV215"/>
-    <mergeCell ref="L216:M216"/>
-    <mergeCell ref="X216:Y216"/>
-    <mergeCell ref="AA216:AB216"/>
-    <mergeCell ref="AN216:AO216"/>
-    <mergeCell ref="AR216:AS216"/>
-    <mergeCell ref="AA213:AB213"/>
-    <mergeCell ref="AD213:AE213"/>
-    <mergeCell ref="AU213:AV213"/>
-    <mergeCell ref="AZ213:BA213"/>
-    <mergeCell ref="BH213:BI213"/>
-    <mergeCell ref="BJ213:BK213"/>
-    <mergeCell ref="N212:O212"/>
-    <mergeCell ref="AA212:AB212"/>
-    <mergeCell ref="AD212:AE212"/>
-    <mergeCell ref="AU212:AV212"/>
-    <mergeCell ref="AZ212:BA212"/>
-    <mergeCell ref="BH212:BI212"/>
-    <mergeCell ref="AA211:AB211"/>
-    <mergeCell ref="AD211:AE211"/>
-    <mergeCell ref="AU211:AV211"/>
-    <mergeCell ref="AZ211:BA211"/>
-    <mergeCell ref="BH211:BI211"/>
-    <mergeCell ref="BJ211:BK211"/>
-    <mergeCell ref="N210:O210"/>
-    <mergeCell ref="AA210:AB210"/>
-    <mergeCell ref="AD210:AE210"/>
-    <mergeCell ref="AU210:AV210"/>
-    <mergeCell ref="AZ210:BA210"/>
-    <mergeCell ref="BH210:BI210"/>
-    <mergeCell ref="T207:U207"/>
-    <mergeCell ref="AA207:AB207"/>
-    <mergeCell ref="AU207:AV207"/>
-    <mergeCell ref="AA208:AB208"/>
-    <mergeCell ref="AU208:AV208"/>
-    <mergeCell ref="AA209:AB209"/>
-    <mergeCell ref="AU209:AV209"/>
-    <mergeCell ref="T206:U206"/>
-    <mergeCell ref="V206:W206"/>
-    <mergeCell ref="AA206:AB206"/>
-    <mergeCell ref="AU206:AV206"/>
-    <mergeCell ref="BF206:BG206"/>
-    <mergeCell ref="BT206:BU206"/>
-    <mergeCell ref="BF203:BG203"/>
-    <mergeCell ref="T204:U204"/>
-    <mergeCell ref="AA204:AB204"/>
-    <mergeCell ref="AU204:AV204"/>
-    <mergeCell ref="T205:U205"/>
-    <mergeCell ref="V205:W205"/>
-    <mergeCell ref="AA205:AB205"/>
-    <mergeCell ref="AU205:AV205"/>
-    <mergeCell ref="T202:U202"/>
-    <mergeCell ref="V202:W202"/>
-    <mergeCell ref="AA202:AB202"/>
-    <mergeCell ref="AE202:AF202"/>
-    <mergeCell ref="AU202:AV202"/>
-    <mergeCell ref="T203:U203"/>
-    <mergeCell ref="V203:W203"/>
-    <mergeCell ref="AA203:AB203"/>
-    <mergeCell ref="AE203:AF203"/>
-    <mergeCell ref="AU203:AV203"/>
-    <mergeCell ref="T201:U201"/>
-    <mergeCell ref="V201:W201"/>
-    <mergeCell ref="AA201:AB201"/>
-    <mergeCell ref="AE201:AF201"/>
-    <mergeCell ref="AN201:AO201"/>
-    <mergeCell ref="AU201:AV201"/>
-    <mergeCell ref="T198:U198"/>
-    <mergeCell ref="AU198:AV198"/>
-    <mergeCell ref="T199:U199"/>
-    <mergeCell ref="AN199:AO199"/>
-    <mergeCell ref="AU199:AV199"/>
-    <mergeCell ref="T200:U200"/>
-    <mergeCell ref="AU200:AV200"/>
-    <mergeCell ref="CK195:CL195"/>
-    <mergeCell ref="AU196:AV196"/>
-    <mergeCell ref="AW196:AX196"/>
-    <mergeCell ref="CB196:CC196"/>
-    <mergeCell ref="CI196:CJ196"/>
-    <mergeCell ref="T197:U197"/>
-    <mergeCell ref="AU197:AV197"/>
-    <mergeCell ref="CI193:CJ193"/>
-    <mergeCell ref="AA194:AB194"/>
-    <mergeCell ref="AU194:AV194"/>
-    <mergeCell ref="AW194:AX194"/>
-    <mergeCell ref="AA195:AB195"/>
-    <mergeCell ref="AU195:AV195"/>
-    <mergeCell ref="AW195:AX195"/>
-    <mergeCell ref="CB195:CC195"/>
-    <mergeCell ref="CI195:CJ195"/>
-    <mergeCell ref="AA192:AB192"/>
-    <mergeCell ref="AU192:AV192"/>
-    <mergeCell ref="AW192:AX192"/>
-    <mergeCell ref="CB192:CC192"/>
-    <mergeCell ref="AA193:AB193"/>
-    <mergeCell ref="AU193:AV193"/>
-    <mergeCell ref="AW193:AX193"/>
-    <mergeCell ref="CB193:CC193"/>
-    <mergeCell ref="AA190:AB190"/>
-    <mergeCell ref="AU190:AV190"/>
-    <mergeCell ref="AW190:AX190"/>
-    <mergeCell ref="CB190:CC190"/>
-    <mergeCell ref="AA191:AB191"/>
-    <mergeCell ref="AU191:AV191"/>
-    <mergeCell ref="AW191:AX191"/>
-    <mergeCell ref="AW187:AX187"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="AA188:AB188"/>
-    <mergeCell ref="AU188:AV188"/>
-    <mergeCell ref="AW188:AX188"/>
-    <mergeCell ref="AA189:AB189"/>
-    <mergeCell ref="AU189:AV189"/>
-    <mergeCell ref="AW189:AX189"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="AA186:AB186"/>
-    <mergeCell ref="AU186:AV186"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="AA187:AB187"/>
-    <mergeCell ref="AU187:AV187"/>
-    <mergeCell ref="AU184:AV184"/>
-    <mergeCell ref="AA185:AB185"/>
-    <mergeCell ref="AD185:AE185"/>
-    <mergeCell ref="AJ185:AK185"/>
-    <mergeCell ref="AU185:AV185"/>
-    <mergeCell ref="CL185:CM185"/>
-    <mergeCell ref="AU179:AV179"/>
-    <mergeCell ref="AU180:AV180"/>
-    <mergeCell ref="AD181:AE181"/>
-    <mergeCell ref="AU181:AV181"/>
-    <mergeCell ref="AU182:AV182"/>
-    <mergeCell ref="AD183:AE183"/>
-    <mergeCell ref="AU183:AV183"/>
-    <mergeCell ref="AU177:AV177"/>
-    <mergeCell ref="AY177:AZ177"/>
-    <mergeCell ref="BF177:BG177"/>
-    <mergeCell ref="BH177:BI177"/>
-    <mergeCell ref="BJ177:BK177"/>
-    <mergeCell ref="AU178:AV178"/>
-    <mergeCell ref="AY175:AZ175"/>
-    <mergeCell ref="BF175:BG175"/>
-    <mergeCell ref="AU176:AV176"/>
-    <mergeCell ref="AY176:AZ176"/>
-    <mergeCell ref="BF176:BG176"/>
-    <mergeCell ref="BH176:BI176"/>
-    <mergeCell ref="AA174:AB174"/>
-    <mergeCell ref="AS174:AT174"/>
-    <mergeCell ref="AU174:AV174"/>
-    <mergeCell ref="X175:Y175"/>
-    <mergeCell ref="AA175:AB175"/>
-    <mergeCell ref="AU175:AV175"/>
-    <mergeCell ref="AA172:AB172"/>
-    <mergeCell ref="AS172:AT172"/>
-    <mergeCell ref="AY172:AZ172"/>
-    <mergeCell ref="X173:Y173"/>
-    <mergeCell ref="AA173:AB173"/>
-    <mergeCell ref="AU173:AV173"/>
-    <mergeCell ref="BF169:BG169"/>
-    <mergeCell ref="X170:Y170"/>
-    <mergeCell ref="AU170:AV170"/>
-    <mergeCell ref="X171:Y171"/>
-    <mergeCell ref="AA171:AB171"/>
-    <mergeCell ref="AU171:AV171"/>
-    <mergeCell ref="AU167:AV167"/>
-    <mergeCell ref="AU168:AV168"/>
-    <mergeCell ref="X169:Y169"/>
-    <mergeCell ref="AA169:AB169"/>
-    <mergeCell ref="AU169:AV169"/>
-    <mergeCell ref="AY169:AZ169"/>
-    <mergeCell ref="BJ165:BK165"/>
-    <mergeCell ref="BM165:BN165"/>
-    <mergeCell ref="BV165:BW165"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="AI166:AJ166"/>
-    <mergeCell ref="AS166:AT166"/>
-    <mergeCell ref="AU166:AV166"/>
-    <mergeCell ref="AY166:AZ166"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="X164:Y164"/>
-    <mergeCell ref="AI164:AJ164"/>
-    <mergeCell ref="AU164:AV164"/>
-    <mergeCell ref="AY164:AZ164"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="AI165:AJ165"/>
-    <mergeCell ref="AU165:AV165"/>
-    <mergeCell ref="AY165:AZ165"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="AI163:AJ163"/>
-    <mergeCell ref="AU163:AV163"/>
-    <mergeCell ref="AY163:AZ163"/>
-    <mergeCell ref="BJ163:BK163"/>
-    <mergeCell ref="BM163:BN163"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="AI161:AJ161"/>
-    <mergeCell ref="AS161:AT161"/>
-    <mergeCell ref="AU161:AV161"/>
-    <mergeCell ref="AY161:AZ161"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="X162:Y162"/>
-    <mergeCell ref="AI162:AJ162"/>
-    <mergeCell ref="AU162:AV162"/>
-    <mergeCell ref="AY162:AZ162"/>
-    <mergeCell ref="BM159:BN159"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="X160:Y160"/>
-    <mergeCell ref="AI160:AJ160"/>
-    <mergeCell ref="AS160:AT160"/>
-    <mergeCell ref="AU160:AV160"/>
-    <mergeCell ref="AY160:AZ160"/>
-    <mergeCell ref="AY158:AZ158"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="AI159:AJ159"/>
-    <mergeCell ref="AU159:AV159"/>
-    <mergeCell ref="AY159:AZ159"/>
-    <mergeCell ref="BK159:BL159"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="X157:Y157"/>
-    <mergeCell ref="AI157:AJ157"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="AI158:AJ158"/>
-    <mergeCell ref="AU158:AV158"/>
-    <mergeCell ref="BM155:BN155"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="X156:Y156"/>
-    <mergeCell ref="AI156:AJ156"/>
-    <mergeCell ref="AU156:AV156"/>
-    <mergeCell ref="AY156:AZ156"/>
-    <mergeCell ref="BJ156:BK156"/>
-    <mergeCell ref="BM156:BN156"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="X155:Y155"/>
-    <mergeCell ref="AI155:AJ155"/>
-    <mergeCell ref="AU155:AV155"/>
-    <mergeCell ref="AY155:AZ155"/>
-    <mergeCell ref="BK155:BL155"/>
-    <mergeCell ref="CS151:CT151"/>
-    <mergeCell ref="AX152:AY152"/>
-    <mergeCell ref="BL152:BM152"/>
-    <mergeCell ref="BV152:BW152"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="AI153:AJ153"/>
-    <mergeCell ref="CL150:CM150"/>
-    <mergeCell ref="AX151:AY151"/>
-    <mergeCell ref="BL151:BM151"/>
-    <mergeCell ref="BO151:BP151"/>
-    <mergeCell ref="BV151:BW151"/>
-    <mergeCell ref="BX151:BY151"/>
-    <mergeCell ref="CJ151:CK151"/>
-    <mergeCell ref="CL151:CM151"/>
-    <mergeCell ref="AX150:AY150"/>
-    <mergeCell ref="BL150:BM150"/>
-    <mergeCell ref="BO150:BP150"/>
-    <mergeCell ref="BV150:BW150"/>
-    <mergeCell ref="BX150:BY150"/>
-    <mergeCell ref="CJ150:CK150"/>
-    <mergeCell ref="AX149:AY149"/>
-    <mergeCell ref="BJ149:BK149"/>
-    <mergeCell ref="BL149:BM149"/>
-    <mergeCell ref="BO149:BP149"/>
-    <mergeCell ref="BV149:BW149"/>
-    <mergeCell ref="BX149:BY149"/>
-    <mergeCell ref="AX147:AY147"/>
-    <mergeCell ref="BL147:BM147"/>
-    <mergeCell ref="BO147:BP147"/>
-    <mergeCell ref="BV147:BW147"/>
-    <mergeCell ref="BX147:BY147"/>
-    <mergeCell ref="AX148:AY148"/>
-    <mergeCell ref="BJ148:BK148"/>
-    <mergeCell ref="AX142:AY142"/>
-    <mergeCell ref="BL142:BM142"/>
-    <mergeCell ref="BW142:BX142"/>
-    <mergeCell ref="AX144:AY144"/>
-    <mergeCell ref="BJ144:BK144"/>
-    <mergeCell ref="AX145:AY145"/>
-    <mergeCell ref="BJ145:BK145"/>
-    <mergeCell ref="BL145:BM145"/>
-    <mergeCell ref="BO145:BP145"/>
-    <mergeCell ref="BV145:BW145"/>
-    <mergeCell ref="CM136:CN136"/>
-    <mergeCell ref="AX140:AY140"/>
-    <mergeCell ref="BJ140:BK140"/>
-    <mergeCell ref="AX141:AY141"/>
-    <mergeCell ref="BL141:BM141"/>
-    <mergeCell ref="BO141:BP141"/>
-    <mergeCell ref="BW141:BX141"/>
-    <mergeCell ref="CE135:CF135"/>
-    <mergeCell ref="CI135:CJ135"/>
-    <mergeCell ref="BF136:BG136"/>
-    <mergeCell ref="BO136:BP136"/>
-    <mergeCell ref="BQ136:BR136"/>
-    <mergeCell ref="CE136:CF136"/>
-    <mergeCell ref="CI136:CJ136"/>
-    <mergeCell ref="BF134:BG134"/>
-    <mergeCell ref="BO134:BP134"/>
-    <mergeCell ref="BQ134:BR134"/>
-    <mergeCell ref="BF135:BG135"/>
-    <mergeCell ref="BO135:BP135"/>
-    <mergeCell ref="BQ135:BR135"/>
-    <mergeCell ref="CE132:CF132"/>
-    <mergeCell ref="CI132:CJ132"/>
-    <mergeCell ref="CM132:CN132"/>
-    <mergeCell ref="BF133:BG133"/>
-    <mergeCell ref="BO133:BP133"/>
-    <mergeCell ref="BQ133:BR133"/>
-    <mergeCell ref="CE133:CF133"/>
-    <mergeCell ref="CI133:CJ133"/>
-    <mergeCell ref="BS130:BT130"/>
-    <mergeCell ref="CA130:CB130"/>
-    <mergeCell ref="BF131:BG131"/>
-    <mergeCell ref="BO131:BP131"/>
-    <mergeCell ref="BQ131:BR131"/>
-    <mergeCell ref="BF132:BG132"/>
-    <mergeCell ref="BO132:BP132"/>
-    <mergeCell ref="BQ132:BR132"/>
-    <mergeCell ref="BO129:BP129"/>
-    <mergeCell ref="BQ129:BR129"/>
-    <mergeCell ref="AH130:AI130"/>
-    <mergeCell ref="AM130:AN130"/>
-    <mergeCell ref="BF130:BG130"/>
-    <mergeCell ref="BO130:BP130"/>
-    <mergeCell ref="BQ130:BR130"/>
-    <mergeCell ref="AH128:AI128"/>
-    <mergeCell ref="AM128:AN128"/>
-    <mergeCell ref="BF128:BG128"/>
-    <mergeCell ref="AH129:AI129"/>
-    <mergeCell ref="AM129:AN129"/>
-    <mergeCell ref="BF129:BG129"/>
-    <mergeCell ref="BO126:BP126"/>
-    <mergeCell ref="AH127:AI127"/>
-    <mergeCell ref="AM127:AN127"/>
-    <mergeCell ref="BF127:BG127"/>
-    <mergeCell ref="BO127:BP127"/>
-    <mergeCell ref="BS127:BT127"/>
-    <mergeCell ref="AB123:AC123"/>
-    <mergeCell ref="AH124:AI124"/>
-    <mergeCell ref="AH125:AI125"/>
-    <mergeCell ref="AM125:AN125"/>
-    <mergeCell ref="BF125:BG125"/>
-    <mergeCell ref="AH126:AI126"/>
-    <mergeCell ref="AM126:AN126"/>
-    <mergeCell ref="BF126:BG126"/>
-    <mergeCell ref="BF118:BG118"/>
-    <mergeCell ref="AB121:AC121"/>
-    <mergeCell ref="AH121:AI121"/>
-    <mergeCell ref="BG121:BH121"/>
-    <mergeCell ref="BO121:BP121"/>
-    <mergeCell ref="AB122:AC122"/>
-    <mergeCell ref="AH122:AI122"/>
-    <mergeCell ref="BG122:BH122"/>
-    <mergeCell ref="BO122:BP122"/>
-    <mergeCell ref="CM116:CN116"/>
-    <mergeCell ref="BF117:BG117"/>
-    <mergeCell ref="BO117:BP117"/>
-    <mergeCell ref="CB117:CC117"/>
-    <mergeCell ref="CE117:CF117"/>
-    <mergeCell ref="CI117:CJ117"/>
-    <mergeCell ref="CM117:CN117"/>
-    <mergeCell ref="CQ114:CR114"/>
-    <mergeCell ref="CS114:CT114"/>
-    <mergeCell ref="BF115:BG115"/>
-    <mergeCell ref="BO115:BP115"/>
-    <mergeCell ref="CB115:CC115"/>
-    <mergeCell ref="BF116:BG116"/>
-    <mergeCell ref="BO116:BP116"/>
-    <mergeCell ref="CB116:CC116"/>
-    <mergeCell ref="CE116:CF116"/>
-    <mergeCell ref="CI116:CJ116"/>
-    <mergeCell ref="BF114:BG114"/>
-    <mergeCell ref="BO114:BP114"/>
-    <mergeCell ref="CB114:CC114"/>
-    <mergeCell ref="CE114:CF114"/>
-    <mergeCell ref="CI114:CJ114"/>
-    <mergeCell ref="CM114:CN114"/>
-    <mergeCell ref="BF113:BG113"/>
-    <mergeCell ref="BO113:BP113"/>
-    <mergeCell ref="CB113:CC113"/>
-    <mergeCell ref="CE113:CF113"/>
-    <mergeCell ref="CI113:CJ113"/>
-    <mergeCell ref="CM113:CN113"/>
-    <mergeCell ref="CE111:CF111"/>
-    <mergeCell ref="CI111:CJ111"/>
-    <mergeCell ref="CM111:CN111"/>
-    <mergeCell ref="AH112:AI112"/>
-    <mergeCell ref="BF112:BG112"/>
-    <mergeCell ref="BO112:BP112"/>
-    <mergeCell ref="CB112:CC112"/>
-    <mergeCell ref="CE112:CF112"/>
-    <mergeCell ref="CI112:CJ112"/>
-    <mergeCell ref="CM112:CN112"/>
-    <mergeCell ref="BS110:BT110"/>
-    <mergeCell ref="CA110:CB110"/>
-    <mergeCell ref="AH111:AI111"/>
-    <mergeCell ref="BF111:BG111"/>
-    <mergeCell ref="BO111:BP111"/>
-    <mergeCell ref="BS111:BT111"/>
-    <mergeCell ref="CA111:CB111"/>
-    <mergeCell ref="AH109:AI109"/>
-    <mergeCell ref="BF109:BG109"/>
-    <mergeCell ref="BO109:BP109"/>
-    <mergeCell ref="AH110:AI110"/>
-    <mergeCell ref="BF110:BG110"/>
-    <mergeCell ref="BO110:BP110"/>
-    <mergeCell ref="BS107:BT107"/>
-    <mergeCell ref="CA107:CB107"/>
-    <mergeCell ref="CE107:CF107"/>
-    <mergeCell ref="CI107:CJ107"/>
-    <mergeCell ref="CM107:CN107"/>
-    <mergeCell ref="AH108:AI108"/>
-    <mergeCell ref="BF108:BG108"/>
-    <mergeCell ref="BO108:BP108"/>
-    <mergeCell ref="BS108:BT108"/>
-    <mergeCell ref="CA108:CB108"/>
-    <mergeCell ref="AB104:AC104"/>
-    <mergeCell ref="BG104:BH104"/>
-    <mergeCell ref="AH106:AI106"/>
-    <mergeCell ref="BF106:BG106"/>
-    <mergeCell ref="BO106:BP106"/>
-    <mergeCell ref="AH107:AI107"/>
-    <mergeCell ref="BF107:BG107"/>
-    <mergeCell ref="BO107:BP107"/>
-    <mergeCell ref="AB102:AC102"/>
-    <mergeCell ref="BG102:BH102"/>
-    <mergeCell ref="BO102:BP102"/>
-    <mergeCell ref="AB103:AC103"/>
-    <mergeCell ref="BG103:BH103"/>
-    <mergeCell ref="BO103:BP103"/>
-    <mergeCell ref="BW98:BX98"/>
-    <mergeCell ref="BY98:BZ98"/>
-    <mergeCell ref="CA98:CB98"/>
-    <mergeCell ref="AB100:AC100"/>
-    <mergeCell ref="AB101:AC101"/>
-    <mergeCell ref="BG101:BH101"/>
-    <mergeCell ref="BG97:BH97"/>
-    <mergeCell ref="BJ97:BK97"/>
-    <mergeCell ref="BG98:BH98"/>
-    <mergeCell ref="BJ98:BK98"/>
-    <mergeCell ref="BM98:BN98"/>
-    <mergeCell ref="BP98:BQ98"/>
-    <mergeCell ref="CH95:CI95"/>
-    <mergeCell ref="BG96:BH96"/>
-    <mergeCell ref="BJ96:BK96"/>
-    <mergeCell ref="BM96:BN96"/>
-    <mergeCell ref="BP96:BQ96"/>
-    <mergeCell ref="BW96:BX96"/>
-    <mergeCell ref="BY96:BZ96"/>
-    <mergeCell ref="CA96:CB96"/>
-    <mergeCell ref="CA94:CB94"/>
-    <mergeCell ref="CF94:CG94"/>
-    <mergeCell ref="BG95:BH95"/>
-    <mergeCell ref="BJ95:BK95"/>
-    <mergeCell ref="BM95:BN95"/>
-    <mergeCell ref="BP95:BQ95"/>
-    <mergeCell ref="BW95:BX95"/>
-    <mergeCell ref="BY95:BZ95"/>
-    <mergeCell ref="CA95:CB95"/>
-    <mergeCell ref="CF95:CG95"/>
-    <mergeCell ref="BW93:BX93"/>
-    <mergeCell ref="BY93:BZ93"/>
-    <mergeCell ref="BG94:BH94"/>
-    <mergeCell ref="BJ94:BK94"/>
-    <mergeCell ref="BM94:BN94"/>
-    <mergeCell ref="BP94:BQ94"/>
-    <mergeCell ref="BW94:BX94"/>
-    <mergeCell ref="BY94:BZ94"/>
-    <mergeCell ref="BM92:BN92"/>
-    <mergeCell ref="BP92:BQ92"/>
-    <mergeCell ref="BW92:BX92"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="AP93:AQ93"/>
-    <mergeCell ref="AS93:AT93"/>
-    <mergeCell ref="BG93:BH93"/>
-    <mergeCell ref="BJ93:BK93"/>
-    <mergeCell ref="BM93:BN93"/>
-    <mergeCell ref="BP93:BQ93"/>
-    <mergeCell ref="BP90:BQ90"/>
-    <mergeCell ref="BW90:BX90"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="AJ91:AK91"/>
-    <mergeCell ref="AP91:AQ91"/>
-    <mergeCell ref="Y92:Z92"/>
-    <mergeCell ref="AP92:AQ92"/>
-    <mergeCell ref="AS92:AT92"/>
-    <mergeCell ref="BG92:BH92"/>
-    <mergeCell ref="BJ92:BK92"/>
-    <mergeCell ref="BM89:BN89"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="AF90:AG90"/>
-    <mergeCell ref="AP90:AQ90"/>
-    <mergeCell ref="AS90:AT90"/>
-    <mergeCell ref="BG90:BH90"/>
-    <mergeCell ref="BJ90:BK90"/>
-    <mergeCell ref="BM90:BN90"/>
-    <mergeCell ref="Y89:Z89"/>
-    <mergeCell ref="AF89:AG89"/>
-    <mergeCell ref="AP89:AQ89"/>
-    <mergeCell ref="AS89:AT89"/>
-    <mergeCell ref="BG89:BH89"/>
-    <mergeCell ref="BJ89:BK89"/>
-    <mergeCell ref="BY87:BZ87"/>
-    <mergeCell ref="CA87:CB87"/>
-    <mergeCell ref="Y88:Z88"/>
-    <mergeCell ref="AF88:AG88"/>
-    <mergeCell ref="AJ88:AK88"/>
-    <mergeCell ref="AP88:AQ88"/>
-    <mergeCell ref="BG86:BH86"/>
-    <mergeCell ref="BJ86:BK86"/>
-    <mergeCell ref="BG87:BH87"/>
-    <mergeCell ref="BM87:BN87"/>
-    <mergeCell ref="BP87:BQ87"/>
-    <mergeCell ref="BW87:BX87"/>
-    <mergeCell ref="Y83:Z83"/>
-    <mergeCell ref="AJ83:AK83"/>
-    <mergeCell ref="AP83:AQ83"/>
-    <mergeCell ref="BG83:BH83"/>
-    <mergeCell ref="BJ83:BK83"/>
-    <mergeCell ref="BG85:BH85"/>
-    <mergeCell ref="BJ85:BK85"/>
-    <mergeCell ref="BM79:BN79"/>
-    <mergeCell ref="BP79:BQ79"/>
-    <mergeCell ref="BW79:BX79"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AL81:AM81"/>
-    <mergeCell ref="AT81:AU81"/>
-    <mergeCell ref="BE81:BF81"/>
-    <mergeCell ref="BG81:BH81"/>
-    <mergeCell ref="BJ81:BK81"/>
-    <mergeCell ref="AL78:AM78"/>
-    <mergeCell ref="AT78:AU78"/>
-    <mergeCell ref="BE78:BF78"/>
-    <mergeCell ref="BG78:BH78"/>
-    <mergeCell ref="BJ78:BK78"/>
-    <mergeCell ref="AL79:AM79"/>
-    <mergeCell ref="AT79:AU79"/>
-    <mergeCell ref="BE79:BF79"/>
-    <mergeCell ref="BG79:BH79"/>
-    <mergeCell ref="BJ79:BK79"/>
-    <mergeCell ref="BG76:BH76"/>
-    <mergeCell ref="BJ76:BK76"/>
-    <mergeCell ref="BM76:BN76"/>
-    <mergeCell ref="BP76:BQ76"/>
-    <mergeCell ref="BW76:BX76"/>
-    <mergeCell ref="BY76:BZ76"/>
-    <mergeCell ref="AS75:AT75"/>
-    <mergeCell ref="AJ76:AK76"/>
-    <mergeCell ref="AL76:AM76"/>
-    <mergeCell ref="AP76:AQ76"/>
-    <mergeCell ref="AS76:AT76"/>
-    <mergeCell ref="BE76:BF76"/>
-    <mergeCell ref="AJ74:AK74"/>
-    <mergeCell ref="AL74:AM74"/>
-    <mergeCell ref="AP74:AQ74"/>
-    <mergeCell ref="AJ75:AK75"/>
-    <mergeCell ref="AL75:AM75"/>
-    <mergeCell ref="AP75:AQ75"/>
-    <mergeCell ref="BW70:BX70"/>
-    <mergeCell ref="BY70:BZ70"/>
-    <mergeCell ref="CA70:CB70"/>
-    <mergeCell ref="AF72:AG72"/>
-    <mergeCell ref="AJ72:AK72"/>
-    <mergeCell ref="AF73:AG73"/>
-    <mergeCell ref="AJ73:AK73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AP73:AQ73"/>
-    <mergeCell ref="AL69:AM69"/>
-    <mergeCell ref="AL70:AM70"/>
-    <mergeCell ref="BE70:BF70"/>
-    <mergeCell ref="BG70:BH70"/>
-    <mergeCell ref="BM70:BN70"/>
-    <mergeCell ref="BP70:BQ70"/>
-    <mergeCell ref="AR60:AS60"/>
-    <mergeCell ref="AR62:AS62"/>
-    <mergeCell ref="AR63:AS63"/>
-    <mergeCell ref="BA63:BB63"/>
-    <mergeCell ref="BH65:BI65"/>
-    <mergeCell ref="AL68:AM68"/>
-    <mergeCell ref="BE68:BF68"/>
-    <mergeCell ref="BG68:BH68"/>
-    <mergeCell ref="BC57:BD57"/>
-    <mergeCell ref="AW58:AX58"/>
-    <mergeCell ref="AZ58:BA58"/>
-    <mergeCell ref="AW59:AX59"/>
-    <mergeCell ref="AZ59:BA59"/>
-    <mergeCell ref="BH59:BI59"/>
-    <mergeCell ref="AR56:AS56"/>
-    <mergeCell ref="AW56:AX56"/>
-    <mergeCell ref="AZ56:BA56"/>
-    <mergeCell ref="AR57:AS57"/>
-    <mergeCell ref="AW57:AX57"/>
-    <mergeCell ref="AZ57:BA57"/>
-    <mergeCell ref="BM47:BN47"/>
-    <mergeCell ref="BO47:BP47"/>
-    <mergeCell ref="AR54:AS54"/>
-    <mergeCell ref="AW54:AX54"/>
-    <mergeCell ref="AW55:AX55"/>
-    <mergeCell ref="BH55:BI55"/>
-    <mergeCell ref="BQ43:BR43"/>
-    <mergeCell ref="BO44:BP44"/>
-    <mergeCell ref="BO45:BP45"/>
-    <mergeCell ref="BQ45:BR45"/>
-    <mergeCell ref="BM46:BN46"/>
-    <mergeCell ref="BO46:BP46"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="BO43:BP43"/>
-    <mergeCell ref="CM38:CN38"/>
-    <mergeCell ref="CS38:CT38"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AH39:AI39"/>
-    <mergeCell ref="BO39:BP39"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="CM36:CN36"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="BO37:BP37"/>
-    <mergeCell ref="BS37:BT37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="BO38:BP38"/>
-    <mergeCell ref="BS38:BT38"/>
-    <mergeCell ref="CE38:CF38"/>
-    <mergeCell ref="CI38:CJ38"/>
-    <mergeCell ref="CI35:CJ35"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="CB36:CC36"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CI36:CJ36"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="CD33:CE33"/>
-    <mergeCell ref="CS33:CT33"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="BO35:BP35"/>
-    <mergeCell ref="BS35:BT35"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CE35:CF35"/>
-    <mergeCell ref="CK31:CL31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="BO32:BP32"/>
-    <mergeCell ref="BU32:BV32"/>
-    <mergeCell ref="CE32:CF32"/>
-    <mergeCell ref="CS32:CT32"/>
-    <mergeCell ref="CI30:CJ30"/>
-    <mergeCell ref="BG31:BH31"/>
-    <mergeCell ref="BJ31:BK31"/>
-    <mergeCell ref="BM31:BN31"/>
-    <mergeCell ref="BP31:BQ31"/>
-    <mergeCell ref="BT31:BU31"/>
-    <mergeCell ref="BW31:BX31"/>
-    <mergeCell ref="BY31:BZ31"/>
-    <mergeCell ref="CI31:CJ31"/>
-    <mergeCell ref="BY29:BZ29"/>
-    <mergeCell ref="BG30:BH30"/>
-    <mergeCell ref="BJ30:BK30"/>
-    <mergeCell ref="BM30:BN30"/>
-    <mergeCell ref="BP30:BQ30"/>
-    <mergeCell ref="BT30:BU30"/>
-    <mergeCell ref="BW30:BX30"/>
-    <mergeCell ref="BY30:BZ30"/>
-    <mergeCell ref="BT28:BU28"/>
-    <mergeCell ref="BW28:BX28"/>
-    <mergeCell ref="BG29:BH29"/>
-    <mergeCell ref="BJ29:BK29"/>
-    <mergeCell ref="BM29:BN29"/>
-    <mergeCell ref="BP29:BQ29"/>
-    <mergeCell ref="BT29:BU29"/>
-    <mergeCell ref="BW29:BX29"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AP28:AQ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BJ28:BK28"/>
-    <mergeCell ref="BM28:BN28"/>
-    <mergeCell ref="BP28:BQ28"/>
-    <mergeCell ref="BM23:BN23"/>
-    <mergeCell ref="BP23:BQ23"/>
-    <mergeCell ref="BT23:BU23"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="BG26:BH26"/>
-    <mergeCell ref="BJ26:BK26"/>
-    <mergeCell ref="BM26:BN26"/>
-    <mergeCell ref="BP26:BQ26"/>
-    <mergeCell ref="BT26:BU26"/>
-    <mergeCell ref="BG22:BH22"/>
-    <mergeCell ref="BK22:BL22"/>
-    <mergeCell ref="BM22:BN22"/>
-    <mergeCell ref="BP22:BQ22"/>
-    <mergeCell ref="BT22:BU22"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="BG23:BH23"/>
-    <mergeCell ref="BJ23:BK23"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="BG21:BH21"/>
-    <mergeCell ref="BJ21:BK21"/>
-    <mergeCell ref="BM21:BN21"/>
-    <mergeCell ref="BP21:BQ21"/>
-    <mergeCell ref="BT21:BU21"/>
-    <mergeCell ref="CK19:CL19"/>
-    <mergeCell ref="CM19:CN19"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="BG20:BH20"/>
-    <mergeCell ref="BK20:BL20"/>
-    <mergeCell ref="BM20:BN20"/>
-    <mergeCell ref="BJ19:BK19"/>
-    <mergeCell ref="BM19:BN19"/>
-    <mergeCell ref="BP19:BQ19"/>
-    <mergeCell ref="BW19:BX19"/>
-    <mergeCell ref="BY19:BZ19"/>
-    <mergeCell ref="CI19:CJ19"/>
-    <mergeCell ref="BM18:BN18"/>
-    <mergeCell ref="BP18:BQ18"/>
-    <mergeCell ref="BW18:BX18"/>
-    <mergeCell ref="BY18:BZ18"/>
-    <mergeCell ref="CI18:CJ18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="AL19:AM19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="BE19:BF19"/>
-    <mergeCell ref="BG19:BH19"/>
-    <mergeCell ref="BY16:BZ16"/>
-    <mergeCell ref="CI16:CJ16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="AL17:AM17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="BE18:BF18"/>
-    <mergeCell ref="BG18:BH18"/>
-    <mergeCell ref="BJ18:BK18"/>
-    <mergeCell ref="BE16:BF16"/>
-    <mergeCell ref="BG16:BH16"/>
-    <mergeCell ref="BJ16:BK16"/>
-    <mergeCell ref="BM16:BN16"/>
-    <mergeCell ref="BP16:BQ16"/>
-    <mergeCell ref="BW16:BX16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AL16:AM16"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="BK13:BL13"/>
-    <mergeCell ref="BM13:BN13"/>
-    <mergeCell ref="BP13:BQ13"/>
-    <mergeCell ref="BW13:BX13"/>
-    <mergeCell ref="BY13:BZ13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AL14:AM14"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="BE13:BF13"/>
-    <mergeCell ref="BG13:BH13"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="BQ7:BR7"/>
+    <mergeCell ref="BS7:BT7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="BW10:BX10"/>
     <mergeCell ref="BY10:BZ10"/>
     <mergeCell ref="CJ10:CK10"/>
@@ -74693,44 +72818,1918 @@
     <mergeCell ref="BK7:BL7"/>
     <mergeCell ref="BM7:BN7"/>
     <mergeCell ref="BO7:BP7"/>
-    <mergeCell ref="BQ7:BR7"/>
-    <mergeCell ref="BS7:BT7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="BK13:BL13"/>
+    <mergeCell ref="BM13:BN13"/>
+    <mergeCell ref="BP13:BQ13"/>
+    <mergeCell ref="BW13:BX13"/>
+    <mergeCell ref="BY13:BZ13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="BE13:BF13"/>
+    <mergeCell ref="BG13:BH13"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="BM18:BN18"/>
+    <mergeCell ref="BP18:BQ18"/>
+    <mergeCell ref="BW18:BX18"/>
+    <mergeCell ref="BY18:BZ18"/>
+    <mergeCell ref="CI18:CJ18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="AL19:AM19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="BE19:BF19"/>
+    <mergeCell ref="BG19:BH19"/>
+    <mergeCell ref="BY16:BZ16"/>
+    <mergeCell ref="CI16:CJ16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="BE18:BF18"/>
+    <mergeCell ref="BG18:BH18"/>
+    <mergeCell ref="BJ18:BK18"/>
+    <mergeCell ref="BE16:BF16"/>
+    <mergeCell ref="BG16:BH16"/>
+    <mergeCell ref="BJ16:BK16"/>
+    <mergeCell ref="BM16:BN16"/>
+    <mergeCell ref="BP16:BQ16"/>
+    <mergeCell ref="BW16:BX16"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="BG21:BH21"/>
+    <mergeCell ref="BJ21:BK21"/>
+    <mergeCell ref="BM21:BN21"/>
+    <mergeCell ref="BP21:BQ21"/>
+    <mergeCell ref="BT21:BU21"/>
+    <mergeCell ref="CK19:CL19"/>
+    <mergeCell ref="CM19:CN19"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="BG20:BH20"/>
+    <mergeCell ref="BK20:BL20"/>
+    <mergeCell ref="BM20:BN20"/>
+    <mergeCell ref="BJ19:BK19"/>
+    <mergeCell ref="BM19:BN19"/>
+    <mergeCell ref="BP19:BQ19"/>
+    <mergeCell ref="BW19:BX19"/>
+    <mergeCell ref="BY19:BZ19"/>
+    <mergeCell ref="CI19:CJ19"/>
+    <mergeCell ref="BM23:BN23"/>
+    <mergeCell ref="BP23:BQ23"/>
+    <mergeCell ref="BT23:BU23"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="BG26:BH26"/>
+    <mergeCell ref="BJ26:BK26"/>
+    <mergeCell ref="BM26:BN26"/>
+    <mergeCell ref="BP26:BQ26"/>
+    <mergeCell ref="BT26:BU26"/>
+    <mergeCell ref="BG22:BH22"/>
+    <mergeCell ref="BK22:BL22"/>
+    <mergeCell ref="BM22:BN22"/>
+    <mergeCell ref="BP22:BQ22"/>
+    <mergeCell ref="BT22:BU22"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="BG23:BH23"/>
+    <mergeCell ref="BJ23:BK23"/>
+    <mergeCell ref="BY29:BZ29"/>
+    <mergeCell ref="BG30:BH30"/>
+    <mergeCell ref="BJ30:BK30"/>
+    <mergeCell ref="BM30:BN30"/>
+    <mergeCell ref="BP30:BQ30"/>
+    <mergeCell ref="BT30:BU30"/>
+    <mergeCell ref="BW30:BX30"/>
+    <mergeCell ref="BY30:BZ30"/>
+    <mergeCell ref="BT28:BU28"/>
+    <mergeCell ref="BW28:BX28"/>
+    <mergeCell ref="BG29:BH29"/>
+    <mergeCell ref="BJ29:BK29"/>
+    <mergeCell ref="BM29:BN29"/>
+    <mergeCell ref="BP29:BQ29"/>
+    <mergeCell ref="BT29:BU29"/>
+    <mergeCell ref="BW29:BX29"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AP28:AQ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BJ28:BK28"/>
+    <mergeCell ref="BM28:BN28"/>
+    <mergeCell ref="BP28:BQ28"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="CD33:CE33"/>
+    <mergeCell ref="CS33:CT33"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="BO35:BP35"/>
+    <mergeCell ref="BS35:BT35"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CE35:CF35"/>
+    <mergeCell ref="CK31:CL31"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="BO32:BP32"/>
+    <mergeCell ref="BU32:BV32"/>
+    <mergeCell ref="CE32:CF32"/>
+    <mergeCell ref="CS32:CT32"/>
+    <mergeCell ref="CI30:CJ30"/>
+    <mergeCell ref="BG31:BH31"/>
+    <mergeCell ref="BJ31:BK31"/>
+    <mergeCell ref="BM31:BN31"/>
+    <mergeCell ref="BP31:BQ31"/>
+    <mergeCell ref="BT31:BU31"/>
+    <mergeCell ref="BW31:BX31"/>
+    <mergeCell ref="BY31:BZ31"/>
+    <mergeCell ref="CI31:CJ31"/>
+    <mergeCell ref="CM36:CN36"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="BO37:BP37"/>
+    <mergeCell ref="BS37:BT37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="BO38:BP38"/>
+    <mergeCell ref="BS38:BT38"/>
+    <mergeCell ref="CE38:CF38"/>
+    <mergeCell ref="CI38:CJ38"/>
+    <mergeCell ref="CI35:CJ35"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="CB36:CC36"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CI36:CJ36"/>
+    <mergeCell ref="BQ43:BR43"/>
+    <mergeCell ref="BO44:BP44"/>
+    <mergeCell ref="BO45:BP45"/>
+    <mergeCell ref="BQ45:BR45"/>
+    <mergeCell ref="BM46:BN46"/>
+    <mergeCell ref="BO46:BP46"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="BO43:BP43"/>
+    <mergeCell ref="CM38:CN38"/>
+    <mergeCell ref="CS38:CT38"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="BO39:BP39"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="BC57:BD57"/>
+    <mergeCell ref="AW58:AX58"/>
+    <mergeCell ref="AZ58:BA58"/>
+    <mergeCell ref="AW59:AX59"/>
+    <mergeCell ref="AZ59:BA59"/>
+    <mergeCell ref="BH59:BI59"/>
+    <mergeCell ref="AR56:AS56"/>
+    <mergeCell ref="AW56:AX56"/>
+    <mergeCell ref="AZ56:BA56"/>
+    <mergeCell ref="AR57:AS57"/>
+    <mergeCell ref="AW57:AX57"/>
+    <mergeCell ref="AZ57:BA57"/>
+    <mergeCell ref="BM47:BN47"/>
+    <mergeCell ref="BO47:BP47"/>
+    <mergeCell ref="AR54:AS54"/>
+    <mergeCell ref="AW54:AX54"/>
+    <mergeCell ref="AW55:AX55"/>
+    <mergeCell ref="BH55:BI55"/>
+    <mergeCell ref="BW70:BX70"/>
+    <mergeCell ref="BY70:BZ70"/>
+    <mergeCell ref="CA70:CB70"/>
+    <mergeCell ref="AF72:AG72"/>
+    <mergeCell ref="AJ72:AK72"/>
+    <mergeCell ref="AF73:AG73"/>
+    <mergeCell ref="AJ73:AK73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AP73:AQ73"/>
+    <mergeCell ref="AL69:AM69"/>
+    <mergeCell ref="AL70:AM70"/>
+    <mergeCell ref="BE70:BF70"/>
+    <mergeCell ref="BG70:BH70"/>
+    <mergeCell ref="BM70:BN70"/>
+    <mergeCell ref="BP70:BQ70"/>
+    <mergeCell ref="AR60:AS60"/>
+    <mergeCell ref="AR62:AS62"/>
+    <mergeCell ref="AR63:AS63"/>
+    <mergeCell ref="BA63:BB63"/>
+    <mergeCell ref="BH65:BI65"/>
+    <mergeCell ref="AL68:AM68"/>
+    <mergeCell ref="BE68:BF68"/>
+    <mergeCell ref="BG68:BH68"/>
+    <mergeCell ref="BG76:BH76"/>
+    <mergeCell ref="BJ76:BK76"/>
+    <mergeCell ref="BM76:BN76"/>
+    <mergeCell ref="BP76:BQ76"/>
+    <mergeCell ref="BW76:BX76"/>
+    <mergeCell ref="BY76:BZ76"/>
+    <mergeCell ref="AS75:AT75"/>
+    <mergeCell ref="AJ76:AK76"/>
+    <mergeCell ref="AL76:AM76"/>
+    <mergeCell ref="AP76:AQ76"/>
+    <mergeCell ref="AS76:AT76"/>
+    <mergeCell ref="BE76:BF76"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AL74:AM74"/>
+    <mergeCell ref="AP74:AQ74"/>
+    <mergeCell ref="AJ75:AK75"/>
+    <mergeCell ref="AL75:AM75"/>
+    <mergeCell ref="AP75:AQ75"/>
+    <mergeCell ref="BM79:BN79"/>
+    <mergeCell ref="BP79:BQ79"/>
+    <mergeCell ref="BW79:BX79"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AL81:AM81"/>
+    <mergeCell ref="AT81:AU81"/>
+    <mergeCell ref="BE81:BF81"/>
+    <mergeCell ref="BG81:BH81"/>
+    <mergeCell ref="BJ81:BK81"/>
+    <mergeCell ref="AL78:AM78"/>
+    <mergeCell ref="AT78:AU78"/>
+    <mergeCell ref="BE78:BF78"/>
+    <mergeCell ref="BG78:BH78"/>
+    <mergeCell ref="BJ78:BK78"/>
+    <mergeCell ref="AL79:AM79"/>
+    <mergeCell ref="AT79:AU79"/>
+    <mergeCell ref="BE79:BF79"/>
+    <mergeCell ref="BG79:BH79"/>
+    <mergeCell ref="BJ79:BK79"/>
+    <mergeCell ref="BY87:BZ87"/>
+    <mergeCell ref="CA87:CB87"/>
+    <mergeCell ref="Y88:Z88"/>
+    <mergeCell ref="AF88:AG88"/>
+    <mergeCell ref="AJ88:AK88"/>
+    <mergeCell ref="AP88:AQ88"/>
+    <mergeCell ref="BG86:BH86"/>
+    <mergeCell ref="BJ86:BK86"/>
+    <mergeCell ref="BG87:BH87"/>
+    <mergeCell ref="BM87:BN87"/>
+    <mergeCell ref="BP87:BQ87"/>
+    <mergeCell ref="BW87:BX87"/>
+    <mergeCell ref="Y83:Z83"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AP83:AQ83"/>
+    <mergeCell ref="BG83:BH83"/>
+    <mergeCell ref="BJ83:BK83"/>
+    <mergeCell ref="BG85:BH85"/>
+    <mergeCell ref="BJ85:BK85"/>
+    <mergeCell ref="BP90:BQ90"/>
+    <mergeCell ref="BW90:BX90"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="AJ91:AK91"/>
+    <mergeCell ref="AP91:AQ91"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="AP92:AQ92"/>
+    <mergeCell ref="AS92:AT92"/>
+    <mergeCell ref="BG92:BH92"/>
+    <mergeCell ref="BJ92:BK92"/>
+    <mergeCell ref="BM89:BN89"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="AF90:AG90"/>
+    <mergeCell ref="AP90:AQ90"/>
+    <mergeCell ref="AS90:AT90"/>
+    <mergeCell ref="BG90:BH90"/>
+    <mergeCell ref="BJ90:BK90"/>
+    <mergeCell ref="BM90:BN90"/>
+    <mergeCell ref="Y89:Z89"/>
+    <mergeCell ref="AF89:AG89"/>
+    <mergeCell ref="AP89:AQ89"/>
+    <mergeCell ref="AS89:AT89"/>
+    <mergeCell ref="BG89:BH89"/>
+    <mergeCell ref="BJ89:BK89"/>
+    <mergeCell ref="BW93:BX93"/>
+    <mergeCell ref="BY93:BZ93"/>
+    <mergeCell ref="BG94:BH94"/>
+    <mergeCell ref="BJ94:BK94"/>
+    <mergeCell ref="BM94:BN94"/>
+    <mergeCell ref="BP94:BQ94"/>
+    <mergeCell ref="BW94:BX94"/>
+    <mergeCell ref="BY94:BZ94"/>
+    <mergeCell ref="BM92:BN92"/>
+    <mergeCell ref="BP92:BQ92"/>
+    <mergeCell ref="BW92:BX92"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="AP93:AQ93"/>
+    <mergeCell ref="AS93:AT93"/>
+    <mergeCell ref="BG93:BH93"/>
+    <mergeCell ref="BJ93:BK93"/>
+    <mergeCell ref="BM93:BN93"/>
+    <mergeCell ref="BP93:BQ93"/>
+    <mergeCell ref="CH95:CI95"/>
+    <mergeCell ref="BG96:BH96"/>
+    <mergeCell ref="BJ96:BK96"/>
+    <mergeCell ref="BM96:BN96"/>
+    <mergeCell ref="BP96:BQ96"/>
+    <mergeCell ref="BW96:BX96"/>
+    <mergeCell ref="BY96:BZ96"/>
+    <mergeCell ref="CA96:CB96"/>
+    <mergeCell ref="CA94:CB94"/>
+    <mergeCell ref="CF94:CG94"/>
+    <mergeCell ref="BG95:BH95"/>
+    <mergeCell ref="BJ95:BK95"/>
+    <mergeCell ref="BM95:BN95"/>
+    <mergeCell ref="BP95:BQ95"/>
+    <mergeCell ref="BW95:BX95"/>
+    <mergeCell ref="BY95:BZ95"/>
+    <mergeCell ref="CA95:CB95"/>
+    <mergeCell ref="CF95:CG95"/>
+    <mergeCell ref="AB102:AC102"/>
+    <mergeCell ref="BG102:BH102"/>
+    <mergeCell ref="BO102:BP102"/>
+    <mergeCell ref="AB103:AC103"/>
+    <mergeCell ref="BG103:BH103"/>
+    <mergeCell ref="BO103:BP103"/>
+    <mergeCell ref="BW98:BX98"/>
+    <mergeCell ref="BY98:BZ98"/>
+    <mergeCell ref="CA98:CB98"/>
+    <mergeCell ref="AB100:AC100"/>
+    <mergeCell ref="AB101:AC101"/>
+    <mergeCell ref="BG101:BH101"/>
+    <mergeCell ref="BG97:BH97"/>
+    <mergeCell ref="BJ97:BK97"/>
+    <mergeCell ref="BG98:BH98"/>
+    <mergeCell ref="BJ98:BK98"/>
+    <mergeCell ref="BM98:BN98"/>
+    <mergeCell ref="BP98:BQ98"/>
+    <mergeCell ref="AH109:AI109"/>
+    <mergeCell ref="BF109:BG109"/>
+    <mergeCell ref="BO109:BP109"/>
+    <mergeCell ref="AH110:AI110"/>
+    <mergeCell ref="BF110:BG110"/>
+    <mergeCell ref="BO110:BP110"/>
+    <mergeCell ref="BS107:BT107"/>
+    <mergeCell ref="CA107:CB107"/>
+    <mergeCell ref="CE107:CF107"/>
+    <mergeCell ref="CI107:CJ107"/>
+    <mergeCell ref="CM107:CN107"/>
+    <mergeCell ref="AH108:AI108"/>
+    <mergeCell ref="BF108:BG108"/>
+    <mergeCell ref="BO108:BP108"/>
+    <mergeCell ref="BS108:BT108"/>
+    <mergeCell ref="CA108:CB108"/>
+    <mergeCell ref="AB104:AC104"/>
+    <mergeCell ref="BG104:BH104"/>
+    <mergeCell ref="AH106:AI106"/>
+    <mergeCell ref="BF106:BG106"/>
+    <mergeCell ref="BO106:BP106"/>
+    <mergeCell ref="AH107:AI107"/>
+    <mergeCell ref="BF107:BG107"/>
+    <mergeCell ref="BO107:BP107"/>
+    <mergeCell ref="BF113:BG113"/>
+    <mergeCell ref="BO113:BP113"/>
+    <mergeCell ref="CB113:CC113"/>
+    <mergeCell ref="CE113:CF113"/>
+    <mergeCell ref="CI113:CJ113"/>
+    <mergeCell ref="CM113:CN113"/>
+    <mergeCell ref="CE111:CF111"/>
+    <mergeCell ref="CI111:CJ111"/>
+    <mergeCell ref="CM111:CN111"/>
+    <mergeCell ref="AH112:AI112"/>
+    <mergeCell ref="BF112:BG112"/>
+    <mergeCell ref="BO112:BP112"/>
+    <mergeCell ref="CB112:CC112"/>
+    <mergeCell ref="CE112:CF112"/>
+    <mergeCell ref="CI112:CJ112"/>
+    <mergeCell ref="CM112:CN112"/>
+    <mergeCell ref="BS110:BT110"/>
+    <mergeCell ref="CA110:CB110"/>
+    <mergeCell ref="AH111:AI111"/>
+    <mergeCell ref="BF111:BG111"/>
+    <mergeCell ref="BO111:BP111"/>
+    <mergeCell ref="BS111:BT111"/>
+    <mergeCell ref="CA111:CB111"/>
+    <mergeCell ref="CM116:CN116"/>
+    <mergeCell ref="BF117:BG117"/>
+    <mergeCell ref="BO117:BP117"/>
+    <mergeCell ref="CB117:CC117"/>
+    <mergeCell ref="CE117:CF117"/>
+    <mergeCell ref="CI117:CJ117"/>
+    <mergeCell ref="CM117:CN117"/>
+    <mergeCell ref="CQ114:CR114"/>
+    <mergeCell ref="CS114:CT114"/>
+    <mergeCell ref="BF115:BG115"/>
+    <mergeCell ref="BO115:BP115"/>
+    <mergeCell ref="CB115:CC115"/>
+    <mergeCell ref="BF116:BG116"/>
+    <mergeCell ref="BO116:BP116"/>
+    <mergeCell ref="CB116:CC116"/>
+    <mergeCell ref="CE116:CF116"/>
+    <mergeCell ref="CI116:CJ116"/>
+    <mergeCell ref="BF114:BG114"/>
+    <mergeCell ref="BO114:BP114"/>
+    <mergeCell ref="CB114:CC114"/>
+    <mergeCell ref="CE114:CF114"/>
+    <mergeCell ref="CI114:CJ114"/>
+    <mergeCell ref="CM114:CN114"/>
+    <mergeCell ref="AB123:AC123"/>
+    <mergeCell ref="AH124:AI124"/>
+    <mergeCell ref="AH125:AI125"/>
+    <mergeCell ref="AM125:AN125"/>
+    <mergeCell ref="BF125:BG125"/>
+    <mergeCell ref="AH126:AI126"/>
+    <mergeCell ref="AM126:AN126"/>
+    <mergeCell ref="BF126:BG126"/>
+    <mergeCell ref="BF118:BG118"/>
+    <mergeCell ref="AB121:AC121"/>
+    <mergeCell ref="AH121:AI121"/>
+    <mergeCell ref="BG121:BH121"/>
+    <mergeCell ref="BO121:BP121"/>
+    <mergeCell ref="AB122:AC122"/>
+    <mergeCell ref="AH122:AI122"/>
+    <mergeCell ref="BG122:BH122"/>
+    <mergeCell ref="BO122:BP122"/>
+    <mergeCell ref="AH130:AI130"/>
+    <mergeCell ref="AM130:AN130"/>
+    <mergeCell ref="BF130:BG130"/>
+    <mergeCell ref="BO130:BP130"/>
+    <mergeCell ref="BQ130:BR130"/>
+    <mergeCell ref="AH128:AI128"/>
+    <mergeCell ref="AM128:AN128"/>
+    <mergeCell ref="BF128:BG128"/>
+    <mergeCell ref="AH129:AI129"/>
+    <mergeCell ref="AM129:AN129"/>
+    <mergeCell ref="BF129:BG129"/>
+    <mergeCell ref="BO126:BP126"/>
+    <mergeCell ref="AH127:AI127"/>
+    <mergeCell ref="AM127:AN127"/>
+    <mergeCell ref="BF127:BG127"/>
+    <mergeCell ref="BO127:BP127"/>
+    <mergeCell ref="BS127:BT127"/>
+    <mergeCell ref="CE132:CF132"/>
+    <mergeCell ref="CI132:CJ132"/>
+    <mergeCell ref="CM132:CN132"/>
+    <mergeCell ref="BF133:BG133"/>
+    <mergeCell ref="BO133:BP133"/>
+    <mergeCell ref="BQ133:BR133"/>
+    <mergeCell ref="CE133:CF133"/>
+    <mergeCell ref="CI133:CJ133"/>
+    <mergeCell ref="BS130:BT130"/>
+    <mergeCell ref="CA130:CB130"/>
+    <mergeCell ref="BF131:BG131"/>
+    <mergeCell ref="BO131:BP131"/>
+    <mergeCell ref="BQ131:BR131"/>
+    <mergeCell ref="BF132:BG132"/>
+    <mergeCell ref="BO132:BP132"/>
+    <mergeCell ref="BQ132:BR132"/>
+    <mergeCell ref="BO129:BP129"/>
+    <mergeCell ref="BQ129:BR129"/>
+    <mergeCell ref="CM136:CN136"/>
+    <mergeCell ref="AX140:AY140"/>
+    <mergeCell ref="BJ140:BK140"/>
+    <mergeCell ref="AX141:AY141"/>
+    <mergeCell ref="BL141:BM141"/>
+    <mergeCell ref="BO141:BP141"/>
+    <mergeCell ref="BW141:BX141"/>
+    <mergeCell ref="CE135:CF135"/>
+    <mergeCell ref="CI135:CJ135"/>
+    <mergeCell ref="BF136:BG136"/>
+    <mergeCell ref="BO136:BP136"/>
+    <mergeCell ref="BQ136:BR136"/>
+    <mergeCell ref="CE136:CF136"/>
+    <mergeCell ref="CI136:CJ136"/>
+    <mergeCell ref="BF134:BG134"/>
+    <mergeCell ref="BO134:BP134"/>
+    <mergeCell ref="BQ134:BR134"/>
+    <mergeCell ref="BF135:BG135"/>
+    <mergeCell ref="BO135:BP135"/>
+    <mergeCell ref="BQ135:BR135"/>
+    <mergeCell ref="AX149:AY149"/>
+    <mergeCell ref="BJ149:BK149"/>
+    <mergeCell ref="BL149:BM149"/>
+    <mergeCell ref="BO149:BP149"/>
+    <mergeCell ref="BV149:BW149"/>
+    <mergeCell ref="BX149:BY149"/>
+    <mergeCell ref="AX147:AY147"/>
+    <mergeCell ref="BL147:BM147"/>
+    <mergeCell ref="BO147:BP147"/>
+    <mergeCell ref="BV147:BW147"/>
+    <mergeCell ref="BX147:BY147"/>
+    <mergeCell ref="AX148:AY148"/>
+    <mergeCell ref="BJ148:BK148"/>
+    <mergeCell ref="AX142:AY142"/>
+    <mergeCell ref="BL142:BM142"/>
+    <mergeCell ref="BW142:BX142"/>
+    <mergeCell ref="AX144:AY144"/>
+    <mergeCell ref="BJ144:BK144"/>
+    <mergeCell ref="AX145:AY145"/>
+    <mergeCell ref="BJ145:BK145"/>
+    <mergeCell ref="BL145:BM145"/>
+    <mergeCell ref="BO145:BP145"/>
+    <mergeCell ref="BV145:BW145"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="AI153:AJ153"/>
+    <mergeCell ref="CL150:CM150"/>
+    <mergeCell ref="AX151:AY151"/>
+    <mergeCell ref="BL151:BM151"/>
+    <mergeCell ref="BO151:BP151"/>
+    <mergeCell ref="BV151:BW151"/>
+    <mergeCell ref="BX151:BY151"/>
+    <mergeCell ref="CJ151:CK151"/>
+    <mergeCell ref="CL151:CM151"/>
+    <mergeCell ref="AX150:AY150"/>
+    <mergeCell ref="BL150:BM150"/>
+    <mergeCell ref="BO150:BP150"/>
+    <mergeCell ref="BV150:BW150"/>
+    <mergeCell ref="BX150:BY150"/>
+    <mergeCell ref="CJ150:CK150"/>
+    <mergeCell ref="BM155:BN155"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="X156:Y156"/>
+    <mergeCell ref="AI156:AJ156"/>
+    <mergeCell ref="AU156:AV156"/>
+    <mergeCell ref="AY156:AZ156"/>
+    <mergeCell ref="BJ156:BK156"/>
+    <mergeCell ref="BM156:BN156"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="X155:Y155"/>
+    <mergeCell ref="AI155:AJ155"/>
+    <mergeCell ref="AU155:AV155"/>
+    <mergeCell ref="AY155:AZ155"/>
+    <mergeCell ref="BK155:BL155"/>
+    <mergeCell ref="CS151:CT151"/>
+    <mergeCell ref="AX152:AY152"/>
+    <mergeCell ref="BL152:BM152"/>
+    <mergeCell ref="BV152:BW152"/>
+    <mergeCell ref="BM159:BN159"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="X160:Y160"/>
+    <mergeCell ref="AI160:AJ160"/>
+    <mergeCell ref="AS160:AT160"/>
+    <mergeCell ref="AU160:AV160"/>
+    <mergeCell ref="AY160:AZ160"/>
+    <mergeCell ref="AY158:AZ158"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="AI159:AJ159"/>
+    <mergeCell ref="AU159:AV159"/>
+    <mergeCell ref="AY159:AZ159"/>
+    <mergeCell ref="BK159:BL159"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="X157:Y157"/>
+    <mergeCell ref="AI157:AJ157"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="AI158:AJ158"/>
+    <mergeCell ref="AU158:AV158"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="X164:Y164"/>
+    <mergeCell ref="AI164:AJ164"/>
+    <mergeCell ref="AU164:AV164"/>
+    <mergeCell ref="AY164:AZ164"/>
+    <mergeCell ref="Q165:R165"/>
+    <mergeCell ref="AI165:AJ165"/>
+    <mergeCell ref="AU165:AV165"/>
+    <mergeCell ref="AY165:AZ165"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="AI163:AJ163"/>
+    <mergeCell ref="AU163:AV163"/>
+    <mergeCell ref="AY163:AZ163"/>
+    <mergeCell ref="BJ163:BK163"/>
+    <mergeCell ref="BM163:BN163"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="AI161:AJ161"/>
+    <mergeCell ref="AS161:AT161"/>
+    <mergeCell ref="AU161:AV161"/>
+    <mergeCell ref="AY161:AZ161"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="X162:Y162"/>
+    <mergeCell ref="AI162:AJ162"/>
+    <mergeCell ref="AU162:AV162"/>
+    <mergeCell ref="AY162:AZ162"/>
+    <mergeCell ref="BF169:BG169"/>
+    <mergeCell ref="X170:Y170"/>
+    <mergeCell ref="AU170:AV170"/>
+    <mergeCell ref="X171:Y171"/>
+    <mergeCell ref="AA171:AB171"/>
+    <mergeCell ref="AU171:AV171"/>
+    <mergeCell ref="AU167:AV167"/>
+    <mergeCell ref="AU168:AV168"/>
+    <mergeCell ref="X169:Y169"/>
+    <mergeCell ref="AA169:AB169"/>
+    <mergeCell ref="AU169:AV169"/>
+    <mergeCell ref="AY169:AZ169"/>
+    <mergeCell ref="BJ165:BK165"/>
+    <mergeCell ref="BM165:BN165"/>
+    <mergeCell ref="BV165:BW165"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="AI166:AJ166"/>
+    <mergeCell ref="AS166:AT166"/>
+    <mergeCell ref="AU166:AV166"/>
+    <mergeCell ref="AY166:AZ166"/>
+    <mergeCell ref="AY175:AZ175"/>
+    <mergeCell ref="BF175:BG175"/>
+    <mergeCell ref="AU176:AV176"/>
+    <mergeCell ref="AY176:AZ176"/>
+    <mergeCell ref="BF176:BG176"/>
+    <mergeCell ref="BH176:BI176"/>
+    <mergeCell ref="AA174:AB174"/>
+    <mergeCell ref="AS174:AT174"/>
+    <mergeCell ref="AU174:AV174"/>
+    <mergeCell ref="X175:Y175"/>
+    <mergeCell ref="AA175:AB175"/>
+    <mergeCell ref="AU175:AV175"/>
+    <mergeCell ref="AA172:AB172"/>
+    <mergeCell ref="AS172:AT172"/>
+    <mergeCell ref="AY172:AZ172"/>
+    <mergeCell ref="X173:Y173"/>
+    <mergeCell ref="AA173:AB173"/>
+    <mergeCell ref="AU173:AV173"/>
+    <mergeCell ref="AU184:AV184"/>
+    <mergeCell ref="AA185:AB185"/>
+    <mergeCell ref="AD185:AE185"/>
+    <mergeCell ref="AJ185:AK185"/>
+    <mergeCell ref="AU185:AV185"/>
+    <mergeCell ref="CL185:CM185"/>
+    <mergeCell ref="AU179:AV179"/>
+    <mergeCell ref="AU180:AV180"/>
+    <mergeCell ref="AD181:AE181"/>
+    <mergeCell ref="AU181:AV181"/>
+    <mergeCell ref="AU182:AV182"/>
+    <mergeCell ref="AD183:AE183"/>
+    <mergeCell ref="AU183:AV183"/>
+    <mergeCell ref="AU177:AV177"/>
+    <mergeCell ref="AY177:AZ177"/>
+    <mergeCell ref="BF177:BG177"/>
+    <mergeCell ref="BH177:BI177"/>
+    <mergeCell ref="BJ177:BK177"/>
+    <mergeCell ref="AU178:AV178"/>
+    <mergeCell ref="AA190:AB190"/>
+    <mergeCell ref="AU190:AV190"/>
+    <mergeCell ref="AW190:AX190"/>
+    <mergeCell ref="CB190:CC190"/>
+    <mergeCell ref="AA191:AB191"/>
+    <mergeCell ref="AU191:AV191"/>
+    <mergeCell ref="AW191:AX191"/>
+    <mergeCell ref="AW187:AX187"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="AA188:AB188"/>
+    <mergeCell ref="AU188:AV188"/>
+    <mergeCell ref="AW188:AX188"/>
+    <mergeCell ref="AA189:AB189"/>
+    <mergeCell ref="AU189:AV189"/>
+    <mergeCell ref="AW189:AX189"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="AA186:AB186"/>
+    <mergeCell ref="AU186:AV186"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="AA187:AB187"/>
+    <mergeCell ref="AU187:AV187"/>
+    <mergeCell ref="CI193:CJ193"/>
+    <mergeCell ref="AA194:AB194"/>
+    <mergeCell ref="AU194:AV194"/>
+    <mergeCell ref="AW194:AX194"/>
+    <mergeCell ref="AA195:AB195"/>
+    <mergeCell ref="AU195:AV195"/>
+    <mergeCell ref="AW195:AX195"/>
+    <mergeCell ref="CB195:CC195"/>
+    <mergeCell ref="CI195:CJ195"/>
+    <mergeCell ref="AA192:AB192"/>
+    <mergeCell ref="AU192:AV192"/>
+    <mergeCell ref="AW192:AX192"/>
+    <mergeCell ref="CB192:CC192"/>
+    <mergeCell ref="AA193:AB193"/>
+    <mergeCell ref="AU193:AV193"/>
+    <mergeCell ref="AW193:AX193"/>
+    <mergeCell ref="CB193:CC193"/>
+    <mergeCell ref="T201:U201"/>
+    <mergeCell ref="V201:W201"/>
+    <mergeCell ref="AA201:AB201"/>
+    <mergeCell ref="AE201:AF201"/>
+    <mergeCell ref="AN201:AO201"/>
+    <mergeCell ref="AU201:AV201"/>
+    <mergeCell ref="T198:U198"/>
+    <mergeCell ref="AU198:AV198"/>
+    <mergeCell ref="T199:U199"/>
+    <mergeCell ref="AN199:AO199"/>
+    <mergeCell ref="AU199:AV199"/>
+    <mergeCell ref="T200:U200"/>
+    <mergeCell ref="AU200:AV200"/>
+    <mergeCell ref="CK195:CL195"/>
+    <mergeCell ref="AU196:AV196"/>
+    <mergeCell ref="AW196:AX196"/>
+    <mergeCell ref="CB196:CC196"/>
+    <mergeCell ref="CI196:CJ196"/>
+    <mergeCell ref="T197:U197"/>
+    <mergeCell ref="AU197:AV197"/>
+    <mergeCell ref="T206:U206"/>
+    <mergeCell ref="V206:W206"/>
+    <mergeCell ref="AA206:AB206"/>
+    <mergeCell ref="AU206:AV206"/>
+    <mergeCell ref="BF206:BG206"/>
+    <mergeCell ref="BT206:BU206"/>
+    <mergeCell ref="BF203:BG203"/>
+    <mergeCell ref="T204:U204"/>
+    <mergeCell ref="AA204:AB204"/>
+    <mergeCell ref="AU204:AV204"/>
+    <mergeCell ref="T205:U205"/>
+    <mergeCell ref="V205:W205"/>
+    <mergeCell ref="AA205:AB205"/>
+    <mergeCell ref="AU205:AV205"/>
+    <mergeCell ref="T202:U202"/>
+    <mergeCell ref="V202:W202"/>
+    <mergeCell ref="AA202:AB202"/>
+    <mergeCell ref="AE202:AF202"/>
+    <mergeCell ref="AU202:AV202"/>
+    <mergeCell ref="T203:U203"/>
+    <mergeCell ref="V203:W203"/>
+    <mergeCell ref="AA203:AB203"/>
+    <mergeCell ref="AE203:AF203"/>
+    <mergeCell ref="AU203:AV203"/>
+    <mergeCell ref="AA211:AB211"/>
+    <mergeCell ref="AD211:AE211"/>
+    <mergeCell ref="AU211:AV211"/>
+    <mergeCell ref="AZ211:BA211"/>
+    <mergeCell ref="BH211:BI211"/>
+    <mergeCell ref="BJ211:BK211"/>
+    <mergeCell ref="N210:O210"/>
+    <mergeCell ref="AA210:AB210"/>
+    <mergeCell ref="AD210:AE210"/>
+    <mergeCell ref="AU210:AV210"/>
+    <mergeCell ref="AZ210:BA210"/>
+    <mergeCell ref="BH210:BI210"/>
+    <mergeCell ref="T207:U207"/>
+    <mergeCell ref="AA207:AB207"/>
+    <mergeCell ref="AU207:AV207"/>
+    <mergeCell ref="AA208:AB208"/>
+    <mergeCell ref="AU208:AV208"/>
+    <mergeCell ref="AA209:AB209"/>
+    <mergeCell ref="AU209:AV209"/>
+    <mergeCell ref="L216:M216"/>
+    <mergeCell ref="X216:Y216"/>
+    <mergeCell ref="AA216:AB216"/>
+    <mergeCell ref="AN216:AO216"/>
+    <mergeCell ref="AR216:AS216"/>
+    <mergeCell ref="AA213:AB213"/>
+    <mergeCell ref="AD213:AE213"/>
+    <mergeCell ref="AU213:AV213"/>
+    <mergeCell ref="AZ213:BA213"/>
+    <mergeCell ref="BH213:BI213"/>
+    <mergeCell ref="BJ213:BK213"/>
+    <mergeCell ref="N212:O212"/>
+    <mergeCell ref="AA212:AB212"/>
+    <mergeCell ref="AD212:AE212"/>
+    <mergeCell ref="AU212:AV212"/>
+    <mergeCell ref="AZ212:BA212"/>
+    <mergeCell ref="BH212:BI212"/>
+    <mergeCell ref="AY217:AZ217"/>
+    <mergeCell ref="AA218:AB218"/>
+    <mergeCell ref="AN218:AO218"/>
+    <mergeCell ref="AR218:AS218"/>
+    <mergeCell ref="AU218:AV218"/>
+    <mergeCell ref="AY218:AZ218"/>
+    <mergeCell ref="AU216:AV216"/>
+    <mergeCell ref="X217:Y217"/>
+    <mergeCell ref="AA217:AB217"/>
+    <mergeCell ref="AN217:AO217"/>
+    <mergeCell ref="AR217:AS217"/>
+    <mergeCell ref="AU217:AV217"/>
+    <mergeCell ref="AA214:AB214"/>
+    <mergeCell ref="AD214:AE214"/>
+    <mergeCell ref="AU214:AV214"/>
+    <mergeCell ref="AA215:AB215"/>
+    <mergeCell ref="AU215:AV215"/>
+    <mergeCell ref="BT221:BU221"/>
+    <mergeCell ref="AA222:AB222"/>
+    <mergeCell ref="AU222:AV222"/>
+    <mergeCell ref="AA223:AB223"/>
+    <mergeCell ref="AU223:AV223"/>
+    <mergeCell ref="L220:M220"/>
+    <mergeCell ref="AA220:AB220"/>
+    <mergeCell ref="AN220:AO220"/>
+    <mergeCell ref="AU220:AV220"/>
+    <mergeCell ref="L221:M221"/>
+    <mergeCell ref="AA221:AB221"/>
+    <mergeCell ref="AN221:AO221"/>
+    <mergeCell ref="AU221:AV221"/>
+    <mergeCell ref="BC218:BD218"/>
+    <mergeCell ref="BF218:BG218"/>
+    <mergeCell ref="BT218:BU218"/>
+    <mergeCell ref="BV218:BW218"/>
+    <mergeCell ref="L219:M219"/>
+    <mergeCell ref="X219:Y219"/>
+    <mergeCell ref="AA219:AB219"/>
+    <mergeCell ref="AU219:AV219"/>
+    <mergeCell ref="N227:O227"/>
+    <mergeCell ref="AA227:AB227"/>
+    <mergeCell ref="AU227:AV227"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="X228:Y228"/>
+    <mergeCell ref="AA228:AB228"/>
+    <mergeCell ref="AU228:AV228"/>
+    <mergeCell ref="AA224:AB224"/>
+    <mergeCell ref="AU224:AV224"/>
+    <mergeCell ref="AA225:AB225"/>
+    <mergeCell ref="AU225:AV225"/>
+    <mergeCell ref="AX225:AY225"/>
+    <mergeCell ref="N226:O226"/>
+    <mergeCell ref="AA226:AB226"/>
+    <mergeCell ref="AU226:AV226"/>
+    <mergeCell ref="AY221:AZ221"/>
+    <mergeCell ref="BF221:BG221"/>
+    <mergeCell ref="N233:O233"/>
+    <mergeCell ref="AA233:AB233"/>
+    <mergeCell ref="AU233:AV233"/>
+    <mergeCell ref="AA234:AB234"/>
+    <mergeCell ref="AG234:AH234"/>
+    <mergeCell ref="AJ234:AK234"/>
+    <mergeCell ref="AR234:AS234"/>
+    <mergeCell ref="AU234:AV234"/>
+    <mergeCell ref="N231:O231"/>
+    <mergeCell ref="AA231:AB231"/>
+    <mergeCell ref="AU231:AV231"/>
+    <mergeCell ref="AA232:AB232"/>
+    <mergeCell ref="AG232:AH232"/>
+    <mergeCell ref="AJ232:AK232"/>
+    <mergeCell ref="AR232:AS232"/>
+    <mergeCell ref="AU232:AV232"/>
+    <mergeCell ref="X229:Y229"/>
+    <mergeCell ref="AA229:AB229"/>
+    <mergeCell ref="AU229:AV229"/>
+    <mergeCell ref="X230:Y230"/>
+    <mergeCell ref="AA230:AB230"/>
+    <mergeCell ref="AU230:AV230"/>
+    <mergeCell ref="AA236:AB236"/>
+    <mergeCell ref="AG236:AH236"/>
+    <mergeCell ref="AU236:AV236"/>
+    <mergeCell ref="AW236:AX236"/>
+    <mergeCell ref="AZ236:BA236"/>
+    <mergeCell ref="X237:Y237"/>
+    <mergeCell ref="AA237:AB237"/>
+    <mergeCell ref="AG237:AH237"/>
+    <mergeCell ref="AJ237:AK237"/>
+    <mergeCell ref="AU237:AV237"/>
+    <mergeCell ref="AW234:AX234"/>
+    <mergeCell ref="AZ234:BA234"/>
+    <mergeCell ref="X235:Y235"/>
+    <mergeCell ref="AA235:AB235"/>
+    <mergeCell ref="AG235:AH235"/>
+    <mergeCell ref="AU235:AV235"/>
+    <mergeCell ref="AW232:AX232"/>
+    <mergeCell ref="AZ232:BA232"/>
+    <mergeCell ref="BD238:BE238"/>
+    <mergeCell ref="X239:Y239"/>
+    <mergeCell ref="AA239:AB239"/>
+    <mergeCell ref="AG239:AH239"/>
+    <mergeCell ref="AU239:AV239"/>
+    <mergeCell ref="N240:O240"/>
+    <mergeCell ref="X240:Y240"/>
+    <mergeCell ref="AA240:AB240"/>
+    <mergeCell ref="AU240:AV240"/>
+    <mergeCell ref="AW237:AX237"/>
+    <mergeCell ref="AZ237:BA237"/>
+    <mergeCell ref="AA238:AB238"/>
+    <mergeCell ref="AG238:AH238"/>
+    <mergeCell ref="AJ238:AK238"/>
+    <mergeCell ref="AU238:AV238"/>
+    <mergeCell ref="AW238:AX238"/>
+    <mergeCell ref="AZ238:BA238"/>
+    <mergeCell ref="X243:Y243"/>
+    <mergeCell ref="AA243:AB243"/>
+    <mergeCell ref="AG243:AH243"/>
+    <mergeCell ref="AU243:AV243"/>
+    <mergeCell ref="N244:O244"/>
+    <mergeCell ref="X244:Y244"/>
+    <mergeCell ref="AA244:AB244"/>
+    <mergeCell ref="AG244:AH244"/>
+    <mergeCell ref="AU244:AV244"/>
+    <mergeCell ref="N241:O241"/>
+    <mergeCell ref="X241:Y241"/>
+    <mergeCell ref="AA241:AB241"/>
+    <mergeCell ref="AU241:AV241"/>
+    <mergeCell ref="X242:Y242"/>
+    <mergeCell ref="AA242:AB242"/>
+    <mergeCell ref="AG242:AH242"/>
+    <mergeCell ref="AU242:AV242"/>
+    <mergeCell ref="AR247:AS247"/>
+    <mergeCell ref="AU247:AV247"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="X248:Y248"/>
+    <mergeCell ref="AA248:AB248"/>
+    <mergeCell ref="AG248:AH248"/>
+    <mergeCell ref="AJ248:AK248"/>
+    <mergeCell ref="AU248:AV248"/>
+    <mergeCell ref="S247:T247"/>
+    <mergeCell ref="AA247:AB247"/>
+    <mergeCell ref="AG247:AH247"/>
+    <mergeCell ref="AJ247:AK247"/>
+    <mergeCell ref="AL247:AM247"/>
+    <mergeCell ref="AO247:AP247"/>
+    <mergeCell ref="N245:O245"/>
+    <mergeCell ref="AA245:AB245"/>
+    <mergeCell ref="AU245:AV245"/>
+    <mergeCell ref="S246:T246"/>
+    <mergeCell ref="AA246:AB246"/>
+    <mergeCell ref="AG246:AH246"/>
+    <mergeCell ref="AJ246:AK246"/>
+    <mergeCell ref="AU246:AV246"/>
+    <mergeCell ref="AA252:AB252"/>
+    <mergeCell ref="AU252:AV252"/>
+    <mergeCell ref="S253:T253"/>
+    <mergeCell ref="AA253:AB253"/>
+    <mergeCell ref="AG253:AH253"/>
+    <mergeCell ref="AO253:AP253"/>
+    <mergeCell ref="AU253:AV253"/>
+    <mergeCell ref="AA250:AB250"/>
+    <mergeCell ref="AU250:AV250"/>
+    <mergeCell ref="S251:T251"/>
+    <mergeCell ref="AA251:AB251"/>
+    <mergeCell ref="AG251:AH251"/>
+    <mergeCell ref="AO251:AP251"/>
+    <mergeCell ref="AU251:AV251"/>
+    <mergeCell ref="AA249:AB249"/>
+    <mergeCell ref="AG249:AH249"/>
+    <mergeCell ref="AJ249:AK249"/>
+    <mergeCell ref="AL249:AM249"/>
+    <mergeCell ref="AO249:AP249"/>
+    <mergeCell ref="AU249:AV249"/>
+    <mergeCell ref="X259:Y259"/>
+    <mergeCell ref="AA259:AB259"/>
+    <mergeCell ref="AI259:AJ259"/>
+    <mergeCell ref="AU259:AV259"/>
+    <mergeCell ref="AA260:AB260"/>
+    <mergeCell ref="AI260:AJ260"/>
+    <mergeCell ref="AQ260:AR260"/>
+    <mergeCell ref="AU260:AV260"/>
+    <mergeCell ref="P257:Q257"/>
+    <mergeCell ref="X257:Y257"/>
+    <mergeCell ref="AA257:AB257"/>
+    <mergeCell ref="AU257:AV257"/>
+    <mergeCell ref="P258:Q258"/>
+    <mergeCell ref="X258:Y258"/>
+    <mergeCell ref="AA258:AB258"/>
+    <mergeCell ref="AU258:AV258"/>
+    <mergeCell ref="BF254:BG254"/>
+    <mergeCell ref="P255:Q255"/>
+    <mergeCell ref="AA255:AB255"/>
+    <mergeCell ref="AU255:AV255"/>
+    <mergeCell ref="P256:Q256"/>
+    <mergeCell ref="AA256:AB256"/>
+    <mergeCell ref="AU256:AV256"/>
+    <mergeCell ref="AA254:AB254"/>
+    <mergeCell ref="AG254:AH254"/>
+    <mergeCell ref="AO254:AP254"/>
+    <mergeCell ref="AR254:AS254"/>
+    <mergeCell ref="AU254:AV254"/>
+    <mergeCell ref="BD254:BE254"/>
+    <mergeCell ref="BF261:BG261"/>
+    <mergeCell ref="BV261:BW261"/>
+    <mergeCell ref="CC261:CD261"/>
+    <mergeCell ref="X262:Y262"/>
+    <mergeCell ref="AA262:AB262"/>
+    <mergeCell ref="AI262:AJ262"/>
+    <mergeCell ref="AU262:AV262"/>
+    <mergeCell ref="AY260:AZ260"/>
+    <mergeCell ref="BC260:BD260"/>
+    <mergeCell ref="BF260:BG260"/>
+    <mergeCell ref="BV260:BW260"/>
+    <mergeCell ref="AA261:AB261"/>
+    <mergeCell ref="AI261:AJ261"/>
+    <mergeCell ref="AQ261:AR261"/>
+    <mergeCell ref="AU261:AV261"/>
+    <mergeCell ref="AY261:AZ261"/>
+    <mergeCell ref="BC261:BD261"/>
+    <mergeCell ref="AY265:AZ265"/>
+    <mergeCell ref="BF265:BG265"/>
+    <mergeCell ref="BV265:BW265"/>
+    <mergeCell ref="AA266:AB266"/>
+    <mergeCell ref="AI266:AJ266"/>
+    <mergeCell ref="AN266:AO266"/>
+    <mergeCell ref="AQ266:AR266"/>
+    <mergeCell ref="AU266:AV266"/>
+    <mergeCell ref="AY266:AZ266"/>
+    <mergeCell ref="BF266:BG266"/>
+    <mergeCell ref="BF263:BG263"/>
+    <mergeCell ref="X264:Y264"/>
+    <mergeCell ref="AA264:AB264"/>
+    <mergeCell ref="AI264:AJ264"/>
+    <mergeCell ref="AU264:AV264"/>
+    <mergeCell ref="AA265:AB265"/>
+    <mergeCell ref="AI265:AJ265"/>
+    <mergeCell ref="AN265:AO265"/>
+    <mergeCell ref="AQ265:AR265"/>
+    <mergeCell ref="AU265:AV265"/>
+    <mergeCell ref="AA263:AB263"/>
+    <mergeCell ref="AI263:AJ263"/>
+    <mergeCell ref="AQ263:AR263"/>
+    <mergeCell ref="AU263:AV263"/>
+    <mergeCell ref="AY263:AZ263"/>
+    <mergeCell ref="BC263:BD263"/>
+    <mergeCell ref="X272:Y272"/>
+    <mergeCell ref="AU272:AV272"/>
+    <mergeCell ref="BE272:BF272"/>
+    <mergeCell ref="AU273:AV273"/>
+    <mergeCell ref="BE273:BF273"/>
+    <mergeCell ref="AU274:AV274"/>
+    <mergeCell ref="BE274:BF274"/>
+    <mergeCell ref="AU268:AV268"/>
+    <mergeCell ref="AU269:AV269"/>
+    <mergeCell ref="AU270:AV270"/>
+    <mergeCell ref="X271:Y271"/>
+    <mergeCell ref="AU271:AV271"/>
+    <mergeCell ref="BE271:BF271"/>
+    <mergeCell ref="BV266:BW266"/>
+    <mergeCell ref="CC266:CD266"/>
+    <mergeCell ref="AA267:AB267"/>
+    <mergeCell ref="AI267:AJ267"/>
+    <mergeCell ref="AN267:AO267"/>
+    <mergeCell ref="AU267:AV267"/>
+    <mergeCell ref="AU280:AV280"/>
+    <mergeCell ref="BE280:BF280"/>
+    <mergeCell ref="CJ280:CK280"/>
+    <mergeCell ref="X281:Y281"/>
+    <mergeCell ref="AU281:AV281"/>
+    <mergeCell ref="BE281:BF281"/>
+    <mergeCell ref="X278:Y278"/>
+    <mergeCell ref="AU278:AV278"/>
+    <mergeCell ref="BE278:BF278"/>
+    <mergeCell ref="AU279:AV279"/>
+    <mergeCell ref="BE279:BF279"/>
+    <mergeCell ref="CJ279:CK279"/>
+    <mergeCell ref="CJ274:CK274"/>
+    <mergeCell ref="X275:Y275"/>
+    <mergeCell ref="AU275:AV275"/>
+    <mergeCell ref="AU276:AV276"/>
+    <mergeCell ref="AU277:AV277"/>
+    <mergeCell ref="BE277:BF277"/>
+    <mergeCell ref="BQ287:BR287"/>
+    <mergeCell ref="AU288:AV288"/>
+    <mergeCell ref="T289:U289"/>
+    <mergeCell ref="AA289:AB289"/>
+    <mergeCell ref="AO289:AP289"/>
+    <mergeCell ref="AU289:AV289"/>
+    <mergeCell ref="BQ289:BR289"/>
+    <mergeCell ref="T286:U286"/>
+    <mergeCell ref="AA286:AB286"/>
+    <mergeCell ref="AU286:AV286"/>
+    <mergeCell ref="T287:U287"/>
+    <mergeCell ref="AO287:AP287"/>
+    <mergeCell ref="AU287:AV287"/>
+    <mergeCell ref="AU282:AV282"/>
+    <mergeCell ref="AU283:AV283"/>
+    <mergeCell ref="T284:U284"/>
+    <mergeCell ref="AA284:AB284"/>
+    <mergeCell ref="AU284:AV284"/>
+    <mergeCell ref="AA285:AB285"/>
+    <mergeCell ref="AO285:AP285"/>
+    <mergeCell ref="AU285:AV285"/>
+    <mergeCell ref="CA291:CB291"/>
+    <mergeCell ref="CH291:CI291"/>
+    <mergeCell ref="T292:U292"/>
+    <mergeCell ref="AA292:AB292"/>
+    <mergeCell ref="AO292:AP292"/>
+    <mergeCell ref="AU292:AV292"/>
+    <mergeCell ref="BQ292:BR292"/>
+    <mergeCell ref="T290:U290"/>
+    <mergeCell ref="AO290:AP290"/>
+    <mergeCell ref="AU290:AV290"/>
+    <mergeCell ref="BQ290:BR290"/>
+    <mergeCell ref="BT290:BU290"/>
+    <mergeCell ref="T291:U291"/>
+    <mergeCell ref="AO291:AP291"/>
+    <mergeCell ref="AU291:AV291"/>
+    <mergeCell ref="BQ291:BR291"/>
+    <mergeCell ref="BT291:BU291"/>
+    <mergeCell ref="AA295:AB295"/>
+    <mergeCell ref="AO295:AP295"/>
+    <mergeCell ref="AU295:AV295"/>
+    <mergeCell ref="BQ295:BR295"/>
+    <mergeCell ref="CA295:CB295"/>
+    <mergeCell ref="M296:N296"/>
+    <mergeCell ref="X296:Y296"/>
+    <mergeCell ref="AU296:AV296"/>
+    <mergeCell ref="T294:U294"/>
+    <mergeCell ref="AO294:AP294"/>
+    <mergeCell ref="AU294:AV294"/>
+    <mergeCell ref="BQ294:BR294"/>
+    <mergeCell ref="BT294:BU294"/>
+    <mergeCell ref="CA294:CB294"/>
+    <mergeCell ref="T293:U293"/>
+    <mergeCell ref="AO293:AP293"/>
+    <mergeCell ref="AU293:AV293"/>
+    <mergeCell ref="BQ293:BR293"/>
+    <mergeCell ref="BT293:BU293"/>
+    <mergeCell ref="CA293:CB293"/>
+    <mergeCell ref="AY302:AZ302"/>
+    <mergeCell ref="BF302:BG302"/>
+    <mergeCell ref="X303:Y303"/>
+    <mergeCell ref="AI303:AJ303"/>
+    <mergeCell ref="AQ303:AR303"/>
+    <mergeCell ref="AU303:AV303"/>
+    <mergeCell ref="AY303:AZ303"/>
+    <mergeCell ref="AI301:AJ301"/>
+    <mergeCell ref="AQ301:AR301"/>
+    <mergeCell ref="AU301:AV301"/>
+    <mergeCell ref="AI302:AJ302"/>
+    <mergeCell ref="AQ302:AR302"/>
+    <mergeCell ref="AU302:AV302"/>
+    <mergeCell ref="AU297:AV297"/>
+    <mergeCell ref="AU298:AV298"/>
+    <mergeCell ref="M299:N299"/>
+    <mergeCell ref="X299:Y299"/>
+    <mergeCell ref="AU299:AV299"/>
+    <mergeCell ref="X300:Y300"/>
+    <mergeCell ref="AI300:AJ300"/>
+    <mergeCell ref="AU300:AV300"/>
+    <mergeCell ref="AU308:AV308"/>
+    <mergeCell ref="AF309:AG309"/>
+    <mergeCell ref="AU309:AV309"/>
+    <mergeCell ref="AL310:AM310"/>
+    <mergeCell ref="AU310:AV310"/>
+    <mergeCell ref="BG310:BH310"/>
+    <mergeCell ref="AI306:AJ306"/>
+    <mergeCell ref="AQ306:AR306"/>
+    <mergeCell ref="AU306:AV306"/>
+    <mergeCell ref="AZ306:BA306"/>
+    <mergeCell ref="BF306:BG306"/>
+    <mergeCell ref="X307:Y307"/>
+    <mergeCell ref="AI307:AJ307"/>
+    <mergeCell ref="AU307:AV307"/>
+    <mergeCell ref="AI304:AJ304"/>
+    <mergeCell ref="AQ304:AR304"/>
+    <mergeCell ref="AU304:AV304"/>
+    <mergeCell ref="X305:Y305"/>
+    <mergeCell ref="AI305:AJ305"/>
+    <mergeCell ref="AQ305:AR305"/>
+    <mergeCell ref="AU305:AV305"/>
+    <mergeCell ref="U315:V315"/>
+    <mergeCell ref="AL315:AM315"/>
+    <mergeCell ref="AU315:AV315"/>
+    <mergeCell ref="U316:V316"/>
+    <mergeCell ref="AL316:AM316"/>
+    <mergeCell ref="AP316:AQ316"/>
+    <mergeCell ref="AU316:AV316"/>
+    <mergeCell ref="U312:V312"/>
+    <mergeCell ref="AU312:AV312"/>
+    <mergeCell ref="U313:V313"/>
+    <mergeCell ref="AF313:AG313"/>
+    <mergeCell ref="AU313:AV313"/>
+    <mergeCell ref="U314:V314"/>
+    <mergeCell ref="AF314:AG314"/>
+    <mergeCell ref="AU314:AV314"/>
+    <mergeCell ref="BK310:BL310"/>
+    <mergeCell ref="BM310:BN310"/>
+    <mergeCell ref="AL311:AM311"/>
+    <mergeCell ref="AU311:AV311"/>
+    <mergeCell ref="BG311:BH311"/>
+    <mergeCell ref="BK311:BL311"/>
+    <mergeCell ref="BM311:BN311"/>
+    <mergeCell ref="BM319:BN319"/>
+    <mergeCell ref="BP319:BQ319"/>
+    <mergeCell ref="BW319:BX319"/>
+    <mergeCell ref="BY319:BZ319"/>
+    <mergeCell ref="CI319:CJ319"/>
+    <mergeCell ref="U320:V320"/>
+    <mergeCell ref="AL320:AM320"/>
+    <mergeCell ref="AT320:AU320"/>
+    <mergeCell ref="BE320:BF320"/>
+    <mergeCell ref="BG320:BH320"/>
+    <mergeCell ref="U319:V319"/>
+    <mergeCell ref="AL319:AM319"/>
+    <mergeCell ref="AT319:AU319"/>
+    <mergeCell ref="BE319:BF319"/>
+    <mergeCell ref="BG319:BH319"/>
+    <mergeCell ref="BJ319:BK319"/>
+    <mergeCell ref="BK317:BL317"/>
+    <mergeCell ref="BM317:BN317"/>
+    <mergeCell ref="U318:V318"/>
+    <mergeCell ref="AL318:AM318"/>
+    <mergeCell ref="AT318:AU318"/>
+    <mergeCell ref="BE318:BF318"/>
+    <mergeCell ref="BG318:BH318"/>
+    <mergeCell ref="BJ318:BK318"/>
+    <mergeCell ref="U317:V317"/>
+    <mergeCell ref="AL317:AM317"/>
+    <mergeCell ref="AP317:AQ317"/>
+    <mergeCell ref="AT317:AU317"/>
+    <mergeCell ref="BE317:BF317"/>
+    <mergeCell ref="BG317:BH317"/>
+    <mergeCell ref="BW321:BX321"/>
+    <mergeCell ref="BY321:BZ321"/>
+    <mergeCell ref="AU322:AV322"/>
+    <mergeCell ref="AU323:AV323"/>
+    <mergeCell ref="AU324:AV324"/>
+    <mergeCell ref="BG324:BH324"/>
+    <mergeCell ref="BK324:BL324"/>
+    <mergeCell ref="BM324:BN324"/>
+    <mergeCell ref="CI320:CJ320"/>
+    <mergeCell ref="CK320:CL320"/>
+    <mergeCell ref="U321:V321"/>
+    <mergeCell ref="AL321:AM321"/>
+    <mergeCell ref="AT321:AU321"/>
+    <mergeCell ref="BE321:BF321"/>
+    <mergeCell ref="BG321:BH321"/>
+    <mergeCell ref="BJ321:BK321"/>
+    <mergeCell ref="BM321:BN321"/>
+    <mergeCell ref="BP321:BQ321"/>
+    <mergeCell ref="BJ320:BK320"/>
+    <mergeCell ref="BM320:BN320"/>
+    <mergeCell ref="BP320:BQ320"/>
+    <mergeCell ref="BW320:BX320"/>
+    <mergeCell ref="BY320:BZ320"/>
+    <mergeCell ref="CF320:CG320"/>
+    <mergeCell ref="BG331:BH331"/>
+    <mergeCell ref="BK331:BL331"/>
+    <mergeCell ref="BM331:BN331"/>
+    <mergeCell ref="BP331:BQ331"/>
+    <mergeCell ref="BT331:BU331"/>
+    <mergeCell ref="BW331:BX331"/>
+    <mergeCell ref="AF328:AG328"/>
+    <mergeCell ref="AP328:AQ328"/>
+    <mergeCell ref="AU328:AV328"/>
+    <mergeCell ref="AU329:AV329"/>
+    <mergeCell ref="AU330:AV330"/>
+    <mergeCell ref="AP331:AQ331"/>
+    <mergeCell ref="AU331:AV331"/>
+    <mergeCell ref="AU325:AV325"/>
+    <mergeCell ref="BG325:BH325"/>
+    <mergeCell ref="BK325:BL325"/>
+    <mergeCell ref="BM325:BN325"/>
+    <mergeCell ref="AU326:AV326"/>
+    <mergeCell ref="AU327:AV327"/>
+    <mergeCell ref="BT333:BU333"/>
+    <mergeCell ref="BW333:BX333"/>
+    <mergeCell ref="BY333:BZ333"/>
+    <mergeCell ref="CI333:CJ333"/>
+    <mergeCell ref="AU334:AV334"/>
+    <mergeCell ref="BG334:BH334"/>
+    <mergeCell ref="BJ334:BK334"/>
+    <mergeCell ref="BM334:BN334"/>
+    <mergeCell ref="BP334:BQ334"/>
+    <mergeCell ref="BT334:BU334"/>
+    <mergeCell ref="AU332:AV332"/>
+    <mergeCell ref="BG332:BH332"/>
+    <mergeCell ref="BJ332:BK332"/>
+    <mergeCell ref="BM332:BN332"/>
+    <mergeCell ref="BP332:BQ332"/>
+    <mergeCell ref="AU333:AV333"/>
+    <mergeCell ref="BG333:BH333"/>
+    <mergeCell ref="BJ333:BK333"/>
+    <mergeCell ref="BM333:BN333"/>
+    <mergeCell ref="BP333:BQ333"/>
+    <mergeCell ref="CS337:CT337"/>
+    <mergeCell ref="AU338:AV338"/>
+    <mergeCell ref="BO338:BP338"/>
+    <mergeCell ref="CA338:CB338"/>
+    <mergeCell ref="CD338:CE338"/>
+    <mergeCell ref="CS338:CT338"/>
+    <mergeCell ref="CF335:CG335"/>
+    <mergeCell ref="CI335:CJ335"/>
+    <mergeCell ref="AB336:AC336"/>
+    <mergeCell ref="AU336:AV336"/>
+    <mergeCell ref="CA336:CB336"/>
+    <mergeCell ref="AB337:AC337"/>
+    <mergeCell ref="AU337:AV337"/>
+    <mergeCell ref="CA337:CB337"/>
+    <mergeCell ref="CE337:CF337"/>
+    <mergeCell ref="BW334:BX334"/>
+    <mergeCell ref="BY334:BZ334"/>
+    <mergeCell ref="AU335:AV335"/>
+    <mergeCell ref="BG335:BH335"/>
+    <mergeCell ref="BJ335:BK335"/>
+    <mergeCell ref="BM335:BN335"/>
+    <mergeCell ref="BP335:BQ335"/>
+    <mergeCell ref="BT335:BU335"/>
+    <mergeCell ref="BW335:BX335"/>
+    <mergeCell ref="BY335:BZ335"/>
+    <mergeCell ref="AH344:AI344"/>
+    <mergeCell ref="AM344:AN344"/>
+    <mergeCell ref="AU344:AV344"/>
+    <mergeCell ref="BO344:BP344"/>
+    <mergeCell ref="BS344:BT344"/>
+    <mergeCell ref="AU345:AV345"/>
+    <mergeCell ref="BS341:BT341"/>
+    <mergeCell ref="CA341:CB341"/>
+    <mergeCell ref="CE341:CF341"/>
+    <mergeCell ref="CI341:CJ341"/>
+    <mergeCell ref="AU342:AV342"/>
+    <mergeCell ref="AH343:AI343"/>
+    <mergeCell ref="AM343:AN343"/>
+    <mergeCell ref="AU343:AV343"/>
+    <mergeCell ref="BO343:BP343"/>
+    <mergeCell ref="AU339:AV339"/>
+    <mergeCell ref="AH340:AI340"/>
+    <mergeCell ref="AM340:AN340"/>
+    <mergeCell ref="AU340:AV340"/>
+    <mergeCell ref="BO340:BP340"/>
+    <mergeCell ref="AH341:AI341"/>
+    <mergeCell ref="AM341:AN341"/>
+    <mergeCell ref="AU341:AV341"/>
+    <mergeCell ref="BO341:BP341"/>
+    <mergeCell ref="CS350:CT350"/>
+    <mergeCell ref="AU351:AV351"/>
+    <mergeCell ref="AM352:AN352"/>
+    <mergeCell ref="AU352:AV352"/>
+    <mergeCell ref="BO352:BP352"/>
+    <mergeCell ref="BQ352:BR352"/>
+    <mergeCell ref="BS352:BT352"/>
+    <mergeCell ref="AB348:AC348"/>
+    <mergeCell ref="AU348:AV348"/>
+    <mergeCell ref="AB349:AC349"/>
+    <mergeCell ref="AU349:AV349"/>
+    <mergeCell ref="AH350:AI350"/>
+    <mergeCell ref="AU350:AV350"/>
+    <mergeCell ref="AH346:AI346"/>
+    <mergeCell ref="AU346:AV346"/>
+    <mergeCell ref="AH347:AI347"/>
+    <mergeCell ref="AM347:AN347"/>
+    <mergeCell ref="AU347:AV347"/>
+    <mergeCell ref="BO347:BP347"/>
+    <mergeCell ref="CI353:CJ353"/>
+    <mergeCell ref="AU354:AV354"/>
+    <mergeCell ref="AM355:AN355"/>
+    <mergeCell ref="AU355:AV355"/>
+    <mergeCell ref="AM356:AN356"/>
+    <mergeCell ref="AU356:AV356"/>
+    <mergeCell ref="BO356:BP356"/>
+    <mergeCell ref="BQ356:BR356"/>
+    <mergeCell ref="BS356:BT356"/>
+    <mergeCell ref="AM353:AN353"/>
+    <mergeCell ref="AU353:AV353"/>
+    <mergeCell ref="BO353:BP353"/>
+    <mergeCell ref="BQ353:BR353"/>
+    <mergeCell ref="BS353:BT353"/>
+    <mergeCell ref="CE353:CF353"/>
+    <mergeCell ref="BO350:BP350"/>
+    <mergeCell ref="CE350:CF350"/>
+    <mergeCell ref="CI350:CJ350"/>
+    <mergeCell ref="AU360:AV360"/>
+    <mergeCell ref="BO360:BP360"/>
+    <mergeCell ref="AU361:AV361"/>
+    <mergeCell ref="BO361:BP361"/>
+    <mergeCell ref="AU362:AV362"/>
+    <mergeCell ref="BO362:BP362"/>
+    <mergeCell ref="CA358:CB358"/>
+    <mergeCell ref="AU359:AV359"/>
+    <mergeCell ref="BO359:BP359"/>
+    <mergeCell ref="BQ359:BR359"/>
+    <mergeCell ref="BS359:BT359"/>
+    <mergeCell ref="CA359:CB359"/>
+    <mergeCell ref="AU357:AV357"/>
+    <mergeCell ref="BO357:BP357"/>
+    <mergeCell ref="BQ357:BR357"/>
+    <mergeCell ref="BS357:BT357"/>
+    <mergeCell ref="AU358:AV358"/>
+    <mergeCell ref="BO358:BP358"/>
+    <mergeCell ref="BQ358:BR358"/>
+    <mergeCell ref="BS358:BT358"/>
+    <mergeCell ref="BW368:BX368"/>
+    <mergeCell ref="CJ368:CK368"/>
+    <mergeCell ref="AU366:AV366"/>
+    <mergeCell ref="BJ366:BK366"/>
+    <mergeCell ref="BL366:BM366"/>
+    <mergeCell ref="BO366:BP366"/>
+    <mergeCell ref="BW366:BX366"/>
+    <mergeCell ref="AU367:AV367"/>
+    <mergeCell ref="BJ367:BK367"/>
+    <mergeCell ref="BL367:BM367"/>
+    <mergeCell ref="BO367:BP367"/>
+    <mergeCell ref="BW367:BX367"/>
+    <mergeCell ref="AU363:AV363"/>
+    <mergeCell ref="BO363:BP363"/>
+    <mergeCell ref="AU364:AV364"/>
+    <mergeCell ref="BO364:BP364"/>
+    <mergeCell ref="AU365:AV365"/>
+    <mergeCell ref="BJ365:BK365"/>
+    <mergeCell ref="BO365:BP365"/>
+    <mergeCell ref="AU371:AV371"/>
+    <mergeCell ref="AY371:AZ371"/>
+    <mergeCell ref="BO371:BP371"/>
+    <mergeCell ref="AU372:AV372"/>
+    <mergeCell ref="AY372:AZ372"/>
+    <mergeCell ref="BI372:BJ372"/>
+    <mergeCell ref="BO372:BP372"/>
+    <mergeCell ref="AU369:AV369"/>
+    <mergeCell ref="AY369:AZ369"/>
+    <mergeCell ref="BO369:BP369"/>
+    <mergeCell ref="AU370:AV370"/>
+    <mergeCell ref="AY370:AZ370"/>
+    <mergeCell ref="BO370:BP370"/>
+    <mergeCell ref="AU368:AV368"/>
+    <mergeCell ref="BJ368:BK368"/>
+    <mergeCell ref="BL368:BM368"/>
+    <mergeCell ref="BO368:BP368"/>
+    <mergeCell ref="CR377:CS377"/>
+    <mergeCell ref="AU378:AV378"/>
+    <mergeCell ref="BO378:BP378"/>
+    <mergeCell ref="AU379:AV379"/>
+    <mergeCell ref="BO379:BP379"/>
+    <mergeCell ref="BY379:BZ379"/>
+    <mergeCell ref="BY375:BZ375"/>
+    <mergeCell ref="Y376:Z376"/>
+    <mergeCell ref="AU376:AV376"/>
+    <mergeCell ref="BO376:BP376"/>
+    <mergeCell ref="Y377:Z377"/>
+    <mergeCell ref="AU377:AV377"/>
+    <mergeCell ref="BO377:BP377"/>
+    <mergeCell ref="BY377:BZ377"/>
+    <mergeCell ref="AU373:AV373"/>
+    <mergeCell ref="BO373:BP373"/>
+    <mergeCell ref="AU374:AV374"/>
+    <mergeCell ref="BO374:BP374"/>
+    <mergeCell ref="AU375:AV375"/>
+    <mergeCell ref="BO375:BP375"/>
+    <mergeCell ref="AU386:AV386"/>
+    <mergeCell ref="BO386:BP386"/>
+    <mergeCell ref="AU387:AV387"/>
+    <mergeCell ref="BO387:BP387"/>
+    <mergeCell ref="AU388:AV388"/>
+    <mergeCell ref="BO388:BP388"/>
+    <mergeCell ref="AU383:AV383"/>
+    <mergeCell ref="BO383:BP383"/>
+    <mergeCell ref="AU384:AV384"/>
+    <mergeCell ref="BO384:BP384"/>
+    <mergeCell ref="AU385:AV385"/>
+    <mergeCell ref="BO385:BP385"/>
+    <mergeCell ref="AU380:AV380"/>
+    <mergeCell ref="BO380:BP380"/>
+    <mergeCell ref="AU381:AV381"/>
+    <mergeCell ref="BO381:BP381"/>
+    <mergeCell ref="AU382:AV382"/>
+    <mergeCell ref="BO382:BP382"/>
+    <mergeCell ref="BO399:BP399"/>
+    <mergeCell ref="BO400:BP400"/>
+    <mergeCell ref="AO401:AP401"/>
+    <mergeCell ref="BO401:BP401"/>
+    <mergeCell ref="AO402:AP402"/>
+    <mergeCell ref="BO402:BP402"/>
+    <mergeCell ref="BO393:BP393"/>
+    <mergeCell ref="BO394:BP394"/>
+    <mergeCell ref="BO395:BP395"/>
+    <mergeCell ref="BO396:BP396"/>
+    <mergeCell ref="BO397:BP397"/>
+    <mergeCell ref="BO398:BP398"/>
+    <mergeCell ref="AS389:AT389"/>
+    <mergeCell ref="AU389:AV389"/>
+    <mergeCell ref="BO389:BP389"/>
+    <mergeCell ref="BO390:BP390"/>
+    <mergeCell ref="BO391:BP391"/>
+    <mergeCell ref="BO392:BP392"/>
+    <mergeCell ref="AG406:AH406"/>
+    <mergeCell ref="AR406:AS406"/>
+    <mergeCell ref="AW406:AX406"/>
+    <mergeCell ref="BO406:BP406"/>
+    <mergeCell ref="AG407:AH407"/>
+    <mergeCell ref="AR407:AS407"/>
+    <mergeCell ref="AW407:AX407"/>
+    <mergeCell ref="AZ407:BA407"/>
+    <mergeCell ref="BC407:BD407"/>
+    <mergeCell ref="BH407:BI407"/>
+    <mergeCell ref="BT402:BU402"/>
+    <mergeCell ref="AG403:AH403"/>
+    <mergeCell ref="BO403:BP403"/>
+    <mergeCell ref="AG404:AH404"/>
+    <mergeCell ref="BO404:BP404"/>
+    <mergeCell ref="AR405:AS405"/>
+    <mergeCell ref="AW405:AX405"/>
+    <mergeCell ref="BO405:BP405"/>
+    <mergeCell ref="M413:N413"/>
+    <mergeCell ref="AG413:AH413"/>
+    <mergeCell ref="BO413:BP413"/>
+    <mergeCell ref="BO414:BP414"/>
+    <mergeCell ref="M415:N415"/>
+    <mergeCell ref="AG415:AH415"/>
+    <mergeCell ref="AR415:AS415"/>
+    <mergeCell ref="BH415:BI415"/>
+    <mergeCell ref="BJ415:BK415"/>
+    <mergeCell ref="BO415:BP415"/>
+    <mergeCell ref="AW410:AX410"/>
+    <mergeCell ref="BO410:BP410"/>
+    <mergeCell ref="AW411:AX411"/>
+    <mergeCell ref="AZ411:BA411"/>
+    <mergeCell ref="BO411:BP411"/>
+    <mergeCell ref="BO412:BP412"/>
+    <mergeCell ref="BO407:BP407"/>
+    <mergeCell ref="AG408:AH408"/>
+    <mergeCell ref="AR408:AS408"/>
+    <mergeCell ref="AW408:AX408"/>
+    <mergeCell ref="BO408:BP408"/>
+    <mergeCell ref="AG409:AH409"/>
+    <mergeCell ref="AR409:AS409"/>
+    <mergeCell ref="AW409:AX409"/>
+    <mergeCell ref="AZ409:BA409"/>
+    <mergeCell ref="BO409:BP409"/>
+    <mergeCell ref="M419:N419"/>
+    <mergeCell ref="BO419:BP419"/>
+    <mergeCell ref="M420:N420"/>
+    <mergeCell ref="BA420:BB420"/>
+    <mergeCell ref="BO420:BP420"/>
+    <mergeCell ref="U421:V421"/>
+    <mergeCell ref="AD421:AE421"/>
+    <mergeCell ref="AF421:AG421"/>
+    <mergeCell ref="BO421:BP421"/>
+    <mergeCell ref="BU416:BV416"/>
+    <mergeCell ref="M417:N417"/>
+    <mergeCell ref="AG417:AH417"/>
+    <mergeCell ref="AR417:AS417"/>
+    <mergeCell ref="BO417:BP417"/>
+    <mergeCell ref="M418:N418"/>
+    <mergeCell ref="AG418:AH418"/>
+    <mergeCell ref="AR418:AS418"/>
+    <mergeCell ref="BH418:BI418"/>
+    <mergeCell ref="BO418:BP418"/>
+    <mergeCell ref="M416:N416"/>
+    <mergeCell ref="AG416:AH416"/>
+    <mergeCell ref="AR416:AS416"/>
+    <mergeCell ref="BH416:BI416"/>
+    <mergeCell ref="BJ416:BK416"/>
+    <mergeCell ref="BO416:BP416"/>
+    <mergeCell ref="BO428:BP428"/>
+    <mergeCell ref="Z429:AA429"/>
+    <mergeCell ref="AF429:AG429"/>
+    <mergeCell ref="BO429:BP429"/>
+    <mergeCell ref="BO430:BP430"/>
+    <mergeCell ref="BO431:BP431"/>
+    <mergeCell ref="BO425:BP425"/>
+    <mergeCell ref="U426:V426"/>
+    <mergeCell ref="AD426:AE426"/>
+    <mergeCell ref="BO426:BP426"/>
+    <mergeCell ref="AF427:AG427"/>
+    <mergeCell ref="BO427:BP427"/>
+    <mergeCell ref="BO422:BP422"/>
+    <mergeCell ref="BO423:BP423"/>
+    <mergeCell ref="U424:V424"/>
+    <mergeCell ref="AD424:AE424"/>
+    <mergeCell ref="AF424:AG424"/>
+    <mergeCell ref="AS424:AT424"/>
+    <mergeCell ref="BO424:BP424"/>
+    <mergeCell ref="CE438:CF438"/>
+    <mergeCell ref="CM438:CN438"/>
+    <mergeCell ref="CP438:CQ438"/>
+    <mergeCell ref="BG436:BH436"/>
+    <mergeCell ref="BO436:BP436"/>
+    <mergeCell ref="BS436:BT436"/>
+    <mergeCell ref="CE436:CF436"/>
+    <mergeCell ref="CM436:CN436"/>
+    <mergeCell ref="BG437:BH437"/>
+    <mergeCell ref="BO437:BP437"/>
+    <mergeCell ref="BS437:BT437"/>
+    <mergeCell ref="CE437:CF437"/>
+    <mergeCell ref="CM437:CN437"/>
+    <mergeCell ref="BG432:BH432"/>
+    <mergeCell ref="BM432:BN432"/>
+    <mergeCell ref="BO432:BP432"/>
+    <mergeCell ref="BO433:BP433"/>
+    <mergeCell ref="BO434:BP434"/>
+    <mergeCell ref="BO435:BP435"/>
+    <mergeCell ref="Z442:AA442"/>
+    <mergeCell ref="BO442:BP442"/>
+    <mergeCell ref="Z443:AA443"/>
+    <mergeCell ref="BO443:BP443"/>
+    <mergeCell ref="Z444:AA444"/>
+    <mergeCell ref="BO444:BP444"/>
+    <mergeCell ref="BO439:BP439"/>
+    <mergeCell ref="AD440:AE440"/>
+    <mergeCell ref="AZ440:BA440"/>
+    <mergeCell ref="BO440:BP440"/>
+    <mergeCell ref="AD441:AE441"/>
+    <mergeCell ref="AZ441:BA441"/>
+    <mergeCell ref="BH441:BI441"/>
+    <mergeCell ref="BO441:BP441"/>
+    <mergeCell ref="BG438:BH438"/>
+    <mergeCell ref="BO438:BP438"/>
+    <mergeCell ref="BS438:BT438"/>
+    <mergeCell ref="Z452:AA452"/>
+    <mergeCell ref="BO452:BP452"/>
+    <mergeCell ref="Z453:AA453"/>
+    <mergeCell ref="BO453:BP453"/>
+    <mergeCell ref="CN447:CO447"/>
+    <mergeCell ref="Y448:Z448"/>
+    <mergeCell ref="BO448:BP448"/>
+    <mergeCell ref="CD448:CE448"/>
+    <mergeCell ref="CN448:CO448"/>
+    <mergeCell ref="Y449:Z449"/>
+    <mergeCell ref="BO449:BP449"/>
+    <mergeCell ref="CN449:CO449"/>
+    <mergeCell ref="Z445:AA445"/>
+    <mergeCell ref="BO445:BP445"/>
+    <mergeCell ref="BO446:BP446"/>
+    <mergeCell ref="Y447:Z447"/>
+    <mergeCell ref="BO447:BP447"/>
+    <mergeCell ref="CD447:CE447"/>
+    <mergeCell ref="AJ464:AK464"/>
+    <mergeCell ref="BO464:BP464"/>
+    <mergeCell ref="BG459:BH459"/>
+    <mergeCell ref="BO459:BP459"/>
+    <mergeCell ref="BG460:BH460"/>
+    <mergeCell ref="BO460:BP460"/>
+    <mergeCell ref="BF461:BG461"/>
+    <mergeCell ref="BO461:BP461"/>
+    <mergeCell ref="BO454:BP454"/>
+    <mergeCell ref="BO455:BP455"/>
+    <mergeCell ref="BO456:BP456"/>
+    <mergeCell ref="BG457:BH457"/>
+    <mergeCell ref="BO457:BP457"/>
+    <mergeCell ref="BG458:BH458"/>
+    <mergeCell ref="BO458:BP458"/>
+    <mergeCell ref="BO450:BP450"/>
+    <mergeCell ref="BO451:BP451"/>
+    <mergeCell ref="BF469:BG469"/>
+    <mergeCell ref="BO469:BP469"/>
+    <mergeCell ref="CG469:CH469"/>
+    <mergeCell ref="AT470:AU470"/>
+    <mergeCell ref="BF470:BG470"/>
+    <mergeCell ref="BO470:BP470"/>
+    <mergeCell ref="BO465:BP465"/>
+    <mergeCell ref="BG466:BH466"/>
+    <mergeCell ref="BO466:BP466"/>
+    <mergeCell ref="BG467:BH467"/>
+    <mergeCell ref="BO467:BP467"/>
+    <mergeCell ref="AT468:AU468"/>
+    <mergeCell ref="BO468:BP468"/>
+    <mergeCell ref="BE462:BF462"/>
+    <mergeCell ref="BO462:BP462"/>
+    <mergeCell ref="CL462:CM462"/>
+    <mergeCell ref="BO463:BP463"/>
+    <mergeCell ref="BT479:BU479"/>
+    <mergeCell ref="CD479:CE479"/>
+    <mergeCell ref="BO474:BP474"/>
+    <mergeCell ref="BF475:BG475"/>
+    <mergeCell ref="BO475:BP475"/>
+    <mergeCell ref="K476:L476"/>
+    <mergeCell ref="BO476:BP476"/>
+    <mergeCell ref="K477:L477"/>
+    <mergeCell ref="BO477:BP477"/>
+    <mergeCell ref="BO471:BP471"/>
+    <mergeCell ref="BC472:BD472"/>
+    <mergeCell ref="BF472:BG472"/>
+    <mergeCell ref="BI472:BJ472"/>
+    <mergeCell ref="BO472:BP472"/>
+    <mergeCell ref="BF473:BG473"/>
+    <mergeCell ref="BI473:BJ473"/>
+    <mergeCell ref="BO473:BP473"/>
+    <mergeCell ref="BF483:BG483"/>
+    <mergeCell ref="BO483:BP483"/>
+    <mergeCell ref="BO484:BP484"/>
+    <mergeCell ref="BO485:BP485"/>
+    <mergeCell ref="R486:S486"/>
+    <mergeCell ref="BF486:BG486"/>
+    <mergeCell ref="BO486:BP486"/>
+    <mergeCell ref="BF480:BG480"/>
+    <mergeCell ref="BO480:BP480"/>
+    <mergeCell ref="BF481:BG481"/>
+    <mergeCell ref="BO481:BP481"/>
+    <mergeCell ref="BF482:BG482"/>
+    <mergeCell ref="BO482:BP482"/>
+    <mergeCell ref="BF478:BG478"/>
+    <mergeCell ref="BO478:BP478"/>
+    <mergeCell ref="BF479:BG479"/>
+    <mergeCell ref="BO479:BP479"/>
+    <mergeCell ref="AE492:AF492"/>
+    <mergeCell ref="BO492:BP492"/>
+    <mergeCell ref="AE493:AF493"/>
+    <mergeCell ref="BO493:BP493"/>
+    <mergeCell ref="AR494:AS494"/>
+    <mergeCell ref="BO494:BP494"/>
+    <mergeCell ref="AE490:AF490"/>
+    <mergeCell ref="BF490:BG490"/>
+    <mergeCell ref="BO490:BP490"/>
+    <mergeCell ref="CU490:CV490"/>
+    <mergeCell ref="BF491:BG491"/>
+    <mergeCell ref="BO491:BP491"/>
+    <mergeCell ref="CU491:CV491"/>
+    <mergeCell ref="R487:S487"/>
+    <mergeCell ref="BF487:BG487"/>
+    <mergeCell ref="BO487:BP487"/>
+    <mergeCell ref="CH487:CI487"/>
+    <mergeCell ref="BO488:BP488"/>
+    <mergeCell ref="BO489:BP489"/>
+    <mergeCell ref="AJ498:AK498"/>
+    <mergeCell ref="BF498:BG498"/>
+    <mergeCell ref="BO498:BP498"/>
+    <mergeCell ref="BW498:BX498"/>
+    <mergeCell ref="Z499:AA499"/>
+    <mergeCell ref="AJ499:AK499"/>
+    <mergeCell ref="BF499:BG499"/>
+    <mergeCell ref="BO499:BP499"/>
+    <mergeCell ref="BW499:BX499"/>
+    <mergeCell ref="AR495:AS495"/>
+    <mergeCell ref="BO495:BP495"/>
+    <mergeCell ref="S496:T496"/>
+    <mergeCell ref="AV496:AW496"/>
+    <mergeCell ref="BO496:BP496"/>
+    <mergeCell ref="S497:T497"/>
+    <mergeCell ref="AV497:AW497"/>
+    <mergeCell ref="BC497:BD497"/>
+    <mergeCell ref="BF497:BG497"/>
+    <mergeCell ref="BO497:BP497"/>
+    <mergeCell ref="BO505:BP505"/>
+    <mergeCell ref="BO506:BP506"/>
+    <mergeCell ref="BO507:BP507"/>
+    <mergeCell ref="BF508:BG508"/>
+    <mergeCell ref="BO508:BP508"/>
+    <mergeCell ref="BF509:BG509"/>
+    <mergeCell ref="BO509:BP509"/>
+    <mergeCell ref="AI503:AJ503"/>
+    <mergeCell ref="BF503:BG503"/>
+    <mergeCell ref="BO503:BP503"/>
+    <mergeCell ref="BW503:BX503"/>
+    <mergeCell ref="BY503:BZ503"/>
+    <mergeCell ref="BO504:BP504"/>
+    <mergeCell ref="BO500:BP500"/>
+    <mergeCell ref="BF501:BG501"/>
+    <mergeCell ref="BO501:BP501"/>
+    <mergeCell ref="BW501:BX501"/>
+    <mergeCell ref="BY501:BZ501"/>
+    <mergeCell ref="AI502:AJ502"/>
+    <mergeCell ref="BF502:BG502"/>
+    <mergeCell ref="BO502:BP502"/>
+    <mergeCell ref="BW502:BX502"/>
+    <mergeCell ref="BY502:BZ502"/>
+    <mergeCell ref="BF516:BG516"/>
+    <mergeCell ref="BO516:BP516"/>
+    <mergeCell ref="BF517:BG517"/>
+    <mergeCell ref="BO517:BP517"/>
+    <mergeCell ref="BF518:BG518"/>
+    <mergeCell ref="BO518:BP518"/>
+    <mergeCell ref="AZ514:BA514"/>
+    <mergeCell ref="BF514:BG514"/>
+    <mergeCell ref="BO514:BP514"/>
+    <mergeCell ref="CK514:CL514"/>
+    <mergeCell ref="BF515:BG515"/>
+    <mergeCell ref="BO515:BP515"/>
+    <mergeCell ref="CK515:CL515"/>
+    <mergeCell ref="AB510:AC510"/>
+    <mergeCell ref="BF510:BG510"/>
+    <mergeCell ref="BO510:BP510"/>
+    <mergeCell ref="BO511:BP511"/>
+    <mergeCell ref="BO512:BP512"/>
+    <mergeCell ref="BO513:BP513"/>
+    <mergeCell ref="AO524:AP524"/>
+    <mergeCell ref="BF524:BG524"/>
+    <mergeCell ref="BO524:BP524"/>
+    <mergeCell ref="CG524:CH524"/>
+    <mergeCell ref="AO525:AP525"/>
+    <mergeCell ref="BF525:BG525"/>
+    <mergeCell ref="BO525:BP525"/>
+    <mergeCell ref="CG525:CH525"/>
+    <mergeCell ref="AO522:AP522"/>
+    <mergeCell ref="BO522:BP522"/>
+    <mergeCell ref="CG522:CH522"/>
+    <mergeCell ref="AO523:AP523"/>
+    <mergeCell ref="BF523:BG523"/>
+    <mergeCell ref="BO523:BP523"/>
+    <mergeCell ref="CG523:CH523"/>
+    <mergeCell ref="BF519:BG519"/>
+    <mergeCell ref="BO519:BP519"/>
+    <mergeCell ref="BF520:BG520"/>
+    <mergeCell ref="BO520:BP520"/>
+    <mergeCell ref="BF521:BG521"/>
+    <mergeCell ref="BO521:BP521"/>
+    <mergeCell ref="AN532:AO532"/>
+    <mergeCell ref="BF532:BG532"/>
+    <mergeCell ref="BO532:BP532"/>
+    <mergeCell ref="AN533:AO533"/>
+    <mergeCell ref="BF533:BG533"/>
+    <mergeCell ref="BO533:BP533"/>
+    <mergeCell ref="BF529:BG529"/>
+    <mergeCell ref="BO529:BP529"/>
+    <mergeCell ref="AN530:AO530"/>
+    <mergeCell ref="BF530:BG530"/>
+    <mergeCell ref="BO530:BP530"/>
+    <mergeCell ref="AN531:AO531"/>
+    <mergeCell ref="BF531:BG531"/>
+    <mergeCell ref="BO531:BP531"/>
+    <mergeCell ref="BF526:BG526"/>
+    <mergeCell ref="BO526:BP526"/>
+    <mergeCell ref="BF527:BG527"/>
+    <mergeCell ref="BO527:BP527"/>
+    <mergeCell ref="BF528:BG528"/>
+    <mergeCell ref="BO528:BP528"/>
+    <mergeCell ref="CP538:CQ538"/>
+    <mergeCell ref="AE539:AF539"/>
+    <mergeCell ref="BF539:BG539"/>
+    <mergeCell ref="BO539:BP539"/>
+    <mergeCell ref="BO540:BP540"/>
+    <mergeCell ref="AE541:AF541"/>
+    <mergeCell ref="BF541:BG541"/>
+    <mergeCell ref="BO541:BP541"/>
+    <mergeCell ref="BO536:BP536"/>
+    <mergeCell ref="AE537:AF537"/>
+    <mergeCell ref="BF537:BG537"/>
+    <mergeCell ref="BO537:BP537"/>
+    <mergeCell ref="AE538:AF538"/>
+    <mergeCell ref="BF538:BG538"/>
+    <mergeCell ref="BO538:BP538"/>
+    <mergeCell ref="AE534:AF534"/>
+    <mergeCell ref="BF534:BG534"/>
+    <mergeCell ref="BO534:BP534"/>
+    <mergeCell ref="AE535:AF535"/>
+    <mergeCell ref="BF535:BG535"/>
+    <mergeCell ref="BO535:BP535"/>
+    <mergeCell ref="BO549:BP549"/>
+    <mergeCell ref="BF550:BG550"/>
+    <mergeCell ref="BO550:BP550"/>
+    <mergeCell ref="CU550:CV550"/>
+    <mergeCell ref="BF551:BG551"/>
+    <mergeCell ref="BO551:BP551"/>
+    <mergeCell ref="CU551:CV551"/>
+    <mergeCell ref="BF545:BG545"/>
+    <mergeCell ref="BO545:BP545"/>
+    <mergeCell ref="BO546:BP546"/>
+    <mergeCell ref="BO547:BP547"/>
+    <mergeCell ref="BF548:BG548"/>
+    <mergeCell ref="BO548:BP548"/>
+    <mergeCell ref="AT542:AU542"/>
+    <mergeCell ref="BF542:BG542"/>
+    <mergeCell ref="BO542:BP542"/>
+    <mergeCell ref="BF543:BG543"/>
+    <mergeCell ref="BO543:BP543"/>
+    <mergeCell ref="AT544:AU544"/>
+    <mergeCell ref="BF544:BG544"/>
+    <mergeCell ref="BO544:BP544"/>
+    <mergeCell ref="S558:T558"/>
+    <mergeCell ref="BF558:BG558"/>
+    <mergeCell ref="BO558:BP558"/>
+    <mergeCell ref="CU558:CV558"/>
+    <mergeCell ref="S559:T559"/>
+    <mergeCell ref="BF559:BG559"/>
+    <mergeCell ref="BO559:BP559"/>
+    <mergeCell ref="CU559:CV559"/>
+    <mergeCell ref="BF555:BG555"/>
+    <mergeCell ref="BO555:BP555"/>
+    <mergeCell ref="BF556:BG556"/>
+    <mergeCell ref="BO556:BP556"/>
+    <mergeCell ref="BF557:BG557"/>
+    <mergeCell ref="BO557:BP557"/>
+    <mergeCell ref="BO552:BP552"/>
+    <mergeCell ref="R553:S553"/>
+    <mergeCell ref="BF553:BG553"/>
+    <mergeCell ref="BO553:BP553"/>
+    <mergeCell ref="CU553:CV553"/>
+    <mergeCell ref="BF554:BG554"/>
+    <mergeCell ref="BO554:BP554"/>
+    <mergeCell ref="AF565:AG565"/>
+    <mergeCell ref="BF565:BG565"/>
+    <mergeCell ref="AV566:AW566"/>
+    <mergeCell ref="BF566:BG566"/>
+    <mergeCell ref="AV567:AW567"/>
+    <mergeCell ref="BF567:BG567"/>
+    <mergeCell ref="CU561:CV561"/>
+    <mergeCell ref="AF562:AG562"/>
+    <mergeCell ref="AX562:AY562"/>
+    <mergeCell ref="BF562:BG562"/>
+    <mergeCell ref="AF564:AG564"/>
+    <mergeCell ref="BF564:BG564"/>
+    <mergeCell ref="S560:T560"/>
+    <mergeCell ref="BF560:BG560"/>
+    <mergeCell ref="BO560:BP560"/>
+    <mergeCell ref="S561:T561"/>
+    <mergeCell ref="AX561:AY561"/>
+    <mergeCell ref="BF561:BG561"/>
+    <mergeCell ref="BF578:BG578"/>
+    <mergeCell ref="BF579:BG579"/>
+    <mergeCell ref="BF580:BG580"/>
+    <mergeCell ref="BF581:BG581"/>
+    <mergeCell ref="C582:D582"/>
+    <mergeCell ref="C583:D583"/>
+    <mergeCell ref="BF583:BG583"/>
+    <mergeCell ref="AO575:AP575"/>
+    <mergeCell ref="BF575:BG575"/>
+    <mergeCell ref="AO576:AP576"/>
+    <mergeCell ref="BF576:BG576"/>
+    <mergeCell ref="AO577:AP577"/>
+    <mergeCell ref="BF577:BG577"/>
+    <mergeCell ref="BF570:BG570"/>
+    <mergeCell ref="BF571:BG571"/>
+    <mergeCell ref="BF572:BG572"/>
+    <mergeCell ref="R573:S573"/>
+    <mergeCell ref="BF573:BG573"/>
+    <mergeCell ref="AO574:AP574"/>
+    <mergeCell ref="BF574:BG574"/>
+    <mergeCell ref="B593:C593"/>
+    <mergeCell ref="D593:E593"/>
+    <mergeCell ref="B594:C594"/>
+    <mergeCell ref="D594:E594"/>
+    <mergeCell ref="U589:V589"/>
+    <mergeCell ref="BF589:BG589"/>
+    <mergeCell ref="CK589:CL589"/>
+    <mergeCell ref="B591:C591"/>
+    <mergeCell ref="B592:C592"/>
+    <mergeCell ref="D592:E592"/>
+    <mergeCell ref="C584:D584"/>
+    <mergeCell ref="C585:D585"/>
+    <mergeCell ref="BF585:BG585"/>
+    <mergeCell ref="C586:D586"/>
+    <mergeCell ref="BF586:BG586"/>
+    <mergeCell ref="C587:D587"/>
+    <mergeCell ref="BF587:BG587"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/data/data.xlsx
+++ b/database/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG\TFG-PAP\database\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TFG\TFG-PAP\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FC1D5B-0E5E-49A5-822D-7AA067134E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E48F7A2-1A78-40C7-881A-6E3D8C3AFEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="0" windowWidth="13845" windowHeight="15585" xr2:uid="{A2828F54-C3DD-44CF-894E-B946D6622387}"/>
+    <workbookView xWindow="57495" yWindow="14040" windowWidth="16410" windowHeight="14145" xr2:uid="{A2828F54-C3DD-44CF-894E-B946D6622387}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1537,13 +1537,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BD6E7-65F3-4A5E-A55C-9CBF3B5C6371}">
   <dimension ref="A1:CV590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:100" ht="15.75">
+    <row r="1" spans="1:100" ht="16">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:100" ht="115.5">
+    <row r="2" spans="1:100" ht="116.5">
       <c r="A2" s="3"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -57517,7 +57517,7 @@
       <c r="CU463" s="3"/>
       <c r="CV463" s="3"/>
     </row>
-    <row r="464" spans="1:100" ht="15.75">
+    <row r="464" spans="1:100" ht="15.5">
       <c r="A464" s="10" t="s">
         <v>286</v>
       </c>
@@ -57633,7 +57633,7 @@
       <c r="CU464" s="3"/>
       <c r="CV464" s="3"/>
     </row>
-    <row r="465" spans="1:100" ht="15.75">
+    <row r="465" spans="1:100" ht="15.5">
       <c r="A465" s="10" t="s">
         <v>287</v>
       </c>
@@ -57749,7 +57749,7 @@
       <c r="CU465" s="3"/>
       <c r="CV465" s="3"/>
     </row>
-    <row r="466" spans="1:100" ht="15.75">
+    <row r="466" spans="1:100" ht="15.5">
       <c r="A466" s="10" t="s">
         <v>288</v>
       </c>
@@ -57865,7 +57865,7 @@
       <c r="CU466" s="3"/>
       <c r="CV466" s="3"/>
     </row>
-    <row r="467" spans="1:100" ht="15.75">
+    <row r="467" spans="1:100" ht="15.5">
       <c r="A467" s="10" t="s">
         <v>288</v>
       </c>
@@ -72121,7 +72121,7 @@
         <v>217</v>
       </c>
       <c r="C589" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D589" s="3">
         <v>2</v>
@@ -72347,14 +72347,42 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="CS7:CT7"/>
-    <mergeCell ref="CU7:CV7"/>
-    <mergeCell ref="CG7:CH7"/>
-    <mergeCell ref="CI7:CJ7"/>
-    <mergeCell ref="CK7:CL7"/>
-    <mergeCell ref="CM7:CN7"/>
-    <mergeCell ref="CO7:CP7"/>
-    <mergeCell ref="CQ7:CR7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="BE7:BF7"/>
     <mergeCell ref="CE7:CF7"/>
     <mergeCell ref="BI7:BJ7"/>
     <mergeCell ref="BK7:BL7"/>
@@ -72367,42 +72395,14 @@
     <mergeCell ref="BY7:BZ7"/>
     <mergeCell ref="CA7:CB7"/>
     <mergeCell ref="CC7:CD7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="AY7:AZ7"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="CS7:CT7"/>
+    <mergeCell ref="CU7:CV7"/>
+    <mergeCell ref="CG7:CH7"/>
+    <mergeCell ref="CI7:CJ7"/>
+    <mergeCell ref="CK7:CL7"/>
+    <mergeCell ref="CM7:CN7"/>
+    <mergeCell ref="CO7:CP7"/>
+    <mergeCell ref="CQ7:CR7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
